--- a/prokka_outputs/Manually checked annotation summary/2024-08-02_Manual Check_Nucleotide alignment Annotations.xlsx
+++ b/prokka_outputs/Manually checked annotation summary/2024-08-02_Manual Check_Nucleotide alignment Annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/prokka_outputs/Manually checked annotation summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1072" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C72A5FA-5886-485F-9EDD-421F251AFC01}"/>
+  <xr:revisionPtr revIDLastSave="1150" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33AB1350-B29E-4CC4-80A1-EFFB651ECF40}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
   </bookViews>
@@ -27,6 +27,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={714FE171-D17A-4F65-81A6-C00D7240F3AF}</author>
+    <author>tc={AE177E41-C14E-462A-A1E6-67A53CA3B329}</author>
   </authors>
   <commentList>
     <comment ref="N1" authorId="0" shapeId="0" xr:uid="{714FE171-D17A-4F65-81A6-C00D7240F3AF}">
@@ -37,12 +38,20 @@
     The core genes in this excel spreadsheet were found by finding the gene with the relevant locus tag in the .gff file displayed in Geneious alignment viewer. </t>
       </text>
     </comment>
+    <comment ref="N24" authorId="1" shapeId="0" xr:uid="{AE177E41-C14E-462A-A1E6-67A53CA3B329}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    No matches in GenBank. </t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="409">
   <si>
     <t>Type</t>
   </si>
@@ -1097,12 +1106,6 @@
     <t>Name in Geneious</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Core gene locus tags:</t>
-  </si>
-  <si>
     <t>Prokka</t>
   </si>
   <si>
@@ -1187,9 +1190,6 @@
     <t>_00094</t>
   </si>
   <si>
-    <t>_00093</t>
-  </si>
-  <si>
     <t>_00012</t>
   </si>
   <si>
@@ -1254,6 +1254,42 @@
   </si>
   <si>
     <t>4 matches in Genbank. Locus tag 00095</t>
+  </si>
+  <si>
+    <t>Locus tag _00046</t>
+  </si>
+  <si>
+    <t>Locus tag _00012</t>
+  </si>
+  <si>
+    <t>Putative transcription elongation factor TFIIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locus tag _00047. 6 Matchesin Genbank of a similar size (a few amino acids smaller and a couple were larger). Simialar gene in reference genome annotations, just smaller in refeference genome annotations. </t>
+  </si>
+  <si>
+    <t>Locus tag _000123</t>
+  </si>
+  <si>
+    <t>DNA-directed RNA polymerase subunit 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locus tag _00023. Larger version of this gene in reference genome annotation. Genbank returned .100 sequence matches for Prokka annotation but they were all larger 660-1000 amino acids long (noting figures in columns 4-6 are nucleic acids). No M anywhere near where referenc egneom annotation began so decided to keep smaller Prokka annotation which started wiht an M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locus tag _00031. Zero matches in GenBank. Similar smaller gene in reference gene annotation and which also returned zero matches in GenBank. </t>
+  </si>
+  <si>
+    <t>Locus tag _00094</t>
+  </si>
+  <si>
+    <t>10 Matches in GenBank. Reference genome annotation has a gene covering only a very portion of the sequence which the Prokka annotation covers. The Reference genome annotation  returns no matches in GenBank. Decided to keep Prokka annotation. Locus tag _00093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core gene locus tags </t>
+  </si>
+  <si>
+    <t>_00093N4N1N6:N26N2:N2N11:N26</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1813,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1828,13 +1864,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="5" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2229,6 +2268,9 @@
   <threadedComment ref="N1" dT="2024-08-02T04:47:15.50" personId="{1593F646-CE63-4A1A-B57F-65C7D5CDEE05}" id="{714FE171-D17A-4F65-81A6-C00D7240F3AF}">
     <text xml:space="preserve">The core genes in this excel spreadsheet were found by finding the gene with the relevant locus tag in the .gff file displayed in Geneious alignment viewer. </text>
   </threadedComment>
+  <threadedComment ref="N24" dT="2024-08-03T07:12:36.13" personId="{1593F646-CE63-4A1A-B57F-65C7D5CDEE05}" id="{AE177E41-C14E-462A-A1E6-67A53CA3B329}">
+    <text xml:space="preserve">No matches in GenBank. </text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2263,7 +2305,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>343</v>
@@ -2307,7 +2349,7 @@
     </row>
     <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
@@ -2348,7 +2390,7 @@
     </row>
     <row r="3" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -2389,7 +2431,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>132</v>
@@ -2412,7 +2454,7 @@
     </row>
     <row r="5" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -2453,7 +2495,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>131</v>
@@ -2476,7 +2518,7 @@
     </row>
     <row r="7" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
@@ -2517,7 +2559,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>130</v>
@@ -2540,7 +2582,7 @@
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>129</v>
@@ -2579,7 +2621,7 @@
     </row>
     <row r="10" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
@@ -2620,7 +2662,7 @@
     </row>
     <row r="11" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -2661,7 +2703,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>128</v>
@@ -2699,7 +2741,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>134</v>
@@ -2722,7 +2764,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>127</v>
@@ -2745,7 +2787,7 @@
     </row>
     <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
@@ -2786,7 +2828,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>126</v>
@@ -2809,7 +2851,7 @@
     </row>
     <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>6</v>
@@ -2841,7 +2883,7 @@
     </row>
     <row r="18" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>6</v>
@@ -2882,7 +2924,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>125</v>
@@ -2905,7 +2947,7 @@
     </row>
     <row r="20" spans="1:13" s="13" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>6</v>
@@ -2940,7 +2982,7 @@
     </row>
     <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>124</v>
@@ -2981,7 +3023,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>6</v>
@@ -3004,7 +3046,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>123</v>
@@ -3027,7 +3069,7 @@
     </row>
     <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
@@ -3068,7 +3110,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>122</v>
@@ -3091,7 +3133,7 @@
     </row>
     <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6</v>
@@ -3132,7 +3174,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>121</v>
@@ -3155,7 +3197,7 @@
     </row>
     <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>6</v>
@@ -3196,7 +3238,7 @@
     </row>
     <row r="29" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>6</v>
@@ -3237,7 +3279,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>120</v>
@@ -3260,7 +3302,7 @@
     </row>
     <row r="31" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -3301,7 +3343,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>119</v>
@@ -3324,7 +3366,7 @@
     </row>
     <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>6</v>
@@ -3362,7 +3404,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>118</v>
@@ -3385,7 +3427,7 @@
     </row>
     <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>6</v>
@@ -3426,7 +3468,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>117</v>
@@ -3449,7 +3491,7 @@
     </row>
     <row r="37" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>6</v>
@@ -3490,7 +3532,7 @@
     </row>
     <row r="38" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>116</v>
@@ -3516,7 +3558,7 @@
     </row>
     <row r="39" spans="1:13" s="17" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>116</v>
@@ -3555,7 +3597,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>115</v>
@@ -3578,7 +3620,7 @@
     </row>
     <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>6</v>
@@ -3619,7 +3661,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>114</v>
@@ -3642,7 +3684,7 @@
     </row>
     <row r="43" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>6</v>
@@ -3683,7 +3725,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>113</v>
@@ -3706,7 +3748,7 @@
     </row>
     <row r="45" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>112</v>
@@ -3738,7 +3780,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>6</v>
@@ -3761,7 +3803,7 @@
     </row>
     <row r="47" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>111</v>
@@ -3790,7 +3832,7 @@
     </row>
     <row r="48" spans="1:13" s="10" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>6</v>
@@ -3821,7 +3863,7 @@
     </row>
     <row r="49" spans="1:13" s="10" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>6</v>
@@ -3852,7 +3894,7 @@
     </row>
     <row r="50" spans="1:13" s="10" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>6</v>
@@ -3883,7 +3925,7 @@
     </row>
     <row r="51" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>6</v>
@@ -3924,7 +3966,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>110</v>
@@ -3947,7 +3989,7 @@
     </row>
     <row r="53" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>108</v>
@@ -3976,7 +4018,7 @@
     </row>
     <row r="54" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>107</v>
@@ -4005,7 +4047,7 @@
     </row>
     <row r="55" spans="1:13" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>6</v>
@@ -4040,7 +4082,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>106</v>
@@ -4063,7 +4105,7 @@
     </row>
     <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>6</v>
@@ -4104,7 +4146,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>105</v>
@@ -4127,7 +4169,7 @@
     </row>
     <row r="59" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>6</v>
@@ -4168,7 +4210,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>104</v>
@@ -4191,7 +4233,7 @@
     </row>
     <row r="61" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>6</v>
@@ -4232,7 +4274,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>103</v>
@@ -4255,7 +4297,7 @@
     </row>
     <row r="63" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>6</v>
@@ -4296,7 +4338,7 @@
     </row>
     <row r="64" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>6</v>
@@ -4337,7 +4379,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>102</v>
@@ -4360,7 +4402,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>101</v>
@@ -4383,7 +4425,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>100</v>
@@ -4406,7 +4448,7 @@
     </row>
     <row r="68" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>6</v>
@@ -4447,7 +4489,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>99</v>
@@ -4470,7 +4512,7 @@
     </row>
     <row r="70" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>6</v>
@@ -4511,7 +4553,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>98</v>
@@ -4534,7 +4576,7 @@
     </row>
     <row r="72" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>133</v>
@@ -4575,7 +4617,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>97</v>
@@ -4598,7 +4640,7 @@
     </row>
     <row r="74" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>6</v>
@@ -4639,7 +4681,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>96</v>
@@ -4662,7 +4704,7 @@
     </row>
     <row r="76" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>6</v>
@@ -4703,7 +4745,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>95</v>
@@ -4726,7 +4768,7 @@
     </row>
     <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>6</v>
@@ -4767,7 +4809,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>94</v>
@@ -4790,7 +4832,7 @@
     </row>
     <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>6</v>
@@ -4831,7 +4873,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>93</v>
@@ -4854,7 +4896,7 @@
     </row>
     <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>6</v>
@@ -4895,7 +4937,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>92</v>
@@ -4918,7 +4960,7 @@
     </row>
     <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>6</v>
@@ -4959,7 +5001,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>91</v>
@@ -4982,7 +5024,7 @@
     </row>
     <row r="86" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>6</v>
@@ -5023,7 +5065,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>90</v>
@@ -5046,7 +5088,7 @@
     </row>
     <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>6</v>
@@ -5087,7 +5129,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>89</v>
@@ -5110,7 +5152,7 @@
     </row>
     <row r="90" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>6</v>
@@ -5151,7 +5193,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>88</v>
@@ -5174,7 +5216,7 @@
     </row>
     <row r="92" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>6</v>
@@ -5215,7 +5257,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>87</v>
@@ -5238,7 +5280,7 @@
     </row>
     <row r="94" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>6</v>
@@ -5279,7 +5321,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>86</v>
@@ -5302,7 +5344,7 @@
     </row>
     <row r="96" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>6</v>
@@ -5343,7 +5385,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>85</v>
@@ -5366,7 +5408,7 @@
     </row>
     <row r="98" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>6</v>
@@ -5407,7 +5449,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>84</v>
@@ -5430,7 +5472,7 @@
     </row>
     <row r="100" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>6</v>
@@ -5471,7 +5513,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>83</v>
@@ -5494,7 +5536,7 @@
     </row>
     <row r="102" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>6</v>
@@ -5535,7 +5577,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>82</v>
@@ -5558,7 +5600,7 @@
     </row>
     <row r="104" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>6</v>
@@ -5599,7 +5641,7 @@
     </row>
     <row r="105" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>81</v>
@@ -5628,7 +5670,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>80</v>
@@ -5651,7 +5693,7 @@
     </row>
     <row r="107" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>6</v>
@@ -5692,7 +5734,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>79</v>
@@ -5715,7 +5757,7 @@
     </row>
     <row r="109" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>6</v>
@@ -5756,7 +5798,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>78</v>
@@ -5779,7 +5821,7 @@
     </row>
     <row r="111" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>6</v>
@@ -5820,7 +5862,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>77</v>
@@ -5843,7 +5885,7 @@
     </row>
     <row r="113" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>6</v>
@@ -5884,7 +5926,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>76</v>
@@ -5907,7 +5949,7 @@
     </row>
     <row r="115" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>6</v>
@@ -5948,7 +5990,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>75</v>
@@ -5971,7 +6013,7 @@
     </row>
     <row r="117" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>6</v>
@@ -6012,7 +6054,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>74</v>
@@ -6035,7 +6077,7 @@
     </row>
     <row r="119" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>6</v>
@@ -6076,7 +6118,7 @@
     </row>
     <row r="120" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>6</v>
@@ -6117,7 +6159,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>73</v>
@@ -6140,7 +6182,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>72</v>
@@ -6163,7 +6205,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>71</v>
@@ -6186,7 +6228,7 @@
     </row>
     <row r="124" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>6</v>
@@ -6227,7 +6269,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>70</v>
@@ -6250,7 +6292,7 @@
     </row>
     <row r="126" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>6</v>
@@ -6291,7 +6333,7 @@
     </row>
     <row r="127" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>6</v>
@@ -6332,7 +6374,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>69</v>
@@ -6355,7 +6397,7 @@
     </row>
     <row r="129" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>6</v>
@@ -6396,7 +6438,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>68</v>
@@ -6419,7 +6461,7 @@
     </row>
     <row r="131" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>6</v>
@@ -6460,7 +6502,7 @@
     </row>
     <row r="132" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>67</v>
@@ -6501,7 +6543,7 @@
     </row>
     <row r="133" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>6</v>
@@ -6542,7 +6584,7 @@
     </row>
     <row r="134" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>6</v>
@@ -6583,7 +6625,7 @@
     </row>
     <row r="135" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>66</v>
@@ -6624,7 +6666,7 @@
     </row>
     <row r="136" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>6</v>
@@ -6665,7 +6707,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>65</v>
@@ -6688,7 +6730,7 @@
     </row>
     <row r="138" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>6</v>
@@ -6729,7 +6771,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>64</v>
@@ -6752,7 +6794,7 @@
     </row>
     <row r="140" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>6</v>
@@ -6793,7 +6835,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>63</v>
@@ -6816,7 +6858,7 @@
     </row>
     <row r="142" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>6</v>
@@ -6857,7 +6899,7 @@
     </row>
     <row r="143" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>6</v>
@@ -6898,7 +6940,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>62</v>
@@ -6921,7 +6963,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>61</v>
@@ -6944,7 +6986,7 @@
     </row>
     <row r="146" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>6</v>
@@ -6985,7 +7027,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>60</v>
@@ -7008,7 +7050,7 @@
     </row>
     <row r="148" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>6</v>
@@ -7049,7 +7091,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>59</v>
@@ -7072,7 +7114,7 @@
     </row>
     <row r="150" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>6</v>
@@ -7113,7 +7155,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>58</v>
@@ -7136,7 +7178,7 @@
     </row>
     <row r="152" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>6</v>
@@ -7177,7 +7219,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>57</v>
@@ -7200,7 +7242,7 @@
     </row>
     <row r="154" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>6</v>
@@ -7241,7 +7283,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>56</v>
@@ -7264,7 +7306,7 @@
     </row>
     <row r="156" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>6</v>
@@ -7305,7 +7347,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>5</v>
@@ -7328,7 +7370,7 @@
     </row>
     <row r="158" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>6</v>
@@ -7369,7 +7411,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>55</v>
@@ -7392,7 +7434,7 @@
     </row>
     <row r="160" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>6</v>
@@ -7433,7 +7475,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>54</v>
@@ -7456,7 +7498,7 @@
     </row>
     <row r="162" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>6</v>
@@ -7497,7 +7539,7 @@
     </row>
     <row r="163" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>53</v>
@@ -7523,7 +7565,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>52</v>
@@ -7546,7 +7588,7 @@
     </row>
     <row r="165" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>6</v>
@@ -7587,7 +7629,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>51</v>
@@ -7610,7 +7652,7 @@
     </row>
     <row r="167" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>6</v>
@@ -7651,7 +7693,7 @@
     </row>
     <row r="168" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>6</v>
@@ -7692,7 +7734,7 @@
     </row>
     <row r="169" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>50</v>
@@ -7718,7 +7760,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>6</v>
@@ -7759,7 +7801,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>49</v>
@@ -7782,7 +7824,7 @@
     </row>
     <row r="172" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>6</v>
@@ -7823,7 +7865,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>48</v>
@@ -7846,7 +7888,7 @@
     </row>
     <row r="174" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>6</v>
@@ -7887,7 +7929,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>47</v>
@@ -7910,7 +7952,7 @@
     </row>
     <row r="176" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>6</v>
@@ -7951,7 +7993,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>46</v>
@@ -7974,7 +8016,7 @@
     </row>
     <row r="178" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>6</v>
@@ -8015,7 +8057,7 @@
     </row>
     <row r="179" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>6</v>
@@ -8056,7 +8098,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>45</v>
@@ -8079,7 +8121,7 @@
     </row>
     <row r="181" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>6</v>
@@ -8120,7 +8162,7 @@
     </row>
     <row r="182" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>6</v>
@@ -8161,7 +8203,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>44</v>
@@ -8187,7 +8229,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>43</v>
@@ -8213,7 +8255,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>42</v>
@@ -8239,7 +8281,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>41</v>
@@ -8265,7 +8307,7 @@
     </row>
     <row r="187" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>6</v>
@@ -8306,7 +8348,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>40</v>
@@ -8329,7 +8371,7 @@
     </row>
     <row r="189" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>6</v>
@@ -8370,7 +8412,7 @@
     </row>
     <row r="190" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>39</v>
@@ -8411,7 +8453,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>38</v>
@@ -8434,7 +8476,7 @@
     </row>
     <row r="192" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>6</v>
@@ -8475,7 +8517,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>37</v>
@@ -8498,7 +8540,7 @@
     </row>
     <row r="194" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>6</v>
@@ -8539,7 +8581,7 @@
     </row>
     <row r="195" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>6</v>
@@ -8580,7 +8622,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>36</v>
@@ -8606,7 +8648,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>35</v>
@@ -8632,7 +8674,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>34</v>
@@ -8658,7 +8700,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>6</v>
@@ -8699,7 +8741,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>33</v>
@@ -8722,7 +8764,7 @@
     </row>
     <row r="201" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>6</v>
@@ -8763,7 +8805,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>32</v>
@@ -8786,7 +8828,7 @@
     </row>
     <row r="203" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>6</v>
@@ -8827,7 +8869,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>31</v>
@@ -8850,7 +8892,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>6</v>
@@ -8891,7 +8933,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>30</v>
@@ -8914,7 +8956,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>6</v>
@@ -8955,7 +8997,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>29</v>
@@ -8978,7 +9020,7 @@
     </row>
     <row r="209" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>6</v>
@@ -9019,7 +9061,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>28</v>
@@ -9042,7 +9084,7 @@
     </row>
     <row r="211" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>6</v>
@@ -9083,7 +9125,7 @@
     </row>
     <row r="212" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>27</v>
@@ -9124,7 +9166,7 @@
     </row>
     <row r="213" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>6</v>
@@ -9165,7 +9207,7 @@
     </row>
     <row r="214" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>6</v>
@@ -9206,7 +9248,7 @@
     </row>
     <row r="215" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>26</v>
@@ -9232,7 +9274,7 @@
     </row>
     <row r="216" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>25</v>
@@ -9258,7 +9300,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>24</v>
@@ -9281,7 +9323,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>6</v>
@@ -9322,7 +9364,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>23</v>
@@ -9345,7 +9387,7 @@
     </row>
     <row r="220" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>6</v>
@@ -9386,7 +9428,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>22</v>
@@ -9409,7 +9451,7 @@
     </row>
     <row r="222" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>6</v>
@@ -9450,7 +9492,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>21</v>
@@ -9473,7 +9515,7 @@
     </row>
     <row r="224" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>6</v>
@@ -9514,7 +9556,7 @@
     </row>
     <row r="225" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>6</v>
@@ -9555,7 +9597,7 @@
     </row>
     <row r="226" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>20</v>
@@ -9581,7 +9623,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>19</v>
@@ -9604,7 +9646,7 @@
     </row>
     <row r="228" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>6</v>
@@ -9645,7 +9687,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>18</v>
@@ -9668,7 +9710,7 @@
     </row>
     <row r="230" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>6</v>
@@ -9709,7 +9751,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>17</v>
@@ -9732,7 +9774,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>16</v>
@@ -9755,7 +9797,7 @@
     </row>
     <row r="233" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>6</v>
@@ -9796,7 +9838,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>15</v>
@@ -9819,7 +9861,7 @@
     </row>
     <row r="235" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>6</v>
@@ -9857,7 +9899,7 @@
     </row>
     <row r="236" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>6</v>
@@ -9898,7 +9940,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>14</v>
@@ -9921,7 +9963,7 @@
     </row>
     <row r="238" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>6</v>
@@ -9962,7 +10004,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>13</v>
@@ -9985,7 +10027,7 @@
     </row>
     <row r="240" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>6</v>
@@ -10026,7 +10068,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>12</v>
@@ -10049,7 +10091,7 @@
     </row>
     <row r="242" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>6</v>
@@ -10090,7 +10132,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>11</v>
@@ -10113,7 +10155,7 @@
     </row>
     <row r="244" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>6</v>
@@ -10151,7 +10193,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>10</v>
@@ -10174,7 +10216,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>6</v>
@@ -10215,7 +10257,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>6</v>
@@ -10256,7 +10298,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>8</v>
@@ -10279,7 +10321,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>5</v>
@@ -10302,7 +10344,7 @@
     </row>
     <row r="250" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>6</v>
@@ -10355,10 +10397,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C397A201-0F8E-483A-B567-AF08AC6C5C27}">
   <dimension ref="A1:N455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A188" sqref="A188"/>
-      <selection pane="topRight" activeCell="N16" sqref="N16"/>
+      <selection pane="topRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10374,12 +10416,12 @@
     <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="7"/>
     <col min="13" max="13" width="22.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="36.109375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="36.109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>346</v>
@@ -10397,7 +10439,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>140</v>
@@ -10417,13 +10459,13 @@
       <c r="M1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>348</v>
+      <c r="N1" s="20" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -10443,13 +10485,13 @@
       <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="22" t="s">
-        <v>354</v>
+      <c r="N2" s="20" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>280</v>
@@ -10469,13 +10511,13 @@
       <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="22" t="s">
-        <v>355</v>
+      <c r="N3" s="20" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>281</v>
@@ -10495,13 +10537,13 @@
       <c r="L4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="22" t="s">
-        <v>356</v>
+      <c r="N4" s="20" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -10521,13 +10563,13 @@
       <c r="L5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="22" t="s">
-        <v>357</v>
+      <c r="N5" s="20" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>280</v>
@@ -10547,13 +10589,13 @@
       <c r="L6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="22" t="s">
-        <v>358</v>
+      <c r="N6" s="20" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>281</v>
@@ -10573,13 +10615,13 @@
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="22" t="s">
-        <v>359</v>
+      <c r="N7" s="20" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -10599,13 +10641,13 @@
       <c r="L8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="22" t="s">
-        <v>360</v>
+      <c r="N8" s="20" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>282</v>
@@ -10625,13 +10667,13 @@
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="22" t="s">
-        <v>361</v>
+      <c r="N9" s="20" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>281</v>
@@ -10651,13 +10693,13 @@
       <c r="L10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>362</v>
+      <c r="N10" s="20" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>282</v>
@@ -10677,13 +10719,13 @@
       <c r="L11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="22" t="s">
-        <v>363</v>
+      <c r="N11" s="20" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>281</v>
@@ -10703,13 +10745,13 @@
       <c r="L12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="22" t="s">
-        <v>364</v>
+      <c r="N12" s="20" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -10729,13 +10771,13 @@
       <c r="L13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="22" t="s">
-        <v>365</v>
+      <c r="N13" s="20" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>280</v>
@@ -10755,13 +10797,13 @@
       <c r="L14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="22" t="s">
-        <v>366</v>
+      <c r="N14" s="20" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>281</v>
@@ -10781,13 +10823,13 @@
       <c r="L15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="22" t="s">
-        <v>367</v>
+      <c r="N15" s="20" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -10808,7 +10850,7 @@
         <v>142</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>141</v>
@@ -10823,15 +10865,15 @@
         <v>9</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>368</v>
+        <v>379</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>280</v>
@@ -10851,13 +10893,13 @@
       <c r="L17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="21" t="s">
-        <v>369</v>
+      <c r="N17" s="20" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>281</v>
@@ -10877,13 +10919,13 @@
       <c r="L18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="21" t="s">
-        <v>370</v>
+      <c r="N18" s="20" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -10903,13 +10945,13 @@
       <c r="L19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="21" t="s">
-        <v>371</v>
+      <c r="N19" s="20" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>280</v>
@@ -10929,13 +10971,13 @@
       <c r="L20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="21" t="s">
-        <v>378</v>
+      <c r="N20" s="20" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>281</v>
@@ -10955,13 +10997,13 @@
       <c r="L21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="21" t="s">
-        <v>372</v>
+      <c r="N21" s="20" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -10981,13 +11023,13 @@
       <c r="L22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="21" t="s">
-        <v>373</v>
+      <c r="N22" s="20" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>280</v>
@@ -11007,13 +11049,13 @@
       <c r="L23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="21" t="s">
-        <v>374</v>
+      <c r="N23" s="20" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>281</v>
@@ -11034,12 +11076,12 @@
         <v>7</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -11059,13 +11101,13 @@
       <c r="L25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N25" s="21" t="s">
-        <v>376</v>
+      <c r="N25" s="20" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>284</v>
@@ -11085,13 +11127,13 @@
       <c r="L26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="21" t="s">
-        <v>377</v>
+      <c r="N26" s="20" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>281</v>
@@ -11114,7 +11156,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -11137,7 +11179,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
@@ -11160,7 +11202,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>285</v>
@@ -11183,7 +11225,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>281</v>
@@ -11206,7 +11248,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
@@ -11227,9 +11269,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>286</v>
@@ -11250,9 +11292,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>281</v>
@@ -11273,9 +11315,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -11292,13 +11334,31 @@
       <c r="F35" s="7">
         <v>561</v>
       </c>
+      <c r="G35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="L35" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>280</v>
@@ -11319,9 +11379,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>281</v>
@@ -11342,9 +11402,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -11365,9 +11425,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>287</v>
@@ -11388,9 +11448,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>281</v>
@@ -11411,9 +11471,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
@@ -11434,9 +11494,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>282</v>
@@ -11457,9 +11517,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>281</v>
@@ -11480,9 +11540,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>280</v>
@@ -11503,9 +11563,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>281</v>
@@ -11526,9 +11586,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>6</v>
@@ -11549,9 +11609,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>280</v>
@@ -11572,9 +11632,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>281</v>
@@ -11597,7 +11657,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
@@ -11620,7 +11680,7 @@
     </row>
     <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>282</v>
@@ -11643,7 +11703,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>281</v>
@@ -11666,7 +11726,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>6</v>
@@ -11689,7 +11749,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>280</v>
@@ -11712,7 +11772,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>281</v>
@@ -11735,7 +11795,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
@@ -11758,7 +11818,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>6</v>
@@ -11781,7 +11841,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>280</v>
@@ -11804,7 +11864,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>281</v>
@@ -11827,7 +11887,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
@@ -11850,7 +11910,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
@@ -11873,7 +11933,7 @@
     </row>
     <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>288</v>
@@ -11896,7 +11956,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>281</v>
@@ -11919,7 +11979,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>289</v>
@@ -11942,7 +12002,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>290</v>
@@ -11963,9 +12023,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>281</v>
@@ -11986,9 +12046,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>291</v>
@@ -12005,13 +12065,22 @@
       <c r="F66" s="7">
         <v>1395</v>
       </c>
+      <c r="G66" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="L66" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M66" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>292</v>
@@ -12032,9 +12101,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>281</v>
@@ -12055,9 +12124,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
@@ -12078,9 +12147,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>293</v>
@@ -12101,9 +12170,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>281</v>
@@ -12124,9 +12193,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>6</v>
@@ -12147,9 +12216,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>280</v>
@@ -12170,9 +12239,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>281</v>
@@ -12193,9 +12262,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
@@ -12216,9 +12285,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>280</v>
@@ -12239,9 +12308,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>281</v>
@@ -12262,9 +12331,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>6</v>
@@ -12285,9 +12354,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>282</v>
@@ -12308,9 +12377,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>281</v>
@@ -12331,9 +12400,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>6</v>
@@ -12354,9 +12423,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>294</v>
@@ -12377,9 +12446,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>281</v>
@@ -12400,9 +12469,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>6</v>
@@ -12423,9 +12492,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>6</v>
@@ -12446,9 +12515,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>282</v>
@@ -12469,9 +12538,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>281</v>
@@ -12492,9 +12561,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>6</v>
@@ -12515,32 +12584,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B89" s="2" t="s">
+    <row r="89" spans="1:14" s="10" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="7">
+      <c r="C89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="8">
         <v>30375</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="8">
         <v>30680</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="8">
         <v>306</v>
       </c>
-      <c r="L89" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G89" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="N89" s="23"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>281</v>
@@ -12561,9 +12649,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>6</v>
@@ -12584,9 +12672,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>295</v>
@@ -12607,9 +12695,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>281</v>
@@ -12630,9 +12718,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>6</v>
@@ -12653,9 +12741,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>280</v>
@@ -12676,9 +12764,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>281</v>
@@ -12701,7 +12789,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>6</v>
@@ -12724,7 +12812,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>280</v>
@@ -12747,7 +12835,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>281</v>
@@ -12770,7 +12858,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>6</v>
@@ -12793,7 +12881,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>280</v>
@@ -12816,7 +12904,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>281</v>
@@ -12839,7 +12927,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>6</v>
@@ -12862,7 +12950,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>6</v>
@@ -12885,7 +12973,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>280</v>
@@ -12908,7 +12996,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>281</v>
@@ -12931,7 +13019,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>6</v>
@@ -12954,7 +13042,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>6</v>
@@ -12977,7 +13065,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>280</v>
@@ -13000,7 +13088,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>281</v>
@@ -13023,7 +13111,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>6</v>
@@ -13046,7 +13134,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>6</v>
@@ -13069,7 +13157,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>280</v>
@@ -13092,7 +13180,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>281</v>
@@ -13115,7 +13203,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>6</v>
@@ -13138,7 +13226,7 @@
     </row>
     <row r="116" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>296</v>
@@ -13161,7 +13249,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>281</v>
@@ -13182,9 +13270,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>6</v>
@@ -13205,7 +13293,7 @@
         <v>142</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>141</v>
@@ -13220,12 +13308,12 @@
         <v>9</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>280</v>
@@ -13248,7 +13336,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>281</v>
@@ -13271,7 +13359,7 @@
     </row>
     <row r="121" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>297</v>
@@ -13294,7 +13382,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>281</v>
@@ -13317,7 +13405,7 @@
     </row>
     <row r="123" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>134</v>
@@ -13353,12 +13441,12 @@
         <v>9</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>298</v>
@@ -13381,7 +13469,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>281</v>
@@ -13404,7 +13492,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>6</v>
@@ -13427,7 +13515,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>299</v>
@@ -13450,7 +13538,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>281</v>
@@ -13471,9 +13559,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>6</v>
@@ -13490,13 +13578,31 @@
       <c r="F129" s="7">
         <v>834</v>
       </c>
+      <c r="G129" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="L129" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M129" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>282</v>
@@ -13517,9 +13623,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>281</v>
@@ -13540,9 +13646,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>6</v>
@@ -13559,13 +13665,31 @@
       <c r="F132" s="7">
         <v>444</v>
       </c>
+      <c r="G132" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="L132" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>280</v>
@@ -13586,9 +13710,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>281</v>
@@ -13609,9 +13733,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>300</v>
@@ -13632,9 +13756,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>281</v>
@@ -13655,9 +13779,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>6</v>
@@ -13678,9 +13802,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>280</v>
@@ -13701,9 +13825,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>281</v>
@@ -13724,9 +13848,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>6</v>
@@ -13747,9 +13871,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>280</v>
@@ -13770,9 +13894,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>281</v>
@@ -13793,9 +13917,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>6</v>
@@ -13816,9 +13940,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>280</v>
@@ -13841,7 +13965,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>281</v>
@@ -13864,7 +13988,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>6</v>
@@ -13887,7 +14011,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>6</v>
@@ -13910,7 +14034,7 @@
     </row>
     <row r="148" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>301</v>
@@ -13933,7 +14057,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>281</v>
@@ -13954,9 +14078,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>6</v>
@@ -13977,7 +14101,7 @@
         <v>142</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>141</v>
@@ -13992,12 +14116,12 @@
         <v>9</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>302</v>
@@ -14020,7 +14144,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>281</v>
@@ -14041,9 +14165,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>6</v>
@@ -14079,12 +14203,12 @@
         <v>9</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>6</v>
@@ -14107,7 +14231,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>280</v>
@@ -14130,7 +14254,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>281</v>
@@ -14153,7 +14277,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>6</v>
@@ -14176,7 +14300,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>280</v>
@@ -14199,7 +14323,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>281</v>
@@ -14222,7 +14346,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>6</v>
@@ -14245,7 +14369,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>6</v>
@@ -14268,7 +14392,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>280</v>
@@ -14291,7 +14415,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>281</v>
@@ -14314,7 +14438,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>6</v>
@@ -14337,7 +14461,7 @@
     </row>
     <row r="165" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>6</v>
@@ -14358,7 +14482,7 @@
         <v>184</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I165" s="7" t="s">
         <v>141</v>
@@ -14373,12 +14497,12 @@
         <v>9</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>282</v>
@@ -14401,7 +14525,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>281</v>
@@ -14424,7 +14548,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>6</v>
@@ -14447,7 +14571,7 @@
     </row>
     <row r="169" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>303</v>
@@ -14470,7 +14594,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>281</v>
@@ -14493,7 +14617,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>280</v>
@@ -14516,7 +14640,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>281</v>
@@ -14539,7 +14663,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>6</v>
@@ -14562,7 +14686,7 @@
     </row>
     <row r="174" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>282</v>
@@ -14585,7 +14709,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>281</v>
@@ -14608,7 +14732,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>6</v>
@@ -14631,7 +14755,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>280</v>
@@ -14654,7 +14778,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>281</v>
@@ -14677,7 +14801,7 @@
     </row>
     <row r="179" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>6</v>
@@ -14713,12 +14837,12 @@
         <v>7</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>304</v>
@@ -14741,7 +14865,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>281</v>
@@ -14764,7 +14888,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>6</v>
@@ -14787,7 +14911,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>280</v>
@@ -14810,7 +14934,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>281</v>
@@ -14833,7 +14957,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>6</v>
@@ -14856,7 +14980,7 @@
     </row>
     <row r="186" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>305</v>
@@ -14879,7 +15003,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>281</v>
@@ -14902,7 +15026,7 @@
     </row>
     <row r="188" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>6</v>
@@ -14923,7 +15047,7 @@
         <v>142</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I188" s="7" t="s">
         <v>141</v>
@@ -14938,12 +15062,12 @@
         <v>7</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>280</v>
@@ -14966,7 +15090,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>281</v>
@@ -14989,7 +15113,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>6</v>
@@ -15012,7 +15136,7 @@
     </row>
     <row r="192" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>306</v>
@@ -15035,7 +15159,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>281</v>
@@ -15058,7 +15182,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>6</v>
@@ -15081,7 +15205,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>280</v>
@@ -15104,7 +15228,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>281</v>
@@ -15127,7 +15251,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>6</v>
@@ -15150,7 +15274,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>280</v>
@@ -15173,7 +15297,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>281</v>
@@ -15196,7 +15320,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>6</v>
@@ -15219,7 +15343,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>307</v>
@@ -15242,7 +15366,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>281</v>
@@ -15265,7 +15389,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>6</v>
@@ -15286,7 +15410,7 @@
         <v>142</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I203" s="7" t="s">
         <v>141</v>
@@ -15301,12 +15425,12 @@
         <v>9</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>6</v>
@@ -15329,7 +15453,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>280</v>
@@ -15352,7 +15476,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>281</v>
@@ -15375,7 +15499,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>308</v>
@@ -15398,7 +15522,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>281</v>
@@ -15421,7 +15545,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>6</v>
@@ -15444,7 +15568,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>280</v>
@@ -15467,7 +15591,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>281</v>
@@ -15490,7 +15614,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>6</v>
@@ -15513,7 +15637,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>6</v>
@@ -15536,7 +15660,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>280</v>
@@ -15559,7 +15683,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>281</v>
@@ -15582,7 +15706,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>6</v>
@@ -15605,7 +15729,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>280</v>
@@ -15628,7 +15752,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>281</v>
@@ -15651,7 +15775,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>6</v>
@@ -15674,7 +15798,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>280</v>
@@ -15697,7 +15821,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>281</v>
@@ -15720,7 +15844,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>6</v>
@@ -15743,7 +15867,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>309</v>
@@ -15764,9 +15888,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>281</v>
@@ -15802,12 +15926,12 @@
         <v>7</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>6</v>
@@ -15830,7 +15954,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>280</v>
@@ -15853,7 +15977,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>281</v>
@@ -15876,7 +16000,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>6</v>
@@ -15899,7 +16023,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>280</v>
@@ -15922,7 +16046,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>281</v>
@@ -15945,7 +16069,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>6</v>
@@ -15968,7 +16092,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>280</v>
@@ -15991,7 +16115,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>281</v>
@@ -16014,7 +16138,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>6</v>
@@ -16037,7 +16161,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>280</v>
@@ -16060,7 +16184,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>281</v>
@@ -16083,7 +16207,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>6</v>
@@ -16106,7 +16230,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>280</v>
@@ -16129,7 +16253,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>281</v>
@@ -16152,7 +16276,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>6</v>
@@ -16175,7 +16299,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>280</v>
@@ -16198,7 +16322,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>281</v>
@@ -16221,7 +16345,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>6</v>
@@ -16244,7 +16368,7 @@
     </row>
     <row r="244" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>310</v>
@@ -16267,7 +16391,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>281</v>
@@ -16290,7 +16414,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>280</v>
@@ -16313,7 +16437,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>281</v>
@@ -16336,7 +16460,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>6</v>
@@ -16359,7 +16483,7 @@
     </row>
     <row r="249" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>311</v>
@@ -16382,7 +16506,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>281</v>
@@ -16405,7 +16529,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>6</v>
@@ -16428,7 +16552,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>6</v>
@@ -16451,7 +16575,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>280</v>
@@ -16474,7 +16598,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>281</v>
@@ -16497,7 +16621,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>280</v>
@@ -16520,7 +16644,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>281</v>
@@ -16543,7 +16667,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>6</v>
@@ -16566,7 +16690,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>280</v>
@@ -16589,7 +16713,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>281</v>
@@ -16612,7 +16736,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>6</v>
@@ -16635,7 +16759,7 @@
     </row>
     <row r="261" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>312</v>
@@ -16658,7 +16782,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>281</v>
@@ -16681,7 +16805,7 @@
     </row>
     <row r="263" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>6</v>
@@ -16717,12 +16841,12 @@
         <v>7</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>6</v>
@@ -16739,13 +16863,31 @@
       <c r="F264" s="7">
         <v>495</v>
       </c>
+      <c r="G264" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H264" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I264" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J264" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K264" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="L264" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="M264" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>280</v>
@@ -16768,7 +16910,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>281</v>
@@ -16791,7 +16933,7 @@
     </row>
     <row r="267" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>313</v>
@@ -16814,7 +16956,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>281</v>
@@ -16835,9 +16977,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>314</v>
@@ -16854,13 +16996,31 @@
       <c r="F269" s="7">
         <v>1074</v>
       </c>
+      <c r="G269" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I269" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J269" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K269" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="L269" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="M269" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>6</v>
@@ -16896,12 +17056,12 @@
         <v>7</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>280</v>
@@ -16924,7 +17084,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>281</v>
@@ -16947,7 +17107,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>280</v>
@@ -16970,7 +17130,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>281</v>
@@ -16993,7 +17153,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>6</v>
@@ -17016,7 +17176,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>6</v>
@@ -17039,7 +17199,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>280</v>
@@ -17062,7 +17222,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>281</v>
@@ -17085,7 +17245,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>6</v>
@@ -17108,7 +17268,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>280</v>
@@ -17131,7 +17291,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>281</v>
@@ -17154,7 +17314,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>6</v>
@@ -17177,7 +17337,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>315</v>
@@ -17200,7 +17360,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>281</v>
@@ -17223,7 +17383,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>6</v>
@@ -17246,7 +17406,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>280</v>
@@ -17269,7 +17429,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>281</v>
@@ -17292,7 +17452,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>6</v>
@@ -17315,7 +17475,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>6</v>
@@ -17338,7 +17498,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>316</v>
@@ -17361,7 +17521,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>281</v>
@@ -17384,7 +17544,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>280</v>
@@ -17407,7 +17567,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>281</v>
@@ -17430,7 +17590,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>6</v>
@@ -17453,7 +17613,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>280</v>
@@ -17476,7 +17636,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>281</v>
@@ -17499,7 +17659,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>6</v>
@@ -17522,7 +17682,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>280</v>
@@ -17545,7 +17705,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>281</v>
@@ -17568,7 +17728,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>6</v>
@@ -17591,7 +17751,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>6</v>
@@ -17614,7 +17774,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>280</v>
@@ -17637,7 +17797,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>281</v>
@@ -17660,7 +17820,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>6</v>
@@ -17683,7 +17843,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>317</v>
@@ -17706,7 +17866,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>281</v>
@@ -17729,7 +17889,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>6</v>
@@ -17752,7 +17912,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>280</v>
@@ -17775,7 +17935,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>281</v>
@@ -17798,7 +17958,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>6</v>
@@ -17821,7 +17981,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>280</v>
@@ -17844,7 +18004,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>281</v>
@@ -17867,7 +18027,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>6</v>
@@ -17890,7 +18050,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>280</v>
@@ -17913,7 +18073,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>281</v>
@@ -17936,7 +18096,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>6</v>
@@ -17959,7 +18119,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>6</v>
@@ -17982,7 +18142,7 @@
     </row>
     <row r="318" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>318</v>
@@ -18005,7 +18165,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>281</v>
@@ -18028,7 +18188,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>319</v>
@@ -18051,7 +18211,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>281</v>
@@ -18074,7 +18234,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>6</v>
@@ -18097,7 +18257,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>280</v>
@@ -18120,7 +18280,7 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>281</v>
@@ -18143,7 +18303,7 @@
     </row>
     <row r="325" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A325" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>6</v>
@@ -18164,7 +18324,7 @@
         <v>142</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I325" s="7" t="s">
         <v>141</v>
@@ -18179,12 +18339,12 @@
         <v>9</v>
       </c>
       <c r="M325" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>282</v>
@@ -18207,7 +18367,7 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>281</v>
@@ -18230,7 +18390,7 @@
     </row>
     <row r="328" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>282</v>
@@ -18253,7 +18413,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>281</v>
@@ -18276,7 +18436,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>320</v>
@@ -18299,7 +18459,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>281</v>
@@ -18322,7 +18482,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>6</v>
@@ -18345,7 +18505,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>6</v>
@@ -18368,7 +18528,7 @@
     </row>
     <row r="334" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>321</v>
@@ -18391,7 +18551,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>281</v>
@@ -18414,7 +18574,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>6</v>
@@ -18435,9 +18595,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>322</v>
@@ -18458,9 +18618,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>281</v>
@@ -18481,9 +18641,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>323</v>
@@ -18504,9 +18664,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>6</v>
@@ -18527,9 +18687,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>280</v>
@@ -18550,9 +18710,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>281</v>
@@ -18573,9 +18733,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>6</v>
@@ -18596,9 +18756,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>6</v>
@@ -18619,9 +18779,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>280</v>
@@ -18642,9 +18802,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>281</v>
@@ -18665,9 +18825,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>280</v>
@@ -18688,9 +18848,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>281</v>
@@ -18711,9 +18871,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>6</v>
@@ -18734,9 +18894,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>324</v>
@@ -18757,9 +18917,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>281</v>
@@ -18780,9 +18940,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>6</v>
@@ -18799,13 +18959,31 @@
       <c r="F352" s="7">
         <v>573</v>
       </c>
+      <c r="G352" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I352" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J352" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K352" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="L352" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="M352" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="353" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>325</v>
@@ -18828,7 +19006,7 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>281</v>
@@ -18849,9 +19027,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>6</v>
@@ -18868,13 +19046,31 @@
       <c r="F355" s="7">
         <v>546</v>
       </c>
+      <c r="G355" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I355" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J355" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K355" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="L355" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="M355" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>280</v>
@@ -18897,7 +19093,7 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>281</v>
@@ -18920,7 +19116,7 @@
     </row>
     <row r="358" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>6</v>
@@ -18953,12 +19149,12 @@
         <v>7</v>
       </c>
       <c r="M358" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="359" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>326</v>
@@ -18981,7 +19177,7 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>281</v>
@@ -19002,9 +19198,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>327</v>
@@ -19040,12 +19236,12 @@
         <v>9</v>
       </c>
       <c r="M361" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="362" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>282</v>
@@ -19068,7 +19264,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>281</v>
@@ -19091,7 +19287,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>6</v>
@@ -19114,7 +19310,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>328</v>
@@ -19137,7 +19333,7 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>281</v>
@@ -19160,7 +19356,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>329</v>
@@ -19183,7 +19379,7 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>281</v>
@@ -19206,7 +19402,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>6</v>
@@ -19229,7 +19425,7 @@
     </row>
     <row r="370" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>330</v>
@@ -19252,7 +19448,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>281</v>
@@ -19275,7 +19471,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>280</v>
@@ -19298,7 +19494,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>281</v>
@@ -19321,7 +19517,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>6</v>
@@ -19344,7 +19540,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>280</v>
@@ -19367,7 +19563,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>281</v>
@@ -19390,7 +19586,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>280</v>
@@ -19413,7 +19609,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>281</v>
@@ -19436,7 +19632,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>6</v>
@@ -19459,7 +19655,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>6</v>
@@ -19482,7 +19678,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>280</v>
@@ -19505,7 +19701,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>281</v>
@@ -19528,7 +19724,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>6</v>
@@ -19551,7 +19747,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>331</v>
@@ -19574,7 +19770,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>281</v>
@@ -19597,7 +19793,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>6</v>
@@ -19620,7 +19816,7 @@
     </row>
     <row r="387" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>332</v>
@@ -19643,7 +19839,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>281</v>
@@ -19666,7 +19862,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>6</v>
@@ -19689,7 +19885,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>333</v>
@@ -19712,7 +19908,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>281</v>
@@ -19735,7 +19931,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>6</v>
@@ -19758,7 +19954,7 @@
     </row>
     <row r="393" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>282</v>
@@ -19781,7 +19977,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>281</v>
@@ -19804,7 +20000,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>6</v>
@@ -19827,7 +20023,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>280</v>
@@ -19850,7 +20046,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>281</v>
@@ -19873,7 +20069,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>6</v>
@@ -19896,7 +20092,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>6</v>
@@ -19919,7 +20115,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>280</v>
@@ -19942,7 +20138,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>281</v>
@@ -19965,7 +20161,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>6</v>
@@ -19988,7 +20184,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>280</v>
@@ -20011,7 +20207,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>281</v>
@@ -20034,7 +20230,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>6</v>
@@ -20057,7 +20253,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>334</v>
@@ -20080,7 +20276,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>281</v>
@@ -20103,7 +20299,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>335</v>
@@ -20126,7 +20322,7 @@
     </row>
     <row r="409" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>336</v>
@@ -20149,7 +20345,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>281</v>
@@ -20172,7 +20368,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>6</v>
@@ -20195,7 +20391,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>280</v>
@@ -20218,7 +20414,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>281</v>
@@ -20241,7 +20437,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>6</v>
@@ -20264,7 +20460,7 @@
     </row>
     <row r="415" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>337</v>
@@ -20287,7 +20483,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>281</v>
@@ -20310,7 +20506,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>6</v>
@@ -20333,7 +20529,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>6</v>
@@ -20356,7 +20552,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>338</v>
@@ -20379,7 +20575,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>281</v>
@@ -20402,7 +20598,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>6</v>
@@ -20425,7 +20621,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>6</v>
@@ -20448,7 +20644,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>280</v>
@@ -20471,7 +20667,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>281</v>
@@ -20494,7 +20690,7 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>6</v>
@@ -20517,7 +20713,7 @@
     </row>
     <row r="426" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>339</v>
@@ -20540,7 +20736,7 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>281</v>
@@ -20563,7 +20759,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>6</v>
@@ -20586,7 +20782,7 @@
     </row>
     <row r="429" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>340</v>
@@ -20609,7 +20805,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>281</v>
@@ -20632,7 +20828,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>6</v>
@@ -20655,7 +20851,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>333</v>
@@ -20678,7 +20874,7 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>281</v>
@@ -20701,7 +20897,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>6</v>
@@ -20724,7 +20920,7 @@
     </row>
     <row r="435" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>341</v>
@@ -20747,7 +20943,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>281</v>
@@ -20770,7 +20966,7 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>6</v>
@@ -20793,7 +20989,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>342</v>
@@ -20816,7 +21012,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>281</v>
@@ -20839,7 +21035,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>6</v>
@@ -20862,7 +21058,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>280</v>
@@ -20885,7 +21081,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>281</v>
@@ -20908,7 +21104,7 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>6</v>
@@ -20931,7 +21127,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>280</v>
@@ -20954,7 +21150,7 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>281</v>
@@ -20977,7 +21173,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>6</v>
@@ -21000,7 +21196,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>6</v>
@@ -21023,7 +21219,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>280</v>
@@ -21046,7 +21242,7 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>281</v>
@@ -21069,7 +21265,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A450" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>6</v>
@@ -21092,7 +21288,7 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>6</v>
@@ -21115,7 +21311,7 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>280</v>
@@ -21138,7 +21334,7 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>281</v>
@@ -21161,7 +21357,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>280</v>
@@ -21184,7 +21380,7 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>281</v>

--- a/prokka_outputs/Manually checked annotation summary/2024-08-02_Manual Check_Nucleotide alignment Annotations.xlsx
+++ b/prokka_outputs/Manually checked annotation summary/2024-08-02_Manual Check_Nucleotide alignment Annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/prokka_outputs/Manually checked annotation summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2150" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E22752-B6B8-4EE7-A732-C8D61A7580F2}"/>
+  <xr:revisionPtr revIDLastSave="2161" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98290323-CEEF-4426-AFC9-BA02A256D635}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
   </bookViews>
   <sheets>
     <sheet name="AF371960" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6633" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6636" uniqueCount="882">
   <si>
     <t>Type</t>
   </si>
@@ -2788,12 +2788,21 @@
   <si>
     <t>_00018</t>
   </si>
+  <si>
+    <t>This gene along with two others (_00125 and _00133) are allocated to Orthogroup G000010.</t>
+  </si>
+  <si>
+    <t>This gene along with two others (_00006 and _00133) are allocated to Orthogroup G000010.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This gene (along with two others 00006 or 00125) are allocated to orthogroup 10. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2955,12 +2964,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -3349,7 +3352,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3433,21 +3436,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -3495,11 +3485,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="7">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3514,37 +3507,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3572,7 +3534,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3935,9 +3897,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116995E-33BB-43AB-BECD-A51EE3AB001A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q251"/>
+  <dimension ref="A1:Q250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="50" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="A104" zoomScale="50" zoomScaleNormal="58" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A130" sqref="A130"/>
       <selection pane="topRight" activeCell="N187" sqref="N187"/>
@@ -4056,7 +4018,7 @@
       <c r="N2" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="36" t="s">
         <v>756</v>
       </c>
       <c r="Q2" s="29"/>
@@ -4130,8 +4092,8 @@
       <c r="L4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="P4" s="41" t="s">
+      <c r="N4"/>
+      <c r="P4" s="36" t="s">
         <v>758</v>
       </c>
     </row>
@@ -4175,7 +4137,7 @@
       <c r="M5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N5" s="37"/>
+      <c r="N5"/>
       <c r="P5" s="34" t="s">
         <v>759</v>
       </c>
@@ -4202,8 +4164,8 @@
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="P6" s="41" t="s">
+      <c r="N6"/>
+      <c r="P6" s="36" t="s">
         <v>760</v>
       </c>
     </row>
@@ -4247,7 +4209,7 @@
       <c r="M7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N7" s="37"/>
+      <c r="N7"/>
       <c r="P7" s="34" t="s">
         <v>761</v>
       </c>
@@ -4274,12 +4236,12 @@
       <c r="L8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="P8" s="41" t="s">
+      <c r="N8"/>
+      <c r="P8" s="36" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="37" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>348</v>
       </c>
@@ -4320,7 +4282,6 @@
       <c r="N9" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="O9" s="39"/>
       <c r="P9" s="34" t="s">
         <v>763</v>
       </c>
@@ -4365,8 +4326,8 @@
       <c r="M10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="P10" s="41" t="s">
+      <c r="N10"/>
+      <c r="P10" s="36" t="s">
         <v>764</v>
       </c>
     </row>
@@ -4442,8 +4403,8 @@
       <c r="L12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="P12" s="41" t="s">
+      <c r="N12"/>
+      <c r="P12" s="36" t="s">
         <v>766</v>
       </c>
     </row>
@@ -4510,8 +4471,8 @@
       <c r="L14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="P14" s="41" t="s">
+      <c r="N14"/>
+      <c r="P14" s="36" t="s">
         <v>768</v>
       </c>
     </row>
@@ -4584,8 +4545,8 @@
       <c r="L16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="37"/>
-      <c r="P16" s="41" t="s">
+      <c r="N16"/>
+      <c r="P16" s="36" t="s">
         <v>770</v>
       </c>
     </row>
@@ -4620,7 +4581,7 @@
       <c r="M17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N17" s="37"/>
+      <c r="N17"/>
       <c r="P17" s="34" t="s">
         <v>771</v>
       </c>
@@ -4668,7 +4629,7 @@
       <c r="N18" s="32" t="s">
         <v>877</v>
       </c>
-      <c r="P18" s="41" t="s">
+      <c r="P18" s="36" t="s">
         <v>772</v>
       </c>
     </row>
@@ -4694,7 +4655,7 @@
       <c r="L19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="37"/>
+      <c r="N19"/>
       <c r="P19" s="34" t="s">
         <v>773</v>
       </c>
@@ -4733,9 +4694,9 @@
       <c r="M20" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="N20" s="37"/>
+      <c r="N20"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="41" t="s">
+      <c r="P20" s="36" t="s">
         <v>774</v>
       </c>
     </row>
@@ -4779,7 +4740,7 @@
       <c r="M21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N21" s="37"/>
+      <c r="N21"/>
       <c r="P21" s="34" t="s">
         <v>775</v>
       </c>
@@ -4806,8 +4767,8 @@
       <c r="L22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="37"/>
-      <c r="P22" s="41" t="s">
+      <c r="N22"/>
+      <c r="P22" s="36" t="s">
         <v>776</v>
       </c>
     </row>
@@ -4833,7 +4794,7 @@
       <c r="L23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="37"/>
+      <c r="N23"/>
       <c r="P23" s="34" t="s">
         <v>777</v>
       </c>
@@ -4881,7 +4842,7 @@
       <c r="N24" s="33" t="s">
         <v>856</v>
       </c>
-      <c r="P24" s="41" t="s">
+      <c r="P24" s="36" t="s">
         <v>778</v>
       </c>
     </row>
@@ -4907,7 +4868,7 @@
       <c r="L25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="37"/>
+      <c r="N25"/>
       <c r="P25" s="34" t="s">
         <v>779</v>
       </c>
@@ -4955,7 +4916,7 @@
       <c r="N26" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="P26" s="41" t="s">
+      <c r="P26" s="36" t="s">
         <v>780</v>
       </c>
     </row>
@@ -4981,7 +4942,7 @@
       <c r="L27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="37"/>
+      <c r="N27"/>
       <c r="P27" s="34" t="s">
         <v>781</v>
       </c>
@@ -5029,7 +4990,7 @@
       <c r="N28" s="33" t="s">
         <v>827</v>
       </c>
-      <c r="P28" s="41" t="s">
+      <c r="P28" s="36" t="s">
         <v>782</v>
       </c>
     </row>
@@ -5073,7 +5034,7 @@
       <c r="M29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="37"/>
+      <c r="N29"/>
       <c r="P29" s="34" t="s">
         <v>783</v>
       </c>
@@ -5100,8 +5061,8 @@
       <c r="L30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="37"/>
-      <c r="P30" s="41" t="s">
+      <c r="N30"/>
+      <c r="P30" s="36" t="s">
         <v>784</v>
       </c>
     </row>
@@ -5145,7 +5106,7 @@
       <c r="M31" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N31" s="37"/>
+      <c r="N31"/>
       <c r="P31" s="34" t="s">
         <v>785</v>
       </c>
@@ -5172,8 +5133,8 @@
       <c r="L32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="37"/>
-      <c r="P32" s="41" t="s">
+      <c r="N32"/>
+      <c r="P32" s="36" t="s">
         <v>786</v>
       </c>
     </row>
@@ -5243,8 +5204,8 @@
       <c r="L34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N34" s="37"/>
-      <c r="P34" s="41" t="s">
+      <c r="N34"/>
+      <c r="P34" s="36" t="s">
         <v>788</v>
       </c>
     </row>
@@ -5317,8 +5278,8 @@
       <c r="L36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N36" s="37"/>
-      <c r="P36" s="41" t="s">
+      <c r="N36"/>
+      <c r="P36" s="36" t="s">
         <v>790</v>
       </c>
     </row>
@@ -5394,8 +5355,7 @@
       <c r="L38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N38" s="39"/>
-      <c r="P38" s="41" t="s">
+      <c r="P38" s="36" t="s">
         <v>792</v>
       </c>
     </row>
@@ -5437,7 +5397,7 @@
       <c r="M39" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="N39" s="37"/>
+      <c r="N39"/>
       <c r="O39" s="16"/>
       <c r="P39" s="34" t="s">
         <v>793</v>
@@ -5465,8 +5425,8 @@
       <c r="L40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="37"/>
-      <c r="P40" s="41" t="s">
+      <c r="N40"/>
+      <c r="P40" s="36" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5539,8 +5499,8 @@
       <c r="L42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N42" s="37"/>
-      <c r="P42" s="41" t="s">
+      <c r="N42"/>
+      <c r="P42" s="36" t="s">
         <v>796</v>
       </c>
     </row>
@@ -5613,8 +5573,8 @@
       <c r="L44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N44" s="37"/>
-      <c r="P44" s="41" t="s">
+      <c r="N44"/>
+      <c r="P44" s="36" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5640,7 +5600,7 @@
       <c r="M45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N45" s="37"/>
+      <c r="N45"/>
       <c r="P45" s="34" t="s">
         <v>799</v>
       </c>
@@ -5676,7 +5636,7 @@
       <c r="N46" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="P46" s="41" t="s">
+      <c r="P46" s="36" t="s">
         <v>800</v>
       </c>
     </row>
@@ -5708,12 +5668,12 @@
       <c r="M47" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="N47" s="37"/>
+      <c r="N47"/>
       <c r="P47" s="34" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="37" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>347</v>
       </c>
@@ -5743,12 +5703,12 @@
       <c r="M48" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="O48" s="39"/>
+      <c r="N48"/>
       <c r="P48" s="34" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="37" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>347</v>
       </c>
@@ -5778,12 +5738,12 @@
       <c r="M49" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="O49" s="39"/>
+      <c r="N49"/>
       <c r="P49" s="34" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="37" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>347</v>
       </c>
@@ -5813,7 +5773,7 @@
       <c r="M50" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="O50" s="39"/>
+      <c r="N50"/>
       <c r="P50" s="34" t="s">
         <v>804</v>
       </c>
@@ -5890,44 +5850,38 @@
       <c r="N52" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="P52" s="41" t="s">
+      <c r="P52" s="36" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="B53" s="36" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="7">
         <v>23282</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="7">
         <v>23763</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="7">
         <v>482</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="M53" s="39"/>
-      <c r="O53" s="39"/>
+      <c r="L53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53"/>
       <c r="P53" s="30" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>348</v>
       </c>
@@ -5955,12 +5909,13 @@
         <v>9</v>
       </c>
       <c r="M54" s="9"/>
+      <c r="N54"/>
       <c r="O54" s="9"/>
       <c r="P54" s="30" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="37" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>347</v>
       </c>
@@ -5994,6 +5949,7 @@
       <c r="M55" s="9" t="s">
         <v>177</v>
       </c>
+      <c r="N55"/>
       <c r="O55" s="9"/>
       <c r="P55" s="30" t="s">
         <v>809</v>
@@ -6021,7 +5977,7 @@
       <c r="L56" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N56" s="37"/>
+      <c r="N56"/>
       <c r="P56" s="31" t="s">
         <v>810</v>
       </c>
@@ -6066,7 +6022,7 @@
       <c r="M57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N57" s="37"/>
+      <c r="N57"/>
       <c r="P57" s="30" t="s">
         <v>811</v>
       </c>
@@ -6093,7 +6049,7 @@
       <c r="L58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N58" s="37"/>
+      <c r="N58"/>
       <c r="P58" s="31" t="s">
         <v>812</v>
       </c>
@@ -6167,7 +6123,7 @@
       <c r="L60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N60" s="37"/>
+      <c r="N60"/>
       <c r="P60" s="31" t="s">
         <v>814</v>
       </c>
@@ -6212,7 +6168,7 @@
       <c r="M61" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N61" s="40" t="s">
+      <c r="N61" s="33" t="s">
         <v>824</v>
       </c>
       <c r="P61" s="30" t="s">
@@ -6241,7 +6197,7 @@
       <c r="L62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N62" s="37"/>
+      <c r="N62"/>
       <c r="P62" s="31" t="s">
         <v>816</v>
       </c>
@@ -6362,7 +6318,7 @@
       <c r="L65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N65" s="37"/>
+      <c r="N65"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
@@ -6386,7 +6342,7 @@
       <c r="L66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N66" s="37"/>
+      <c r="N66"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
@@ -6410,7 +6366,7 @@
       <c r="L67" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N67" s="37"/>
+      <c r="N67"/>
     </row>
     <row r="68" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
@@ -6478,7 +6434,7 @@
       <c r="L69" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N69" s="37"/>
+      <c r="N69"/>
     </row>
     <row r="70" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
@@ -6520,7 +6476,7 @@
       <c r="M70" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N70" s="37"/>
+      <c r="N70"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
@@ -6544,7 +6500,7 @@
       <c r="L71" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N71" s="37"/>
+      <c r="N71"/>
     </row>
     <row r="72" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
@@ -6612,7 +6568,7 @@
       <c r="L73" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N73" s="37"/>
+      <c r="N73"/>
     </row>
     <row r="74" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
@@ -6680,7 +6636,7 @@
       <c r="L75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N75" s="37"/>
+      <c r="N75"/>
     </row>
     <row r="76" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
@@ -6722,7 +6678,7 @@
       <c r="M76" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N76" s="37"/>
+      <c r="N76"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
@@ -6746,7 +6702,7 @@
       <c r="L77" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N77" s="37"/>
+      <c r="N77"/>
     </row>
     <row r="78" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
@@ -6788,7 +6744,7 @@
       <c r="M78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N78" s="37"/>
+      <c r="N78"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
@@ -6812,7 +6768,7 @@
       <c r="L79" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N79" s="37"/>
+      <c r="N79"/>
     </row>
     <row r="80" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
@@ -6854,7 +6810,7 @@
       <c r="M80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N80" s="37"/>
+      <c r="N80"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
@@ -6878,7 +6834,7 @@
       <c r="L81" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N81" s="37"/>
+      <c r="N81"/>
     </row>
     <row r="82" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
@@ -6920,7 +6876,7 @@
       <c r="M82" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N82" s="37"/>
+      <c r="N82"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
@@ -6944,7 +6900,7 @@
       <c r="L83" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N83" s="37"/>
+      <c r="N83"/>
     </row>
     <row r="84" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
@@ -6986,7 +6942,7 @@
       <c r="M84" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N84" s="37"/>
+      <c r="N84"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
@@ -7010,7 +6966,7 @@
       <c r="L85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N85" s="37"/>
+      <c r="N85"/>
     </row>
     <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
@@ -7052,7 +7008,7 @@
       <c r="M86" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N86" s="37"/>
+      <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
@@ -7076,7 +7032,7 @@
       <c r="L87" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N87" s="37"/>
+      <c r="N87"/>
     </row>
     <row r="88" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
@@ -7118,7 +7074,7 @@
       <c r="M88" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N88" s="37"/>
+      <c r="N88"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
@@ -7142,7 +7098,7 @@
       <c r="L89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N89" s="37"/>
+      <c r="N89"/>
     </row>
     <row r="90" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
@@ -7210,7 +7166,7 @@
       <c r="L91" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N91" s="37"/>
+      <c r="N91"/>
     </row>
     <row r="92" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
@@ -7252,7 +7208,7 @@
       <c r="M92" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N92" s="37"/>
+      <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
@@ -7276,7 +7232,7 @@
       <c r="L93" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N93" s="37"/>
+      <c r="N93"/>
     </row>
     <row r="94" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
@@ -7318,7 +7274,7 @@
       <c r="M94" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N94" s="37"/>
+      <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
@@ -7342,7 +7298,7 @@
       <c r="L95" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N95" s="37"/>
+      <c r="N95"/>
     </row>
     <row r="96" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
@@ -7410,7 +7366,7 @@
       <c r="L97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N97" s="37"/>
+      <c r="N97"/>
     </row>
     <row r="98" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
@@ -7478,7 +7434,7 @@
       <c r="L99" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N99" s="37"/>
+      <c r="N99"/>
     </row>
     <row r="100" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
@@ -7546,7 +7502,7 @@
       <c r="L101" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N101" s="37"/>
+      <c r="N101"/>
     </row>
     <row r="102" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
@@ -7588,7 +7544,7 @@
       <c r="M102" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N102" s="37"/>
+      <c r="N102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
@@ -7612,7 +7568,7 @@
       <c r="L103" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N103" s="37"/>
+      <c r="N103"/>
     </row>
     <row r="104" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
@@ -7654,7 +7610,7 @@
       <c r="M104" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N104" s="37"/>
+      <c r="N104"/>
     </row>
     <row r="105" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -7684,7 +7640,7 @@
       <c r="M105" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N105" s="37"/>
+      <c r="N105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
@@ -7708,7 +7664,7 @@
       <c r="L106" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N106" s="37"/>
+      <c r="N106"/>
     </row>
     <row r="107" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
@@ -7750,7 +7706,7 @@
       <c r="M107" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N107" s="37"/>
+      <c r="N107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
@@ -7774,7 +7730,7 @@
       <c r="L108" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N108" s="37"/>
+      <c r="N108"/>
     </row>
     <row r="109" spans="1:14" ht="216" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
@@ -7816,7 +7772,7 @@
       <c r="M109" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="N109" s="37"/>
+      <c r="N109"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
@@ -7840,7 +7796,7 @@
       <c r="L110" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N110" s="37"/>
+      <c r="N110"/>
     </row>
     <row r="111" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
@@ -7908,7 +7864,7 @@
       <c r="L112" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N112" s="37"/>
+      <c r="N112"/>
     </row>
     <row r="113" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
@@ -7977,7 +7933,7 @@
       <c r="L114" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N114" s="37"/>
+      <c r="N114"/>
     </row>
     <row r="115" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
@@ -8045,7 +8001,7 @@
       <c r="L116" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N116" s="37"/>
+      <c r="N116"/>
     </row>
     <row r="117" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
@@ -8113,7 +8069,7 @@
       <c r="L118" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N118" s="37"/>
+      <c r="N118"/>
     </row>
     <row r="119" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
@@ -8155,7 +8111,7 @@
       <c r="M119" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N119" s="37"/>
+      <c r="N119"/>
     </row>
     <row r="120" spans="1:15" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
@@ -8223,7 +8179,7 @@
       <c r="L121" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N121" s="37"/>
+      <c r="N121"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
@@ -8247,7 +8203,7 @@
       <c r="L122" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N122" s="37"/>
+      <c r="N122"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
@@ -8271,7 +8227,7 @@
       <c r="L123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N123" s="37"/>
+      <c r="N123"/>
     </row>
     <row r="124" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
@@ -8339,7 +8295,7 @@
       <c r="L125" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N125" s="37"/>
+      <c r="N125"/>
     </row>
     <row r="126" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
@@ -8425,7 +8381,7 @@
       <c r="M127" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N127" s="37"/>
+      <c r="N127"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
@@ -8449,7 +8405,7 @@
       <c r="L128" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N128" s="37"/>
+      <c r="N128"/>
     </row>
     <row r="129" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
@@ -8517,7 +8473,7 @@
       <c r="L130" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N130" s="37"/>
+      <c r="N130"/>
     </row>
     <row r="131" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
@@ -8603,7 +8559,7 @@
       <c r="M132" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="N132" s="37"/>
+      <c r="N132"/>
       <c r="O132" s="16"/>
     </row>
     <row r="133" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
@@ -8646,7 +8602,7 @@
       <c r="M133" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="N133" s="37"/>
+      <c r="N133"/>
       <c r="O133" s="12"/>
     </row>
     <row r="134" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -8689,7 +8645,7 @@
       <c r="M134" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="N134" s="37"/>
+      <c r="N134"/>
       <c r="O134" s="12"/>
     </row>
     <row r="135" spans="1:15" ht="187.2" x14ac:dyDescent="0.3">
@@ -8732,7 +8688,7 @@
       <c r="M135" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="N135" s="37"/>
+      <c r="N135"/>
       <c r="O135" s="18"/>
     </row>
     <row r="136" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -8775,7 +8731,7 @@
       <c r="M136" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="N136" s="37"/>
+      <c r="N136"/>
       <c r="O136" s="12"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -8800,7 +8756,7 @@
       <c r="L137" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N137" s="37"/>
+      <c r="N137"/>
     </row>
     <row r="138" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
@@ -8842,7 +8798,7 @@
       <c r="M138" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N138" s="37"/>
+      <c r="N138"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
@@ -8866,7 +8822,7 @@
       <c r="L139" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N139" s="37"/>
+      <c r="N139"/>
     </row>
     <row r="140" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
@@ -8908,7 +8864,7 @@
       <c r="M140" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N140" s="37"/>
+      <c r="N140"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
@@ -8932,7 +8888,7 @@
       <c r="L141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N141" s="37"/>
+      <c r="N141"/>
     </row>
     <row r="142" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
@@ -8974,7 +8930,7 @@
       <c r="M142" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N142" s="37"/>
+      <c r="N142"/>
     </row>
     <row r="143" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
@@ -9016,7 +8972,7 @@
       <c r="M143" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N143" s="37"/>
+      <c r="N143"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
@@ -9040,7 +8996,7 @@
       <c r="L144" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N144" s="37"/>
+      <c r="N144"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
@@ -9064,7 +9020,7 @@
       <c r="L145" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N145" s="37"/>
+      <c r="N145"/>
     </row>
     <row r="146" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
@@ -9106,7 +9062,7 @@
       <c r="M146" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N146" s="37"/>
+      <c r="N146"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
@@ -9130,7 +9086,7 @@
       <c r="L147" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N147" s="37"/>
+      <c r="N147"/>
     </row>
     <row r="148" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
@@ -9172,7 +9128,7 @@
       <c r="M148" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N148" s="37"/>
+      <c r="N148"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
@@ -9196,7 +9152,7 @@
       <c r="L149" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N149" s="37"/>
+      <c r="N149"/>
     </row>
     <row r="150" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
@@ -9238,7 +9194,7 @@
       <c r="M150" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N150" s="37"/>
+      <c r="N150"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
@@ -9262,7 +9218,7 @@
       <c r="L151" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N151" s="37"/>
+      <c r="N151"/>
     </row>
     <row r="152" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
@@ -9304,7 +9260,7 @@
       <c r="M152" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N152" s="37"/>
+      <c r="N152"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
@@ -9328,7 +9284,7 @@
       <c r="L153" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N153" s="37"/>
+      <c r="N153"/>
     </row>
     <row r="154" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
@@ -9370,7 +9326,7 @@
       <c r="M154" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N154" s="37"/>
+      <c r="N154"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
@@ -9394,7 +9350,7 @@
       <c r="L155" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N155" s="37"/>
+      <c r="N155"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
@@ -9462,7 +9418,7 @@
       <c r="L157" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N157" s="37"/>
+      <c r="N157"/>
     </row>
     <row r="158" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
@@ -9530,7 +9486,7 @@
       <c r="L159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N159" s="37"/>
+      <c r="N159"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
@@ -9598,7 +9554,7 @@
       <c r="L161" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N161" s="37"/>
+      <c r="N161"/>
     </row>
     <row r="162" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
@@ -9640,7 +9596,7 @@
       <c r="M162" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N162" s="37"/>
+      <c r="N162"/>
     </row>
     <row r="163" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
@@ -9667,7 +9623,7 @@
       <c r="M163" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N163" s="37"/>
+      <c r="N163"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
@@ -9691,7 +9647,7 @@
       <c r="L164" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N164" s="37"/>
+      <c r="N164"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
@@ -9759,7 +9715,7 @@
       <c r="L166" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N166" s="37"/>
+      <c r="N166"/>
     </row>
     <row r="167" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
@@ -9874,7 +9830,7 @@
       <c r="M169" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="N169" s="37"/>
+      <c r="N169"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
@@ -9916,7 +9872,7 @@
       <c r="M170" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="N170" s="37"/>
+      <c r="N170"/>
       <c r="O170" s="12"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -9941,7 +9897,7 @@
       <c r="L171" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N171" s="37"/>
+      <c r="N171"/>
     </row>
     <row r="172" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
@@ -9983,7 +9939,7 @@
       <c r="M172" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N172" s="37"/>
+      <c r="N172"/>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
@@ -10007,7 +9963,7 @@
       <c r="L173" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N173" s="37"/>
+      <c r="N173"/>
     </row>
     <row r="174" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
@@ -10049,7 +10005,7 @@
       <c r="M174" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N174" s="37"/>
+      <c r="N174"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
@@ -10073,7 +10029,7 @@
       <c r="L175" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N175" s="37"/>
+      <c r="N175"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
@@ -10141,7 +10097,7 @@
       <c r="L177" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N177" s="37"/>
+      <c r="N177"/>
     </row>
     <row r="178" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
@@ -10253,7 +10209,7 @@
       <c r="L180" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N180" s="37"/>
+      <c r="N180"/>
     </row>
     <row r="181" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
@@ -10295,7 +10251,7 @@
       <c r="M181" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="N181" s="37"/>
+      <c r="N181"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
@@ -10366,7 +10322,7 @@
       <c r="M183" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N183" s="37"/>
+      <c r="N183"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
@@ -10393,7 +10349,7 @@
       <c r="M184" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N184" s="37"/>
+      <c r="N184"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
@@ -10420,7 +10376,7 @@
       <c r="M185" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N185" s="37"/>
+      <c r="N185"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
@@ -10447,7 +10403,7 @@
       <c r="M186" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N186" s="37"/>
+      <c r="N186"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
@@ -10515,7 +10471,7 @@
       <c r="L188" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N188" s="37"/>
+      <c r="N188"/>
     </row>
     <row r="189" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
@@ -10557,7 +10513,7 @@
       <c r="M189" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N189" s="37"/>
+      <c r="N189"/>
     </row>
     <row r="190" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
@@ -10599,7 +10555,7 @@
       <c r="M190" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="N190" s="37"/>
+      <c r="N190"/>
       <c r="O190" s="16"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -10624,7 +10580,7 @@
       <c r="L191" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N191" s="37"/>
+      <c r="N191"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
@@ -10692,7 +10648,7 @@
       <c r="L193" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N193" s="37"/>
+      <c r="N193"/>
     </row>
     <row r="194" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
@@ -10807,7 +10763,7 @@
       <c r="M196" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N196" s="37"/>
+      <c r="N196"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
@@ -10834,7 +10790,7 @@
       <c r="M197" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N197" s="37"/>
+      <c r="N197"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
@@ -10861,7 +10817,7 @@
       <c r="M198" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N198" s="37"/>
+      <c r="N198"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
@@ -10903,7 +10859,7 @@
       <c r="M199" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="N199" s="37"/>
+      <c r="N199"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
@@ -10927,7 +10883,7 @@
       <c r="L200" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N200" s="37"/>
+      <c r="N200"/>
     </row>
     <row r="201" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
@@ -10969,7 +10925,7 @@
       <c r="M201" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="N201" s="37"/>
+      <c r="N201"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
@@ -10993,7 +10949,7 @@
       <c r="L202" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N202" s="37"/>
+      <c r="N202"/>
     </row>
     <row r="203" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
@@ -11061,7 +11017,7 @@
       <c r="L204" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N204" s="37"/>
+      <c r="N204"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
@@ -11103,7 +11059,7 @@
       <c r="M205" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="N205" s="37"/>
+      <c r="N205"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
@@ -11127,7 +11083,7 @@
       <c r="L206" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N206" s="37"/>
+      <c r="N206"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
@@ -11169,7 +11125,7 @@
       <c r="M207" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N207" s="37"/>
+      <c r="N207"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
@@ -11193,9 +11149,9 @@
       <c r="L208" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N208" s="37"/>
-    </row>
-    <row r="209" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N208"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>347</v>
       </c>
@@ -11235,7 +11191,7 @@
       <c r="M209" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="N209" s="37"/>
+      <c r="N209"/>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
@@ -11259,9 +11215,9 @@
       <c r="L210" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N210" s="37"/>
-    </row>
-    <row r="211" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N210"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>347</v>
       </c>
@@ -11301,7 +11257,7 @@
       <c r="M211" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="N211" s="37"/>
+      <c r="N211"/>
     </row>
     <row r="212" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
@@ -11343,7 +11299,7 @@
       <c r="M212" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="N212" s="37"/>
+      <c r="N212"/>
       <c r="O212" s="16"/>
     </row>
     <row r="213" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -11386,10 +11342,10 @@
       <c r="M213" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="N213" s="37"/>
+      <c r="N213"/>
       <c r="O213" s="12"/>
     </row>
-    <row r="214" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>347</v>
       </c>
@@ -11429,7 +11385,7 @@
       <c r="M214" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="N214" s="37"/>
+      <c r="N214"/>
     </row>
     <row r="215" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
@@ -11456,7 +11412,7 @@
       <c r="M215" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="N215" s="37"/>
+      <c r="N215"/>
     </row>
     <row r="216" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
@@ -11483,7 +11439,7 @@
       <c r="M216" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="N216" s="37"/>
+      <c r="N216"/>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
@@ -11507,7 +11463,7 @@
       <c r="L217" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N217" s="37"/>
+      <c r="N217"/>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
@@ -11549,7 +11505,7 @@
       <c r="M218" s="33" t="s">
         <v>842</v>
       </c>
-      <c r="N218" s="37"/>
+      <c r="N218"/>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
@@ -11576,9 +11532,9 @@
       <c r="M219" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="N219" s="37"/>
-    </row>
-    <row r="220" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N219"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>347</v>
       </c>
@@ -11618,7 +11574,7 @@
       <c r="M220" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="N220" s="37"/>
+      <c r="N220"/>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
@@ -11642,9 +11598,9 @@
       <c r="L221" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N221" s="37"/>
-    </row>
-    <row r="222" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N221"/>
+    </row>
+    <row r="222" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>347</v>
       </c>
@@ -11684,7 +11640,7 @@
       <c r="M222" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="N222" s="37"/>
+      <c r="N222"/>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
@@ -11708,9 +11664,9 @@
       <c r="L223" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N223" s="37"/>
-    </row>
-    <row r="224" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N223"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>347</v>
       </c>
@@ -11823,7 +11779,7 @@
       <c r="M226" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="N226" s="37"/>
+      <c r="N226"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
@@ -11847,7 +11803,7 @@
       <c r="L227" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N227" s="37"/>
+      <c r="N227"/>
     </row>
     <row r="228" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
@@ -11915,7 +11871,7 @@
       <c r="L229" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N229" s="37"/>
+      <c r="N229"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
@@ -11983,7 +11939,7 @@
       <c r="L231" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N231" s="37"/>
+      <c r="N231"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
@@ -12007,9 +11963,9 @@
       <c r="L232" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N232" s="37"/>
-    </row>
-    <row r="233" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N232"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>347</v>
       </c>
@@ -12049,7 +12005,7 @@
       <c r="M233" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="N233" s="37"/>
+      <c r="N233"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
@@ -12073,9 +12029,9 @@
       <c r="L234" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N234" s="37"/>
-    </row>
-    <row r="235" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N234"/>
+    </row>
+    <row r="235" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>347</v>
       </c>
@@ -12116,7 +12072,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>347</v>
       </c>
@@ -12156,7 +12112,7 @@
       <c r="M236" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="N236" s="37"/>
+      <c r="N236"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
@@ -12180,7 +12136,7 @@
       <c r="L237" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N237" s="37"/>
+      <c r="N237"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
@@ -12248,9 +12204,9 @@
       <c r="L239" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N239" s="37"/>
-    </row>
-    <row r="240" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="N239"/>
+    </row>
+    <row r="240" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
         <v>347</v>
       </c>
@@ -12290,7 +12246,7 @@
       <c r="M240" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N240" s="37"/>
+      <c r="N240"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
@@ -12314,9 +12270,9 @@
       <c r="L241" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N241" s="37"/>
-    </row>
-    <row r="242" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N241"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>347</v>
       </c>
@@ -12356,7 +12312,7 @@
       <c r="M242" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="N242" s="37"/>
+      <c r="N242"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
@@ -12380,9 +12336,9 @@
       <c r="L243" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N243" s="37"/>
-    </row>
-    <row r="244" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N243"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
         <v>347</v>
       </c>
@@ -12419,7 +12375,7 @@
       <c r="M244" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N244" s="37"/>
+      <c r="N244"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
@@ -12443,7 +12399,7 @@
       <c r="L245" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N245" s="37"/>
+      <c r="N245"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
@@ -12555,7 +12511,7 @@
       <c r="L248" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N248" s="37"/>
+      <c r="N248"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
@@ -12579,7 +12535,7 @@
       <c r="L249" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N249" s="37"/>
+      <c r="N249"/>
     </row>
     <row r="250" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
@@ -12621,10 +12577,6 @@
       <c r="M250" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="N250" s="39"/>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N251" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L250" xr:uid="{D116995E-33BB-43AB-BECD-A51EE3AB001A}">
@@ -12632,14 +12584,14 @@
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="P2:P64">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
-      <formula>LEN(TRIM(P2))=0</formula>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="00031">
+      <formula>NOT(ISERROR(SEARCH("00031",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="00031">
-      <formula>NOT(ISERROR(SEARCH("00031",M15)))</formula>
+  <conditionalFormatting sqref="P2:P64">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(P2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13124,7 +13076,7 @@
       <c r="L16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="38" t="s">
+      <c r="M16" s="35" t="s">
         <v>379</v>
       </c>
       <c r="N16" s="20" t="s">
@@ -13612,7 +13564,7 @@
       <c r="L35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M35" s="38" t="s">
+      <c r="M35" s="35" t="s">
         <v>396</v>
       </c>
     </row>
@@ -14334,7 +14286,7 @@
       <c r="L66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M66" s="38" t="s">
+      <c r="M66" s="35" t="s">
         <v>401</v>
       </c>
     </row>
@@ -14475,7 +14427,7 @@
       <c r="L72" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M72" s="38" t="s">
+      <c r="M72" s="35" t="s">
         <v>753</v>
       </c>
     </row>
@@ -14884,7 +14836,7 @@
       <c r="L89" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M89" s="38" t="s">
+      <c r="M89" s="35" t="s">
         <v>402</v>
       </c>
       <c r="N89" s="23"/>
@@ -15571,7 +15523,7 @@
       <c r="L118" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M118" s="38" t="s">
+      <c r="M118" s="35" t="s">
         <v>380</v>
       </c>
     </row>
@@ -15704,7 +15656,7 @@
       <c r="L123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M123" s="38" t="s">
+      <c r="M123" s="35" t="s">
         <v>381</v>
       </c>
     </row>
@@ -15860,7 +15812,7 @@
       <c r="L129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M129" s="38" t="s">
+      <c r="M129" s="35" t="s">
         <v>395</v>
       </c>
     </row>
@@ -15947,7 +15899,7 @@
       <c r="L132" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M132" s="38" t="s">
+      <c r="M132" s="35" t="s">
         <v>398</v>
       </c>
     </row>
@@ -16379,7 +16331,7 @@
       <c r="L150" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M150" s="38" t="s">
+      <c r="M150" s="35" t="s">
         <v>385</v>
       </c>
     </row>
@@ -16466,7 +16418,7 @@
       <c r="L153" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M153" s="38" t="s">
+      <c r="M153" s="35" t="s">
         <v>390</v>
       </c>
     </row>
@@ -16760,7 +16712,7 @@
       <c r="L165" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M165" s="38" t="s">
+      <c r="M165" s="35" t="s">
         <v>392</v>
       </c>
     </row>
@@ -17100,7 +17052,7 @@
       <c r="L179" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M179" s="38" t="s">
+      <c r="M179" s="35" t="s">
         <v>393</v>
       </c>
     </row>
@@ -17325,7 +17277,7 @@
       <c r="L188" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M188" s="38" t="s">
+      <c r="M188" s="35" t="s">
         <v>387</v>
       </c>
     </row>
@@ -17688,7 +17640,7 @@
       <c r="L203" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M203" s="38" t="s">
+      <c r="M203" s="35" t="s">
         <v>383</v>
       </c>
     </row>
@@ -18189,7 +18141,7 @@
       <c r="L224" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M224" s="38" t="s">
+      <c r="M224" s="35" t="s">
         <v>376</v>
       </c>
     </row>
@@ -19104,7 +19056,7 @@
       <c r="L263" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M263" s="38" t="s">
+      <c r="M263" s="35" t="s">
         <v>389</v>
       </c>
     </row>
@@ -19145,7 +19097,7 @@
       <c r="L264" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M264" s="38" t="s">
+      <c r="M264" s="35" t="s">
         <v>404</v>
       </c>
     </row>
@@ -19278,7 +19230,7 @@
       <c r="L269" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M269" s="38" t="s">
+      <c r="M269" s="35" t="s">
         <v>403</v>
       </c>
     </row>
@@ -19319,7 +19271,7 @@
       <c r="L270" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M270" s="38" t="s">
+      <c r="M270" s="35" t="s">
         <v>394</v>
       </c>
     </row>
@@ -20602,7 +20554,7 @@
       <c r="L325" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M325" s="38" t="s">
+      <c r="M325" s="35" t="s">
         <v>752</v>
       </c>
     </row>
@@ -21241,7 +21193,7 @@
       <c r="L352" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M352" s="38" t="s">
+      <c r="M352" s="35" t="s">
         <v>399</v>
       </c>
     </row>
@@ -21328,7 +21280,7 @@
       <c r="L355" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M355" s="38" t="s">
+      <c r="M355" s="35" t="s">
         <v>754</v>
       </c>
     </row>
@@ -21412,7 +21364,7 @@
       <c r="L358" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M358" s="38" t="s">
+      <c r="M358" s="35" t="s">
         <v>751</v>
       </c>
     </row>
@@ -21499,7 +21451,7 @@
       <c r="L361" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M361" s="38" t="s">
+      <c r="M361" s="35" t="s">
         <v>351</v>
       </c>
     </row>
@@ -23667,7 +23619,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N26">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(N2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23680,8 +23632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC646CE0-D0B7-4CE4-8BF2-92B25C9A7B1F}">
   <dimension ref="A1:P405"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="76" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B392" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23694,8 +23646,7 @@
     <col min="9" max="9" width="15.21875" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
     <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="37" customWidth="1"/>
+    <col min="13" max="14" width="17.6640625" customWidth="1"/>
     <col min="15" max="15" width="47.88671875" customWidth="1"/>
     <col min="16" max="16" width="69.33203125" customWidth="1"/>
   </cols>
@@ -23740,7 +23691,7 @@
       <c r="M1" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="N1" s="35"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="30" t="s">
         <v>821</v>
       </c>
@@ -23778,7 +23729,7 @@
       <c r="M2" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="N2" s="36"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="30" t="s">
         <v>494</v>
       </c>
@@ -23816,7 +23767,7 @@
       <c r="M3" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="30" t="s">
         <v>543</v>
       </c>
@@ -23861,7 +23812,7 @@
       <c r="M4" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="30" t="s">
         <v>546</v>
       </c>
@@ -23896,7 +23847,7 @@
       <c r="M5" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="30" t="s">
         <v>529</v>
       </c>
@@ -23931,7 +23882,7 @@
       <c r="M6" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="30" t="s">
         <v>591</v>
       </c>
@@ -23976,7 +23927,7 @@
       <c r="M7" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="N7" s="36"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="30" t="s">
         <v>602</v>
       </c>
@@ -24011,7 +23962,7 @@
       <c r="M8" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="N8" s="36"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="30" t="s">
         <v>459</v>
       </c>
@@ -24046,7 +23997,7 @@
       <c r="M9" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="N9" s="36"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="30" t="s">
         <v>611</v>
       </c>
@@ -24091,7 +24042,7 @@
       <c r="M10" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="N10" s="36"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="30" t="s">
         <v>501</v>
       </c>
@@ -24126,7 +24077,7 @@
       <c r="M11" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="N11" s="36"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="30" t="s">
         <v>594</v>
       </c>
@@ -24161,7 +24112,7 @@
       <c r="M12" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="N12" s="36"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="31" t="s">
         <v>746</v>
       </c>
@@ -24206,7 +24157,7 @@
       <c r="M13" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="N13" s="36"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="30" t="s">
         <v>427</v>
       </c>
@@ -24251,7 +24202,7 @@
       <c r="M14" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="N14" s="36"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="31" t="s">
         <v>509</v>
       </c>
@@ -24286,7 +24237,7 @@
       <c r="M15" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="N15" s="36"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="30" t="s">
         <v>643</v>
       </c>
@@ -24321,7 +24272,7 @@
       <c r="M16" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="N16" s="36"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="31" t="s">
         <v>597</v>
       </c>
@@ -24363,10 +24314,12 @@
       <c r="L17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="N17" s="36"/>
+      <c r="N17" s="2" t="s">
+        <v>879</v>
+      </c>
       <c r="O17" s="30" t="s">
         <v>415</v>
       </c>
@@ -24401,7 +24354,7 @@
       <c r="M18" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="N18" s="36"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="31" t="s">
         <v>624</v>
       </c>
@@ -24436,7 +24389,7 @@
       <c r="M19" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="N19" s="36"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="30" t="s">
         <v>704</v>
       </c>
@@ -24481,7 +24434,7 @@
       <c r="M20" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="N20" s="36"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="31" t="s">
         <v>585</v>
       </c>
@@ -24516,7 +24469,7 @@
       <c r="M21" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="N21" s="36"/>
+      <c r="N21" s="7"/>
       <c r="O21" s="30" t="s">
         <v>626</v>
       </c>
@@ -24551,7 +24504,7 @@
       <c r="M22" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="N22" s="36"/>
+      <c r="N22" s="7"/>
       <c r="O22" s="31" t="s">
         <v>703</v>
       </c>
@@ -24596,7 +24549,7 @@
       <c r="M23" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="N23" s="36"/>
+      <c r="N23" s="7"/>
       <c r="O23" s="30" t="s">
         <v>437</v>
       </c>
@@ -24631,7 +24584,7 @@
       <c r="M24" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="N24" s="36"/>
+      <c r="N24" s="7"/>
       <c r="O24" s="31" t="s">
         <v>712</v>
       </c>
@@ -24666,7 +24619,7 @@
       <c r="M25" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="N25" s="36"/>
+      <c r="N25" s="7"/>
       <c r="O25" s="30" t="s">
         <v>678</v>
       </c>
@@ -24711,7 +24664,7 @@
       <c r="M26" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="N26" s="36"/>
+      <c r="N26" s="7"/>
       <c r="O26" s="31" t="s">
         <v>563</v>
       </c>
@@ -24746,7 +24699,7 @@
       <c r="M27" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="N27" s="36"/>
+      <c r="N27" s="7"/>
       <c r="O27" s="30" t="s">
         <v>468</v>
       </c>
@@ -24781,7 +24734,7 @@
       <c r="M28" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="N28" s="36"/>
+      <c r="N28" s="7"/>
       <c r="O28" s="31" t="s">
         <v>587</v>
       </c>
@@ -24826,7 +24779,7 @@
       <c r="M29" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="N29" s="36"/>
+      <c r="N29" s="7"/>
       <c r="O29" s="30" t="s">
         <v>618</v>
       </c>
@@ -24861,7 +24814,7 @@
       <c r="M30" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="N30" s="36"/>
+      <c r="N30" s="7"/>
       <c r="O30" s="31" t="s">
         <v>671</v>
       </c>
@@ -24896,7 +24849,7 @@
       <c r="M31" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="N31" s="36"/>
+      <c r="N31" s="7"/>
       <c r="O31" s="30" t="s">
         <v>636</v>
       </c>
@@ -24941,7 +24894,7 @@
       <c r="M32" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="N32" s="36"/>
+      <c r="N32" s="7"/>
       <c r="O32" s="31" t="s">
         <v>483</v>
       </c>
@@ -24976,7 +24929,7 @@
       <c r="M33" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="N33" s="36"/>
+      <c r="N33" s="7"/>
       <c r="O33" s="30" t="s">
         <v>432</v>
       </c>
@@ -25011,7 +24964,7 @@
       <c r="M34" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="N34" s="36"/>
+      <c r="N34" s="7"/>
       <c r="O34" s="31" t="s">
         <v>455</v>
       </c>
@@ -25056,7 +25009,7 @@
       <c r="M35" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="N35" s="36"/>
+      <c r="N35" s="7"/>
       <c r="O35" s="30" t="s">
         <v>616</v>
       </c>
@@ -25091,7 +25044,7 @@
       <c r="M36" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="N36" s="36"/>
+      <c r="N36" s="7"/>
       <c r="O36" s="31" t="s">
         <v>478</v>
       </c>
@@ -25126,7 +25079,7 @@
       <c r="M37" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="N37" s="36"/>
+      <c r="N37" s="7"/>
       <c r="O37" s="30" t="s">
         <v>533</v>
       </c>
@@ -25171,7 +25124,7 @@
       <c r="M38" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="N38" s="36"/>
+      <c r="N38" s="7"/>
       <c r="O38" s="31" t="s">
         <v>417</v>
       </c>
@@ -25206,7 +25159,7 @@
       <c r="M39" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="N39" s="36"/>
+      <c r="N39" s="7"/>
       <c r="O39" s="30" t="s">
         <v>520</v>
       </c>
@@ -25241,7 +25194,7 @@
       <c r="M40" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="N40" s="36"/>
+      <c r="N40" s="7"/>
       <c r="O40" s="31" t="s">
         <v>518</v>
       </c>
@@ -25286,7 +25239,7 @@
       <c r="M41" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="N41" s="36"/>
+      <c r="N41" s="7"/>
       <c r="O41" s="30" t="s">
         <v>506</v>
       </c>
@@ -25321,7 +25274,7 @@
       <c r="M42" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="N42" s="36"/>
+      <c r="N42" s="7"/>
       <c r="O42" s="31" t="s">
         <v>525</v>
       </c>
@@ -25356,7 +25309,7 @@
       <c r="M43" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="N43" s="36"/>
+      <c r="N43" s="7"/>
       <c r="O43" s="30" t="s">
         <v>413</v>
       </c>
@@ -25401,7 +25354,7 @@
       <c r="M44" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="N44" s="36"/>
+      <c r="N44" s="7"/>
       <c r="O44" s="31" t="s">
         <v>699</v>
       </c>
@@ -25436,7 +25389,7 @@
       <c r="M45" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="N45" s="36"/>
+      <c r="N45" s="7"/>
       <c r="O45" s="30" t="s">
         <v>663</v>
       </c>
@@ -25471,7 +25424,7 @@
       <c r="M46" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="N46" s="36"/>
+      <c r="N46" s="7"/>
       <c r="O46" s="31" t="s">
         <v>660</v>
       </c>
@@ -25516,7 +25469,7 @@
       <c r="M47" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="N47" s="36"/>
+      <c r="N47" s="7"/>
       <c r="O47" s="30" t="s">
         <v>648</v>
       </c>
@@ -25547,7 +25500,7 @@
       <c r="M48" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="N48" s="36"/>
+      <c r="N48" s="7"/>
       <c r="O48" s="31" t="s">
         <v>645</v>
       </c>
@@ -25582,7 +25535,7 @@
       <c r="M49" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="N49" s="36"/>
+      <c r="N49" s="7"/>
       <c r="O49" s="30" t="s">
         <v>641</v>
       </c>
@@ -25627,7 +25580,7 @@
       <c r="M50" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="N50" s="36"/>
+      <c r="N50" s="7"/>
       <c r="O50" s="31" t="s">
         <v>614</v>
       </c>
@@ -25662,7 +25615,7 @@
       <c r="M51" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="N51" s="36"/>
+      <c r="N51" s="7"/>
       <c r="O51" s="30" t="s">
         <v>638</v>
       </c>
@@ -25697,7 +25650,7 @@
       <c r="M52" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="N52" s="36"/>
+      <c r="N52" s="7"/>
       <c r="O52" s="31" t="s">
         <v>457</v>
       </c>
@@ -25742,7 +25695,7 @@
       <c r="M53" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="N53" s="36"/>
+      <c r="N53" s="7"/>
       <c r="O53" s="30" t="s">
         <v>453</v>
       </c>
@@ -25777,7 +25730,7 @@
       <c r="M54" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="N54" s="36"/>
+      <c r="N54" s="7"/>
       <c r="O54" s="31" t="s">
         <v>718</v>
       </c>
@@ -25807,7 +25760,7 @@
       <c r="M55" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="N55" s="36"/>
+      <c r="N55" s="7"/>
       <c r="O55" s="30" t="s">
         <v>604</v>
       </c>
@@ -25852,7 +25805,7 @@
       <c r="M56" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="N56" s="36"/>
+      <c r="N56" s="7"/>
       <c r="O56" s="31" t="s">
         <v>488</v>
       </c>
@@ -25887,7 +25840,7 @@
       <c r="M57" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="N57" s="36"/>
+      <c r="N57" s="7"/>
       <c r="O57" s="30" t="s">
         <v>490</v>
       </c>
@@ -25922,7 +25875,7 @@
       <c r="M58" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="N58" s="36"/>
+      <c r="N58" s="7"/>
       <c r="O58" s="31" t="s">
         <v>589</v>
       </c>
@@ -25967,7 +25920,7 @@
       <c r="M59" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="N59" s="36"/>
+      <c r="N59" s="7"/>
       <c r="O59" s="30" t="s">
         <v>600</v>
       </c>
@@ -26002,7 +25955,7 @@
       <c r="M60" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="N60" s="36"/>
+      <c r="N60" s="7"/>
       <c r="O60" s="31" t="s">
         <v>726</v>
       </c>
@@ -26037,7 +25990,7 @@
       <c r="M61" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="N61" s="36"/>
+      <c r="N61" s="7"/>
       <c r="O61" s="30" t="s">
         <v>486</v>
       </c>
@@ -26082,7 +26035,7 @@
       <c r="M62" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="N62" s="36"/>
+      <c r="N62" s="7"/>
       <c r="O62" s="31" t="s">
         <v>539</v>
       </c>
@@ -26117,7 +26070,7 @@
       <c r="M63" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="N63" s="36"/>
+      <c r="N63" s="7"/>
       <c r="O63" s="30" t="s">
         <v>522</v>
       </c>
@@ -26152,7 +26105,7 @@
       <c r="M64" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="N64" s="36"/>
+      <c r="N64" s="7"/>
       <c r="O64" s="31" t="s">
         <v>609</v>
       </c>
@@ -26197,7 +26150,7 @@
       <c r="M65" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="N65" s="36"/>
+      <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
@@ -26229,7 +26182,7 @@
       <c r="M66" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="N66" s="36"/>
+      <c r="N66" s="7"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
@@ -26261,7 +26214,7 @@
       <c r="M67" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="N67" s="36"/>
+      <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
@@ -26303,7 +26256,7 @@
       <c r="M68" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="N68" s="36"/>
+      <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
@@ -26335,7 +26288,7 @@
       <c r="M69" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="N69" s="36"/>
+      <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
@@ -26367,7 +26320,7 @@
       <c r="M70" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="N70" s="36"/>
+      <c r="N70" s="7"/>
     </row>
     <row r="71" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
@@ -26409,7 +26362,7 @@
       <c r="M71" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="N71" s="36"/>
+      <c r="N71" s="7"/>
     </row>
     <row r="72" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
@@ -26441,7 +26394,7 @@
       <c r="M72" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="N72" s="36"/>
+      <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
@@ -26473,9 +26426,9 @@
       <c r="M73" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="N73" s="36"/>
-    </row>
-    <row r="74" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="N73" s="7"/>
+    </row>
+    <row r="74" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>347</v>
       </c>
@@ -26515,7 +26468,7 @@
       <c r="M74" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="N74" s="36"/>
+      <c r="N74" s="7"/>
       <c r="O74" s="2" t="s">
         <v>730</v>
       </c>
@@ -26550,7 +26503,7 @@
       <c r="M75" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="N75" s="36"/>
+      <c r="N75" s="7"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
@@ -26582,7 +26535,7 @@
       <c r="M76" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="N76" s="36"/>
+      <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
@@ -26624,7 +26577,7 @@
       <c r="M77" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="N77" s="36"/>
+      <c r="N77" s="7"/>
     </row>
     <row r="78" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
@@ -26656,7 +26609,7 @@
       <c r="M78" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="N78" s="36"/>
+      <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
@@ -26688,7 +26641,7 @@
       <c r="M79" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="N79" s="36"/>
+      <c r="N79" s="7"/>
     </row>
     <row r="80" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
@@ -26730,7 +26683,7 @@
       <c r="M80" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="N80" s="36"/>
+      <c r="N80" s="7"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
@@ -26762,7 +26715,7 @@
       <c r="M81" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="N81" s="36"/>
+      <c r="N81" s="7"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
@@ -26794,7 +26747,7 @@
       <c r="M82" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="N82" s="36"/>
+      <c r="N82" s="7"/>
     </row>
     <row r="83" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
@@ -26836,7 +26789,7 @@
       <c r="M83" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="N83" s="36"/>
+      <c r="N83" s="7"/>
     </row>
     <row r="84" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
@@ -26868,7 +26821,7 @@
       <c r="M84" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="N84" s="36"/>
+      <c r="N84" s="7"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
@@ -26900,7 +26853,7 @@
       <c r="M85" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="N85" s="36"/>
+      <c r="N85" s="7"/>
     </row>
     <row r="86" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
@@ -26942,7 +26895,7 @@
       <c r="M86" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="N86" s="36"/>
+      <c r="N86" s="7"/>
     </row>
     <row r="87" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
@@ -26974,7 +26927,7 @@
       <c r="M87" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="N87" s="36"/>
+      <c r="N87" s="7"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
@@ -27006,7 +26959,7 @@
       <c r="M88" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="N88" s="36"/>
+      <c r="N88" s="7"/>
     </row>
     <row r="89" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
@@ -27048,7 +27001,7 @@
       <c r="M89" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="N89" s="36"/>
+      <c r="N89" s="7"/>
     </row>
     <row r="90" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
@@ -27080,7 +27033,7 @@
       <c r="M90" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="N90" s="36"/>
+      <c r="N90" s="7"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
@@ -27112,7 +27065,7 @@
       <c r="M91" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="N91" s="36"/>
+      <c r="N91" s="7"/>
     </row>
     <row r="92" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
@@ -27154,7 +27107,7 @@
       <c r="M92" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="N92" s="36"/>
+      <c r="N92" s="7"/>
     </row>
     <row r="93" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
@@ -27186,7 +27139,7 @@
       <c r="M93" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="N93" s="36"/>
+      <c r="N93" s="7"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
@@ -27218,7 +27171,7 @@
       <c r="M94" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="N94" s="36"/>
+      <c r="N94" s="7"/>
     </row>
     <row r="95" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
@@ -27260,7 +27213,7 @@
       <c r="M95" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="N95" s="36"/>
+      <c r="N95" s="7"/>
     </row>
     <row r="96" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
@@ -27292,7 +27245,7 @@
       <c r="M96" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="N96" s="36"/>
+      <c r="N96" s="7"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
@@ -27324,7 +27277,7 @@
       <c r="M97" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="N97" s="36"/>
+      <c r="N97" s="7"/>
     </row>
     <row r="98" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
@@ -27366,7 +27319,7 @@
       <c r="M98" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="N98" s="36"/>
+      <c r="N98" s="7"/>
     </row>
     <row r="99" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
@@ -27398,7 +27351,7 @@
       <c r="M99" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="N99" s="36"/>
+      <c r="N99" s="7"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
@@ -27430,7 +27383,7 @@
       <c r="M100" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="N100" s="36"/>
+      <c r="N100" s="7"/>
     </row>
     <row r="101" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
@@ -27472,7 +27425,7 @@
       <c r="M101" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="N101" s="36"/>
+      <c r="N101" s="7"/>
     </row>
     <row r="102" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
@@ -27504,7 +27457,7 @@
       <c r="M102" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="N102" s="36"/>
+      <c r="N102" s="7"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
@@ -27536,7 +27489,7 @@
       <c r="M103" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="N103" s="36"/>
+      <c r="N103" s="7"/>
     </row>
     <row r="104" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
@@ -27578,7 +27531,7 @@
       <c r="M104" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="N104" s="36"/>
+      <c r="N104" s="7"/>
       <c r="O104" s="7" t="s">
         <v>748</v>
       </c>
@@ -27613,7 +27566,7 @@
       <c r="M105" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="N105" s="36"/>
+      <c r="N105" s="7"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
@@ -27645,7 +27598,7 @@
       <c r="M106" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="N106" s="36"/>
+      <c r="N106" s="7"/>
     </row>
     <row r="107" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
@@ -27687,7 +27640,7 @@
       <c r="M107" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="N107" s="36"/>
+      <c r="N107" s="7"/>
     </row>
     <row r="108" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
@@ -27719,7 +27672,7 @@
       <c r="M108" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="N108" s="36"/>
+      <c r="N108" s="7"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
@@ -27751,7 +27704,7 @@
       <c r="M109" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="N109" s="36"/>
+      <c r="N109" s="7"/>
     </row>
     <row r="110" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
@@ -27793,7 +27746,7 @@
       <c r="M110" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="N110" s="36"/>
+      <c r="N110" s="7"/>
     </row>
     <row r="111" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
@@ -27825,7 +27778,7 @@
       <c r="M111" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="N111" s="36"/>
+      <c r="N111" s="7"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
@@ -27857,9 +27810,9 @@
       <c r="M112" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="N112" s="36"/>
-    </row>
-    <row r="113" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N112" s="7"/>
+    </row>
+    <row r="113" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>347</v>
       </c>
@@ -27899,7 +27852,7 @@
       <c r="M113" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="N113" s="36"/>
+      <c r="N113" s="7"/>
       <c r="O113" s="26" t="s">
         <v>731</v>
       </c>
@@ -27934,7 +27887,7 @@
       <c r="M114" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="N114" s="36"/>
+      <c r="N114" s="7"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
@@ -27966,7 +27919,7 @@
       <c r="M115" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="N115" s="36"/>
+      <c r="N115" s="7"/>
     </row>
     <row r="116" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
@@ -28008,7 +27961,7 @@
       <c r="M116" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="N116" s="36"/>
+      <c r="N116" s="7"/>
     </row>
     <row r="117" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
@@ -28040,7 +27993,7 @@
       <c r="M117" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="N117" s="36"/>
+      <c r="N117" s="7"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
@@ -28072,7 +28025,7 @@
       <c r="M118" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="N118" s="36"/>
+      <c r="N118" s="7"/>
     </row>
     <row r="119" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
@@ -28114,7 +28067,7 @@
       <c r="M119" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="N119" s="36"/>
+      <c r="N119" s="7"/>
     </row>
     <row r="120" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
@@ -28146,7 +28099,7 @@
       <c r="M120" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="N120" s="36"/>
+      <c r="N120" s="7"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
@@ -28178,7 +28131,7 @@
       <c r="M121" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="N121" s="36"/>
+      <c r="N121" s="7"/>
     </row>
     <row r="122" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
@@ -28220,7 +28173,7 @@
       <c r="M122" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="N122" s="36"/>
+      <c r="N122" s="7"/>
     </row>
     <row r="123" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
@@ -28252,7 +28205,7 @@
       <c r="M123" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="N123" s="36"/>
+      <c r="N123" s="7"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
@@ -28284,7 +28237,7 @@
       <c r="M124" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="N124" s="36"/>
+      <c r="N124" s="7"/>
     </row>
     <row r="125" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
@@ -28326,7 +28279,7 @@
       <c r="M125" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="N125" s="36"/>
+      <c r="N125" s="7"/>
     </row>
     <row r="126" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
@@ -28358,7 +28311,7 @@
       <c r="M126" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="N126" s="36"/>
+      <c r="N126" s="7"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
@@ -28390,7 +28343,7 @@
       <c r="M127" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="N127" s="36"/>
+      <c r="N127" s="7"/>
     </row>
     <row r="128" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
@@ -28422,9 +28375,9 @@
       <c r="M128" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="N128" s="36"/>
-    </row>
-    <row r="129" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N128" s="7"/>
+    </row>
+    <row r="129" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>347</v>
       </c>
@@ -28464,7 +28417,7 @@
       <c r="M129" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="N129" s="36"/>
+      <c r="N129" s="7"/>
       <c r="O129" s="2" t="s">
         <v>732</v>
       </c>
@@ -28499,7 +28452,7 @@
       <c r="M130" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="N130" s="36"/>
+      <c r="N130" s="7"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
@@ -28531,7 +28484,7 @@
       <c r="M131" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="N131" s="36"/>
+      <c r="N131" s="7"/>
     </row>
     <row r="132" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
@@ -28573,7 +28526,7 @@
       <c r="M132" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="N132" s="36"/>
+      <c r="N132" s="7"/>
     </row>
     <row r="133" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
@@ -28605,7 +28558,7 @@
       <c r="M133" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="N133" s="36"/>
+      <c r="N133" s="7"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
@@ -28637,9 +28590,9 @@
       <c r="M134" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="N134" s="36"/>
-    </row>
-    <row r="135" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N134" s="7"/>
+    </row>
+    <row r="135" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>347</v>
       </c>
@@ -28679,7 +28632,7 @@
       <c r="M135" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="N135" s="36"/>
+      <c r="N135" s="7"/>
       <c r="O135" s="26" t="s">
         <v>733</v>
       </c>
@@ -28714,7 +28667,7 @@
       <c r="M136" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="N136" s="36"/>
+      <c r="N136" s="7"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
@@ -28746,9 +28699,9 @@
       <c r="M137" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="N137" s="36"/>
-    </row>
-    <row r="138" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="N137" s="7"/>
+    </row>
+    <row r="138" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>347</v>
       </c>
@@ -28788,7 +28741,7 @@
       <c r="M138" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="N138" s="36"/>
+      <c r="N138" s="7"/>
       <c r="O138" s="2" t="s">
         <v>734</v>
       </c>
@@ -28823,7 +28776,7 @@
       <c r="M139" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="N139" s="36"/>
+      <c r="N139" s="7"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
@@ -28855,7 +28808,7 @@
       <c r="M140" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="N140" s="36"/>
+      <c r="N140" s="7"/>
     </row>
     <row r="141" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
@@ -28897,7 +28850,7 @@
       <c r="M141" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="N141" s="36"/>
+      <c r="N141" s="7"/>
     </row>
     <row r="142" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
@@ -28929,7 +28882,7 @@
       <c r="M142" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="N142" s="36"/>
+      <c r="N142" s="7"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
@@ -28961,7 +28914,7 @@
       <c r="M143" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="N143" s="36"/>
+      <c r="N143" s="7"/>
     </row>
     <row r="144" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
@@ -29003,7 +28956,7 @@
       <c r="M144" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="N144" s="36"/>
+      <c r="N144" s="7"/>
     </row>
     <row r="145" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
@@ -29035,7 +28988,7 @@
       <c r="M145" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="N145" s="36"/>
+      <c r="N145" s="7"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
@@ -29067,7 +29020,7 @@
       <c r="M146" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="N146" s="36"/>
+      <c r="N146" s="7"/>
     </row>
     <row r="147" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
@@ -29109,7 +29062,7 @@
       <c r="M147" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="N147" s="36"/>
+      <c r="N147" s="7"/>
       <c r="O147" t="s">
         <v>748</v>
       </c>
@@ -29144,7 +29097,7 @@
       <c r="M148" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="N148" s="36"/>
+      <c r="N148" s="7"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
@@ -29176,9 +29129,9 @@
       <c r="M149" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="N149" s="36"/>
-    </row>
-    <row r="150" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N149" s="7"/>
+    </row>
+    <row r="150" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>728</v>
       </c>
@@ -29218,7 +29171,7 @@
       <c r="M150" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="N150" s="36"/>
+      <c r="N150" s="7"/>
       <c r="O150" s="16" t="s">
         <v>735</v>
       </c>
@@ -29253,7 +29206,7 @@
       <c r="M151" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="N151" s="36"/>
+      <c r="N151" s="7"/>
     </row>
     <row r="152" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
@@ -29295,7 +29248,7 @@
       <c r="M152" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="N152" s="36"/>
+      <c r="N152" s="7"/>
     </row>
     <row r="153" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
@@ -29327,7 +29280,7 @@
       <c r="M153" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="N153" s="36"/>
+      <c r="N153" s="7"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
@@ -29359,7 +29312,7 @@
       <c r="M154" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="N154" s="36"/>
+      <c r="N154" s="7"/>
     </row>
     <row r="155" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
@@ -29401,7 +29354,7 @@
       <c r="M155" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="N155" s="36"/>
+      <c r="N155" s="7"/>
     </row>
     <row r="156" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
@@ -29433,7 +29386,7 @@
       <c r="M156" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="N156" s="36"/>
+      <c r="N156" s="7"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
@@ -29465,7 +29418,7 @@
       <c r="M157" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="N157" s="36"/>
+      <c r="N157" s="7"/>
     </row>
     <row r="158" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
@@ -29507,7 +29460,7 @@
       <c r="M158" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="N158" s="36"/>
+      <c r="N158" s="7"/>
     </row>
     <row r="159" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
@@ -29539,7 +29492,7 @@
       <c r="M159" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="N159" s="36"/>
+      <c r="N159" s="7"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
@@ -29571,7 +29524,7 @@
       <c r="M160" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="N160" s="36"/>
+      <c r="N160" s="7"/>
     </row>
     <row r="161" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
@@ -29613,7 +29566,7 @@
       <c r="M161" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="N161" s="36"/>
+      <c r="N161" s="7"/>
     </row>
     <row r="162" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
@@ -29645,7 +29598,7 @@
       <c r="M162" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="N162" s="36"/>
+      <c r="N162" s="7"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
@@ -29677,7 +29630,7 @@
       <c r="M163" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="N163" s="36"/>
+      <c r="N163" s="7"/>
     </row>
     <row r="164" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
@@ -29719,7 +29672,7 @@
       <c r="M164" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="N164" s="36"/>
+      <c r="N164" s="7"/>
     </row>
     <row r="165" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
@@ -29751,7 +29704,7 @@
       <c r="M165" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="N165" s="36"/>
+      <c r="N165" s="7"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
@@ -29783,7 +29736,7 @@
       <c r="M166" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="N166" s="36"/>
+      <c r="N166" s="7"/>
     </row>
     <row r="167" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
@@ -29825,7 +29778,7 @@
       <c r="M167" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="N167" s="36"/>
+      <c r="N167" s="7"/>
       <c r="O167" s="7"/>
     </row>
     <row r="168" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -29858,7 +29811,7 @@
       <c r="M168" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="N168" s="36"/>
+      <c r="N168" s="7"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
@@ -29890,7 +29843,7 @@
       <c r="M169" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="N169" s="36"/>
+      <c r="N169" s="7"/>
     </row>
     <row r="170" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
@@ -29932,7 +29885,7 @@
       <c r="M170" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="N170" s="36"/>
+      <c r="N170" s="7"/>
     </row>
     <row r="171" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
@@ -29964,7 +29917,7 @@
       <c r="M171" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="N171" s="36"/>
+      <c r="N171" s="7"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
@@ -29996,7 +29949,7 @@
       <c r="M172" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="N172" s="36"/>
+      <c r="N172" s="7"/>
     </row>
     <row r="173" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
@@ -30038,7 +29991,7 @@
       <c r="M173" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="N173" s="36"/>
+      <c r="N173" s="7"/>
     </row>
     <row r="174" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
@@ -30070,7 +30023,7 @@
       <c r="M174" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="N174" s="36"/>
+      <c r="N174" s="7"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
@@ -30102,7 +30055,7 @@
       <c r="M175" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="N175" s="36"/>
+      <c r="N175" s="7"/>
     </row>
     <row r="176" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
@@ -30144,7 +30097,7 @@
       <c r="M176" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="N176" s="36"/>
+      <c r="N176" s="7"/>
     </row>
     <row r="177" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
@@ -30176,7 +30129,7 @@
       <c r="M177" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="N177" s="36"/>
+      <c r="N177" s="7"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
@@ -30208,7 +30161,7 @@
       <c r="M178" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="N178" s="36"/>
+      <c r="N178" s="7"/>
     </row>
     <row r="179" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
@@ -30250,7 +30203,7 @@
       <c r="M179" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="N179" s="36"/>
+      <c r="N179" s="7"/>
     </row>
     <row r="180" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
@@ -30282,7 +30235,7 @@
       <c r="M180" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="N180" s="36"/>
+      <c r="N180" s="7"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
@@ -30314,7 +30267,7 @@
       <c r="M181" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="N181" s="36"/>
+      <c r="N181" s="7"/>
     </row>
     <row r="182" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
@@ -30356,7 +30309,7 @@
       <c r="M182" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="N182" s="36"/>
+      <c r="N182" s="7"/>
     </row>
     <row r="183" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
@@ -30388,7 +30341,7 @@
       <c r="M183" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="N183" s="36"/>
+      <c r="N183" s="7"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
@@ -30420,7 +30373,7 @@
       <c r="M184" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="N184" s="36"/>
+      <c r="N184" s="7"/>
     </row>
     <row r="185" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
@@ -30462,7 +30415,7 @@
       <c r="M185" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="N185" s="36"/>
+      <c r="N185" s="7"/>
     </row>
     <row r="186" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
@@ -30494,7 +30447,7 @@
       <c r="M186" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="N186" s="36"/>
+      <c r="N186" s="7"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
@@ -30526,7 +30479,7 @@
       <c r="M187" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="N187" s="36"/>
+      <c r="N187" s="7"/>
     </row>
     <row r="188" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
@@ -30568,7 +30521,7 @@
       <c r="M188" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="N188" s="36"/>
+      <c r="N188" s="7"/>
     </row>
     <row r="189" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
@@ -30600,7 +30553,7 @@
       <c r="M189" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="N189" s="36"/>
+      <c r="N189" s="7"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
@@ -30632,7 +30585,7 @@
       <c r="M190" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="N190" s="36"/>
+      <c r="N190" s="7"/>
     </row>
     <row r="191" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
@@ -30674,7 +30627,7 @@
       <c r="M191" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="N191" s="36"/>
+      <c r="N191" s="7"/>
     </row>
     <row r="192" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
@@ -30706,7 +30659,7 @@
       <c r="M192" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="N192" s="36"/>
+      <c r="N192" s="7"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
@@ -30738,7 +30691,7 @@
       <c r="M193" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="N193" s="36"/>
+      <c r="N193" s="7"/>
     </row>
     <row r="194" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
@@ -30780,7 +30733,7 @@
       <c r="M194" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="N194" s="36"/>
+      <c r="N194" s="7"/>
     </row>
     <row r="195" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
@@ -30812,7 +30765,7 @@
       <c r="M195" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="N195" s="36"/>
+      <c r="N195" s="7"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
@@ -30844,7 +30797,7 @@
       <c r="M196" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="N196" s="36"/>
+      <c r="N196" s="7"/>
     </row>
     <row r="197" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
@@ -30886,7 +30839,7 @@
       <c r="M197" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="N197" s="36"/>
+      <c r="N197" s="7"/>
     </row>
     <row r="198" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
@@ -30918,7 +30871,7 @@
       <c r="M198" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="N198" s="36"/>
+      <c r="N198" s="7"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
@@ -30950,7 +30903,7 @@
       <c r="M199" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="N199" s="36"/>
+      <c r="N199" s="7"/>
     </row>
     <row r="200" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
@@ -30992,7 +30945,7 @@
       <c r="M200" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N200" s="36"/>
+      <c r="N200" s="7"/>
     </row>
     <row r="201" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
@@ -31023,7 +30976,7 @@
       <c r="M201" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="N201" s="36"/>
+      <c r="N201" s="7"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
@@ -31055,7 +31008,7 @@
       <c r="M202" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="N202" s="36"/>
+      <c r="N202" s="7"/>
     </row>
     <row r="203" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
@@ -31097,7 +31050,7 @@
       <c r="M203" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="N203" s="36"/>
+      <c r="N203" s="7"/>
     </row>
     <row r="204" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
@@ -31129,7 +31082,7 @@
       <c r="M204" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="N204" s="36"/>
+      <c r="N204" s="7"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
@@ -31161,7 +31114,7 @@
       <c r="M205" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="N205" s="36"/>
+      <c r="N205" s="7"/>
     </row>
     <row r="206" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
@@ -31203,7 +31156,7 @@
       <c r="M206" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="N206" s="36"/>
+      <c r="N206" s="7"/>
     </row>
     <row r="207" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
@@ -31235,7 +31188,7 @@
       <c r="M207" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="N207" s="36"/>
+      <c r="N207" s="7"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
@@ -31267,7 +31220,7 @@
       <c r="M208" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="N208" s="36"/>
+      <c r="N208" s="7"/>
     </row>
     <row r="209" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
@@ -31309,7 +31262,7 @@
       <c r="M209" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="N209" s="36"/>
+      <c r="N209" s="7"/>
     </row>
     <row r="210" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
@@ -31341,7 +31294,7 @@
       <c r="M210" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="N210" s="36"/>
+      <c r="N210" s="7"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
@@ -31373,7 +31326,7 @@
       <c r="M211" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="N211" s="36"/>
+      <c r="N211" s="7"/>
     </row>
     <row r="212" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
@@ -31415,7 +31368,7 @@
       <c r="M212" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="N212" s="36"/>
+      <c r="N212" s="7"/>
     </row>
     <row r="213" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
@@ -31447,7 +31400,7 @@
       <c r="M213" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="N213" s="36"/>
+      <c r="N213" s="7"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
@@ -31479,7 +31432,7 @@
       <c r="M214" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="N214" s="36"/>
+      <c r="N214" s="7"/>
     </row>
     <row r="215" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
@@ -31521,7 +31474,7 @@
       <c r="M215" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="N215" s="36"/>
+      <c r="N215" s="7"/>
     </row>
     <row r="216" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
@@ -31553,7 +31506,7 @@
       <c r="M216" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="N216" s="36"/>
+      <c r="N216" s="7"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
@@ -31585,7 +31538,7 @@
       <c r="M217" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="N217" s="36"/>
+      <c r="N217" s="7"/>
     </row>
     <row r="218" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
@@ -31627,7 +31580,7 @@
       <c r="M218" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="N218" s="36"/>
+      <c r="N218" s="7"/>
     </row>
     <row r="219" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
@@ -31659,7 +31612,7 @@
       <c r="M219" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="N219" s="36"/>
+      <c r="N219" s="7"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
@@ -31691,7 +31644,7 @@
       <c r="M220" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="N220" s="36"/>
+      <c r="N220" s="7"/>
     </row>
     <row r="221" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
@@ -31733,7 +31686,7 @@
       <c r="M221" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="N221" s="36"/>
+      <c r="N221" s="7"/>
     </row>
     <row r="222" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
@@ -31765,7 +31718,7 @@
       <c r="M222" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="N222" s="36"/>
+      <c r="N222" s="7"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
@@ -31797,7 +31750,7 @@
       <c r="M223" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="N223" s="36"/>
+      <c r="N223" s="7"/>
     </row>
     <row r="224" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
@@ -31839,7 +31792,7 @@
       <c r="M224" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="N224" s="36"/>
+      <c r="N224" s="7"/>
     </row>
     <row r="225" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
@@ -31871,7 +31824,7 @@
       <c r="M225" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="N225" s="36"/>
+      <c r="N225" s="7"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
@@ -31903,7 +31856,7 @@
       <c r="M226" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="N226" s="36"/>
+      <c r="N226" s="7"/>
     </row>
     <row r="227" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
@@ -31945,7 +31898,7 @@
       <c r="M227" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="N227" s="36"/>
+      <c r="N227" s="7"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
@@ -31977,7 +31930,7 @@
       <c r="M228" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="N228" s="36"/>
+      <c r="N228" s="7"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
@@ -32009,7 +31962,7 @@
       <c r="M229" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="N229" s="36"/>
+      <c r="N229" s="7"/>
     </row>
     <row r="230" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
@@ -32051,7 +32004,7 @@
       <c r="M230" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="N230" s="36"/>
+      <c r="N230" s="7"/>
     </row>
     <row r="231" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
@@ -32083,7 +32036,7 @@
       <c r="M231" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="N231" s="36"/>
+      <c r="N231" s="7"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
@@ -32115,7 +32068,7 @@
       <c r="M232" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="N232" s="36"/>
+      <c r="N232" s="7"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
@@ -32157,7 +32110,7 @@
       <c r="M233" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="N233" s="36"/>
+      <c r="N233" s="7"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
@@ -32189,7 +32142,7 @@
       <c r="M234" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="N234" s="36"/>
+      <c r="N234" s="7"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
@@ -32221,7 +32174,7 @@
       <c r="M235" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="N235" s="36"/>
+      <c r="N235" s="7"/>
     </row>
     <row r="236" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
@@ -32263,7 +32216,7 @@
       <c r="M236" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="N236" s="36"/>
+      <c r="N236" s="7"/>
     </row>
     <row r="237" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
@@ -32295,7 +32248,7 @@
       <c r="M237" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="N237" s="36"/>
+      <c r="N237" s="7"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
@@ -32327,7 +32280,7 @@
       <c r="M238" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="N238" s="36"/>
+      <c r="N238" s="7"/>
     </row>
     <row r="239" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
@@ -32369,7 +32322,7 @@
       <c r="M239" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="N239" s="36"/>
+      <c r="N239" s="7"/>
     </row>
     <row r="240" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
@@ -32401,7 +32354,7 @@
       <c r="M240" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="N240" s="36"/>
+      <c r="N240" s="7"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
@@ -32433,7 +32386,7 @@
       <c r="M241" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="N241" s="36"/>
+      <c r="N241" s="7"/>
     </row>
     <row r="242" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
@@ -32475,7 +32428,7 @@
       <c r="M242" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="N242" s="36"/>
+      <c r="N242" s="7"/>
     </row>
     <row r="243" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
@@ -32507,7 +32460,7 @@
       <c r="M243" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="N243" s="36"/>
+      <c r="N243" s="7"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
@@ -32539,7 +32492,7 @@
       <c r="M244" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="N244" s="36"/>
+      <c r="N244" s="7"/>
     </row>
     <row r="245" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
@@ -32581,7 +32534,7 @@
       <c r="M245" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="N245" s="36"/>
+      <c r="N245" s="7"/>
     </row>
     <row r="246" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
@@ -32613,7 +32566,7 @@
       <c r="M246" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="N246" s="36"/>
+      <c r="N246" s="7"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
@@ -32645,7 +32598,7 @@
       <c r="M247" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="N247" s="36"/>
+      <c r="N247" s="7"/>
     </row>
     <row r="248" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
@@ -32687,7 +32640,7 @@
       <c r="M248" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="N248" s="36"/>
+      <c r="N248" s="7"/>
     </row>
     <row r="249" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
@@ -32719,7 +32672,7 @@
       <c r="M249" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="N249" s="36"/>
+      <c r="N249" s="7"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
@@ -32751,7 +32704,7 @@
       <c r="M250" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="N250" s="36"/>
+      <c r="N250" s="7"/>
     </row>
     <row r="251" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
@@ -32793,7 +32746,7 @@
       <c r="M251" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="N251" s="36"/>
+      <c r="N251" s="7"/>
     </row>
     <row r="252" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
@@ -32825,7 +32778,7 @@
       <c r="M252" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="N252" s="36"/>
+      <c r="N252" s="7"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
@@ -32857,7 +32810,7 @@
       <c r="M253" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="N253" s="36"/>
+      <c r="N253" s="7"/>
     </row>
     <row r="254" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
@@ -32899,7 +32852,7 @@
       <c r="M254" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="N254" s="36"/>
+      <c r="N254" s="7"/>
     </row>
     <row r="255" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
@@ -32931,7 +32884,7 @@
       <c r="M255" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="N255" s="36"/>
+      <c r="N255" s="7"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
@@ -32963,7 +32916,7 @@
       <c r="M256" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="N256" s="36"/>
+      <c r="N256" s="7"/>
     </row>
     <row r="257" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
@@ -33005,7 +32958,7 @@
       <c r="M257" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="N257" s="36"/>
+      <c r="N257" s="7"/>
       <c r="O257" s="7" t="s">
         <v>738</v>
       </c>
@@ -33040,7 +32993,7 @@
       <c r="M258" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="N258" s="36"/>
+      <c r="N258" s="7"/>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
@@ -33072,7 +33025,7 @@
       <c r="M259" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="N259" s="36"/>
+      <c r="N259" s="7"/>
     </row>
     <row r="260" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
@@ -33114,7 +33067,7 @@
       <c r="M260" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="N260" s="36"/>
+      <c r="N260" s="7"/>
     </row>
     <row r="261" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
@@ -33146,7 +33099,7 @@
       <c r="M261" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="N261" s="36"/>
+      <c r="N261" s="7"/>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
@@ -33178,7 +33131,7 @@
       <c r="M262" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="N262" s="36"/>
+      <c r="N262" s="7"/>
     </row>
     <row r="263" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
@@ -33220,7 +33173,7 @@
       <c r="M263" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="N263" s="36"/>
+      <c r="N263" s="7"/>
     </row>
     <row r="264" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
@@ -33252,7 +33205,7 @@
       <c r="M264" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="N264" s="36"/>
+      <c r="N264" s="7"/>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
@@ -33284,7 +33237,7 @@
       <c r="M265" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="N265" s="36"/>
+      <c r="N265" s="7"/>
     </row>
     <row r="266" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
@@ -33326,7 +33279,7 @@
       <c r="M266" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="N266" s="36"/>
+      <c r="N266" s="7"/>
     </row>
     <row r="267" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
@@ -33358,7 +33311,7 @@
       <c r="M267" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="N267" s="36"/>
+      <c r="N267" s="7"/>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
@@ -33390,7 +33343,7 @@
       <c r="M268" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="N268" s="36"/>
+      <c r="N268" s="7"/>
     </row>
     <row r="269" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
@@ -33432,7 +33385,7 @@
       <c r="M269" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="N269" s="36"/>
+      <c r="N269" s="7"/>
     </row>
     <row r="270" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
@@ -33464,7 +33417,7 @@
       <c r="M270" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="N270" s="36"/>
+      <c r="N270" s="7"/>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
@@ -33496,7 +33449,7 @@
       <c r="M271" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="N271" s="36"/>
+      <c r="N271" s="7"/>
     </row>
     <row r="272" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
@@ -33538,7 +33491,7 @@
       <c r="M272" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="N272" s="36"/>
+      <c r="N272" s="7"/>
     </row>
     <row r="273" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
@@ -33569,7 +33522,7 @@
       <c r="M273" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="N273" s="36"/>
+      <c r="N273" s="7"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
@@ -33601,7 +33554,7 @@
       <c r="M274" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="N274" s="36"/>
+      <c r="N274" s="7"/>
     </row>
     <row r="275" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
@@ -33643,7 +33596,7 @@
       <c r="M275" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="N275" s="36"/>
+      <c r="N275" s="7"/>
     </row>
     <row r="276" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
@@ -33675,7 +33628,7 @@
       <c r="M276" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="N276" s="36"/>
+      <c r="N276" s="7"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
@@ -33707,7 +33660,7 @@
       <c r="M277" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="N277" s="36"/>
+      <c r="N277" s="7"/>
     </row>
     <row r="278" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
@@ -33749,7 +33702,7 @@
       <c r="M278" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="N278" s="36"/>
+      <c r="N278" s="7"/>
     </row>
     <row r="279" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
@@ -33781,7 +33734,7 @@
       <c r="M279" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="N279" s="36"/>
+      <c r="N279" s="7"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
@@ -33813,7 +33766,7 @@
       <c r="M280" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="N280" s="36"/>
+      <c r="N280" s="7"/>
     </row>
     <row r="281" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
@@ -33855,7 +33808,7 @@
       <c r="M281" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="N281" s="36"/>
+      <c r="N281" s="7"/>
     </row>
     <row r="282" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
@@ -33887,7 +33840,7 @@
       <c r="M282" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="N282" s="36"/>
+      <c r="N282" s="7"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
@@ -33919,9 +33872,9 @@
       <c r="M283" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="N283" s="36"/>
-    </row>
-    <row r="284" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="N283" s="7"/>
+    </row>
+    <row r="284" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
         <v>347</v>
       </c>
@@ -33961,7 +33914,7 @@
       <c r="M284" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="N284" s="36"/>
+      <c r="N284" s="7"/>
       <c r="O284" s="2" t="s">
         <v>739</v>
       </c>
@@ -33996,7 +33949,7 @@
       <c r="M285" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="N285" s="36"/>
+      <c r="N285" s="7"/>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
@@ -34028,7 +33981,7 @@
       <c r="M286" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="N286" s="36"/>
+      <c r="N286" s="7"/>
     </row>
     <row r="287" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
@@ -34070,7 +34023,7 @@
       <c r="M287" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="N287" s="36"/>
+      <c r="N287" s="7"/>
     </row>
     <row r="288" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
@@ -34102,7 +34055,7 @@
       <c r="M288" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="N288" s="36"/>
+      <c r="N288" s="7"/>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
@@ -34134,7 +34087,7 @@
       <c r="M289" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="N289" s="36"/>
+      <c r="N289" s="7"/>
     </row>
     <row r="290" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
@@ -34176,7 +34129,7 @@
       <c r="M290" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="N290" s="36"/>
+      <c r="N290" s="7"/>
     </row>
     <row r="291" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
@@ -34208,7 +34161,7 @@
       <c r="M291" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="N291" s="36"/>
+      <c r="N291" s="7"/>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
@@ -34240,7 +34193,7 @@
       <c r="M292" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="N292" s="36"/>
+      <c r="N292" s="7"/>
     </row>
     <row r="293" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
@@ -34282,7 +34235,7 @@
       <c r="M293" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="N293" s="36"/>
+      <c r="N293" s="7"/>
     </row>
     <row r="294" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
@@ -34314,7 +34267,7 @@
       <c r="M294" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="N294" s="36"/>
+      <c r="N294" s="7"/>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="7" t="s">
@@ -34346,7 +34299,7 @@
       <c r="M295" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="N295" s="36"/>
+      <c r="N295" s="7"/>
     </row>
     <row r="296" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
@@ -34388,7 +34341,7 @@
       <c r="M296" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="N296" s="36"/>
+      <c r="N296" s="7"/>
     </row>
     <row r="297" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
@@ -34420,7 +34373,7 @@
       <c r="M297" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="N297" s="36"/>
+      <c r="N297" s="7"/>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
@@ -34452,7 +34405,7 @@
       <c r="M298" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="N298" s="36"/>
+      <c r="N298" s="7"/>
     </row>
     <row r="299" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
@@ -34494,7 +34447,7 @@
       <c r="M299" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="N299" s="36"/>
+      <c r="N299" s="7"/>
       <c r="O299" s="7" t="s">
         <v>739</v>
       </c>
@@ -34529,7 +34482,7 @@
       <c r="M300" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="N300" s="36"/>
+      <c r="N300" s="7"/>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
@@ -34561,7 +34514,7 @@
       <c r="M301" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="N301" s="36"/>
+      <c r="N301" s="7"/>
     </row>
     <row r="302" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
@@ -34603,7 +34556,7 @@
       <c r="M302" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="N302" s="36"/>
+      <c r="N302" s="7"/>
       <c r="O302" s="7" t="s">
         <v>740</v>
       </c>
@@ -34638,7 +34591,7 @@
       <c r="M303" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="N303" s="36"/>
+      <c r="N303" s="7"/>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
@@ -34670,7 +34623,7 @@
       <c r="M304" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="N304" s="36"/>
+      <c r="N304" s="7"/>
     </row>
     <row r="305" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
@@ -34712,7 +34665,7 @@
       <c r="M305" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="N305" s="36"/>
+      <c r="N305" s="7"/>
     </row>
     <row r="306" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
@@ -34744,7 +34697,7 @@
       <c r="M306" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="N306" s="36"/>
+      <c r="N306" s="7"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
@@ -34776,7 +34729,7 @@
       <c r="M307" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="N307" s="36"/>
+      <c r="N307" s="7"/>
     </row>
     <row r="308" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
@@ -34818,7 +34771,7 @@
       <c r="M308" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="N308" s="36"/>
+      <c r="N308" s="7"/>
     </row>
     <row r="309" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
@@ -34850,7 +34803,7 @@
       <c r="M309" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="N309" s="36"/>
+      <c r="N309" s="7"/>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
@@ -34882,7 +34835,7 @@
       <c r="M310" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="N310" s="36"/>
+      <c r="N310" s="7"/>
     </row>
     <row r="311" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
@@ -34925,7 +34878,7 @@
       <c r="M311" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="N311" s="36"/>
+      <c r="N311" s="7"/>
     </row>
     <row r="312" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
@@ -34957,7 +34910,7 @@
       <c r="M312" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="N312" s="36"/>
+      <c r="N312" s="7"/>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
@@ -34989,7 +34942,7 @@
       <c r="M313" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="N313" s="36"/>
+      <c r="N313" s="7"/>
     </row>
     <row r="314" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
@@ -35032,7 +34985,7 @@
       <c r="M314" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="N314" s="36"/>
+      <c r="N314" s="7"/>
     </row>
     <row r="315" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
@@ -35064,7 +35017,7 @@
       <c r="M315" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="N315" s="36"/>
+      <c r="N315" s="7"/>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
@@ -35096,7 +35049,7 @@
       <c r="M316" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="N316" s="36"/>
+      <c r="N316" s="7"/>
     </row>
     <row r="317" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
@@ -35138,7 +35091,7 @@
       <c r="M317" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="N317" s="36"/>
+      <c r="N317" s="7"/>
     </row>
     <row r="318" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
@@ -35170,7 +35123,7 @@
       <c r="M318" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="N318" s="36"/>
+      <c r="N318" s="7"/>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
@@ -35202,7 +35155,7 @@
       <c r="M319" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="N319" s="36"/>
+      <c r="N319" s="7"/>
     </row>
     <row r="320" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
@@ -35244,7 +35197,7 @@
       <c r="M320" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="N320" s="36"/>
+      <c r="N320" s="7"/>
     </row>
     <row r="321" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
@@ -35276,7 +35229,7 @@
       <c r="M321" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="N321" s="36"/>
+      <c r="N321" s="7"/>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
@@ -35308,7 +35261,7 @@
       <c r="M322" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="N322" s="36"/>
+      <c r="N322" s="7"/>
     </row>
     <row r="323" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
@@ -35350,7 +35303,7 @@
       <c r="M323" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="N323" s="36"/>
+      <c r="N323" s="7"/>
     </row>
     <row r="324" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
@@ -35382,7 +35335,7 @@
       <c r="M324" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="N324" s="36"/>
+      <c r="N324" s="7"/>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="7" t="s">
@@ -35414,7 +35367,7 @@
       <c r="M325" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="N325" s="36"/>
+      <c r="N325" s="7"/>
     </row>
     <row r="326" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="7" t="s">
@@ -35456,7 +35409,7 @@
       <c r="M326" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="N326" s="36"/>
+      <c r="N326" s="7"/>
     </row>
     <row r="327" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="7" t="s">
@@ -35488,7 +35441,7 @@
       <c r="M327" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="N327" s="36"/>
+      <c r="N327" s="7"/>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="7" t="s">
@@ -35520,7 +35473,7 @@
       <c r="M328" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="N328" s="36"/>
+      <c r="N328" s="7"/>
     </row>
     <row r="329" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A329" s="7" t="s">
@@ -35563,7 +35516,7 @@
       <c r="M329" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="N329" s="36"/>
+      <c r="N329" s="7"/>
     </row>
     <row r="330" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A330" s="7" t="s">
@@ -35595,7 +35548,7 @@
       <c r="M330" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="N330" s="36"/>
+      <c r="N330" s="7"/>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="7" t="s">
@@ -35627,7 +35580,7 @@
       <c r="M331" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="N331" s="36"/>
+      <c r="N331" s="7"/>
     </row>
     <row r="332" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="7" t="s">
@@ -35669,7 +35622,7 @@
       <c r="M332" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="N332" s="36"/>
+      <c r="N332" s="7"/>
       <c r="O332" s="7" t="s">
         <v>741</v>
       </c>
@@ -35704,7 +35657,7 @@
       <c r="M333" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="N333" s="36"/>
+      <c r="N333" s="7"/>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="7" t="s">
@@ -35736,7 +35689,7 @@
       <c r="M334" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="N334" s="36"/>
+      <c r="N334" s="7"/>
     </row>
     <row r="335" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
@@ -35778,7 +35731,7 @@
       <c r="M335" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="N335" s="36"/>
+      <c r="N335" s="7"/>
     </row>
     <row r="336" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
@@ -35810,7 +35763,7 @@
       <c r="M336" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="N336" s="36"/>
+      <c r="N336" s="7"/>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
@@ -35842,7 +35795,7 @@
       <c r="M337" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="N337" s="36"/>
+      <c r="N337" s="7"/>
     </row>
     <row r="338" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
@@ -35884,7 +35837,7 @@
       <c r="M338" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="N338" s="36"/>
+      <c r="N338" s="7"/>
     </row>
     <row r="339" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
@@ -35916,7 +35869,7 @@
       <c r="M339" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="N339" s="36"/>
+      <c r="N339" s="7"/>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
@@ -35948,7 +35901,7 @@
       <c r="M340" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="N340" s="36"/>
+      <c r="N340" s="7"/>
     </row>
     <row r="341" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
@@ -35980,7 +35933,7 @@
       <c r="M341" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="N341" s="36"/>
+      <c r="N341" s="7"/>
       <c r="O341" t="s">
         <v>742</v>
       </c>
@@ -36015,7 +35968,7 @@
       <c r="M342" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="N342" s="36"/>
+      <c r="N342" s="7"/>
     </row>
     <row r="343" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
@@ -36057,7 +36010,7 @@
       <c r="M343" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="N343" s="36"/>
+      <c r="N343" s="7"/>
     </row>
     <row r="344" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
@@ -36089,7 +36042,7 @@
       <c r="M344" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="N344" s="36"/>
+      <c r="N344" s="7"/>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
@@ -36121,7 +36074,7 @@
       <c r="M345" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="N345" s="36"/>
+      <c r="N345" s="7"/>
     </row>
     <row r="346" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
@@ -36163,7 +36116,7 @@
       <c r="M346" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="N346" s="36"/>
+      <c r="N346" s="7"/>
     </row>
     <row r="347" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
@@ -36195,7 +36148,7 @@
       <c r="M347" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="N347" s="36"/>
+      <c r="N347" s="7"/>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
@@ -36227,7 +36180,7 @@
       <c r="M348" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="N348" s="36"/>
+      <c r="N348" s="7"/>
     </row>
     <row r="349" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
@@ -36269,7 +36222,7 @@
       <c r="M349" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="N349" s="36"/>
+      <c r="N349" s="7"/>
     </row>
     <row r="350" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
@@ -36301,7 +36254,7 @@
       <c r="M350" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="N350" s="36"/>
+      <c r="N350" s="7"/>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
@@ -36333,7 +36286,7 @@
       <c r="M351" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="N351" s="36"/>
+      <c r="N351" s="7"/>
     </row>
     <row r="352" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
@@ -36375,7 +36328,7 @@
       <c r="M352" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="N352" s="36"/>
+      <c r="N352" s="7"/>
       <c r="O352" s="7" t="s">
         <v>741</v>
       </c>
@@ -36410,7 +36363,7 @@
       <c r="M353" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="N353" s="36"/>
+      <c r="N353" s="7"/>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
@@ -36442,7 +36395,7 @@
       <c r="M354" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="N354" s="36"/>
+      <c r="N354" s="7"/>
     </row>
     <row r="355" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
@@ -36484,7 +36437,7 @@
       <c r="M355" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="N355" s="36"/>
+      <c r="N355" s="7"/>
     </row>
     <row r="356" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
@@ -36516,7 +36469,7 @@
       <c r="M356" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="N356" s="36"/>
+      <c r="N356" s="7"/>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
@@ -36548,7 +36501,7 @@
       <c r="M357" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="N357" s="36"/>
+      <c r="N357" s="7"/>
     </row>
     <row r="358" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
@@ -36590,7 +36543,7 @@
       <c r="M358" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="N358" s="36"/>
+      <c r="N358" s="7"/>
       <c r="O358" s="7" t="s">
         <v>743</v>
       </c>
@@ -36625,7 +36578,7 @@
       <c r="M359" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="N359" s="36"/>
+      <c r="N359" s="7"/>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
@@ -36657,7 +36610,7 @@
       <c r="M360" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="N360" s="36"/>
+      <c r="N360" s="7"/>
     </row>
     <row r="361" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
@@ -36699,7 +36652,7 @@
       <c r="M361" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="N361" s="36"/>
+      <c r="N361" s="7"/>
     </row>
     <row r="362" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
@@ -36731,7 +36684,7 @@
       <c r="M362" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="N362" s="36"/>
+      <c r="N362" s="7"/>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
@@ -36763,7 +36716,7 @@
       <c r="M363" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="N363" s="36"/>
+      <c r="N363" s="7"/>
     </row>
     <row r="364" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
@@ -36806,7 +36759,7 @@
       <c r="M364" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="N364" s="36"/>
+      <c r="N364" s="7"/>
     </row>
     <row r="365" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
@@ -36838,7 +36791,7 @@
       <c r="M365" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="N365" s="36"/>
+      <c r="N365" s="7"/>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="7" t="s">
@@ -36870,7 +36823,7 @@
       <c r="M366" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="N366" s="36"/>
+      <c r="N366" s="7"/>
     </row>
     <row r="367" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="7" t="s">
@@ -36912,7 +36865,7 @@
       <c r="M367" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="N367" s="36"/>
+      <c r="N367" s="7"/>
     </row>
     <row r="368" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A368" s="7" t="s">
@@ -36944,7 +36897,7 @@
       <c r="M368" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="N368" s="36"/>
+      <c r="N368" s="7"/>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="7" t="s">
@@ -36976,7 +36929,7 @@
       <c r="M369" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="N369" s="36"/>
+      <c r="N369" s="7"/>
     </row>
     <row r="370" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
@@ -37008,7 +36961,7 @@
       <c r="M370" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="N370" s="36"/>
+      <c r="N370" s="7"/>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="7" t="s">
@@ -37040,7 +36993,7 @@
       <c r="M371" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="N371" s="36"/>
+      <c r="N371" s="7"/>
     </row>
     <row r="372" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A372" s="7" t="s">
@@ -37082,7 +37035,7 @@
       <c r="M372" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="N372" s="36"/>
+      <c r="N372" s="7"/>
       <c r="O372" s="7" t="s">
         <v>744</v>
       </c>
@@ -37128,7 +37081,7 @@
       <c r="M373" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="N373" s="36"/>
+      <c r="N373" s="7"/>
       <c r="O373" s="7" t="s">
         <v>745</v>
       </c>
@@ -37163,7 +37116,7 @@
       <c r="M374" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="N374" s="36"/>
+      <c r="N374" s="7"/>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="7" t="s">
@@ -37195,9 +37148,9 @@
       <c r="M375" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="N375" s="36"/>
-    </row>
-    <row r="376" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N375" s="7"/>
+    </row>
+    <row r="376" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A376" s="7" t="s">
         <v>347</v>
       </c>
@@ -37235,10 +37188,12 @@
       <c r="L376" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M376" s="7" t="s">
+      <c r="M376" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="N376" s="36"/>
+      <c r="N376" s="2" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="377" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="7" t="s">
@@ -37270,7 +37225,7 @@
       <c r="M377" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="N377" s="36"/>
+      <c r="N377" s="7"/>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="7" t="s">
@@ -37302,7 +37257,7 @@
       <c r="M378" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="N378" s="36"/>
+      <c r="N378" s="7"/>
     </row>
     <row r="379" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
@@ -37345,7 +37300,7 @@
       <c r="M379" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="N379" s="36"/>
+      <c r="N379" s="7"/>
     </row>
     <row r="380" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
@@ -37377,7 +37332,7 @@
       <c r="M380" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="N380" s="36"/>
+      <c r="N380" s="7"/>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
@@ -37409,7 +37364,7 @@
       <c r="M381" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="N381" s="36"/>
+      <c r="N381" s="7"/>
     </row>
     <row r="382" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
@@ -37452,7 +37407,7 @@
       <c r="M382" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="N382" s="36"/>
+      <c r="N382" s="7"/>
     </row>
     <row r="383" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
@@ -37484,7 +37439,7 @@
       <c r="M383" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="N383" s="36"/>
+      <c r="N383" s="7"/>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
@@ -37516,7 +37471,7 @@
       <c r="M384" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="N384" s="36"/>
+      <c r="N384" s="7"/>
     </row>
     <row r="385" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
@@ -37559,7 +37514,7 @@
       <c r="M385" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="N385" s="36"/>
+      <c r="N385" s="7"/>
     </row>
     <row r="386" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
@@ -37591,7 +37546,7 @@
       <c r="M386" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="N386" s="36"/>
+      <c r="N386" s="7"/>
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
@@ -37623,7 +37578,7 @@
       <c r="M387" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="N387" s="36"/>
+      <c r="N387" s="7"/>
     </row>
     <row r="388" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
@@ -37665,7 +37620,7 @@
       <c r="M388" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="N388" s="36"/>
+      <c r="N388" s="7"/>
     </row>
     <row r="389" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
@@ -37697,7 +37652,7 @@
       <c r="M389" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="N389" s="36"/>
+      <c r="N389" s="7"/>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
@@ -37729,7 +37684,7 @@
       <c r="M390" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="N390" s="36"/>
+      <c r="N390" s="7"/>
     </row>
     <row r="391" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
@@ -37771,7 +37726,7 @@
       <c r="M391" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="N391" s="36"/>
+      <c r="N391" s="7"/>
     </row>
     <row r="392" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
@@ -37803,7 +37758,7 @@
       <c r="M392" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="N392" s="36"/>
+      <c r="N392" s="7"/>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
@@ -37835,7 +37790,7 @@
       <c r="M393" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="N393" s="36"/>
+      <c r="N393" s="7"/>
     </row>
     <row r="394" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
@@ -37877,7 +37832,7 @@
       <c r="M394" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="N394" s="36"/>
+      <c r="N394" s="7"/>
     </row>
     <row r="395" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
@@ -37909,7 +37864,7 @@
       <c r="M395" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="N395" s="36"/>
+      <c r="N395" s="7"/>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
@@ -37941,7 +37896,7 @@
       <c r="M396" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="N396" s="36"/>
+      <c r="N396" s="7"/>
     </row>
     <row r="397" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
@@ -37983,7 +37938,7 @@
       <c r="M397" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="N397" s="36"/>
+      <c r="N397" s="7"/>
       <c r="O397" s="7" t="s">
         <v>741</v>
       </c>
@@ -38018,7 +37973,7 @@
       <c r="M398" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="N398" s="36"/>
+      <c r="N398" s="7"/>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="7" t="s">
@@ -38050,9 +38005,9 @@
       <c r="M399" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="N399" s="36"/>
-    </row>
-    <row r="400" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N399" s="7"/>
+    </row>
+    <row r="400" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A400" s="7" t="s">
         <v>347</v>
       </c>
@@ -38090,10 +38045,12 @@
       <c r="L400" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M400" s="7" t="s">
+      <c r="M400" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="N400" s="36"/>
+      <c r="N400" s="2" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="401" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="7" t="s">
@@ -38125,7 +38082,7 @@
       <c r="M401" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="N401" s="36"/>
+      <c r="N401" s="7"/>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" s="7" t="s">
@@ -38157,7 +38114,7 @@
       <c r="M402" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="N402" s="36"/>
+      <c r="N402" s="7"/>
     </row>
     <row r="403" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A403" s="7" t="s">
@@ -38200,7 +38157,7 @@
       <c r="M403" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="N403" s="36"/>
+      <c r="N403" s="7"/>
     </row>
     <row r="404" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A404" s="7" t="s">
@@ -38232,7 +38189,7 @@
       <c r="M404" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="N404" s="36"/>
+      <c r="N404" s="7"/>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" s="7" t="s">
@@ -38264,23 +38221,23 @@
       <c r="M405" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="N405" s="36"/>
+      <c r="N405" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="OM037668.1_00076, 00080, 00021, 00084, 00038, ">
-      <formula>NOT(ISERROR(SEARCH("OM037668.1_00076, 00080, 00021, 00084, 00038, ",J2)))</formula>
+  <conditionalFormatting sqref="A1:P1 A2:N64 P2:P64 A65:P405">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="00035">
+      <formula>NOT(ISERROR(SEARCH("00035",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="00035, 00056">
+      <formula>NOT(ISERROR(SEARCH("00035, 00056",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="00076">
+      <formula>NOT(ISERROR(SEARCH("00076",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P1 A65:P405 A2:N64 P2:P64">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="00035">
-      <formula>NOT(ISERROR(SEARCH("00035",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="00035, 00056">
-      <formula>NOT(ISERROR(SEARCH("00035, 00056",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="00076">
-      <formula>NOT(ISERROR(SEARCH("00076",A1)))</formula>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="OM037668.1_00076, 00080, 00021, 00084, 00038, ">
+      <formula>NOT(ISERROR(SEARCH("OM037668.1_00076, 00080, 00021, 00084, 00038, ",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prokka_outputs/Manually checked annotation summary/2024-08-02_Manual Check_Nucleotide alignment Annotations.xlsx
+++ b/prokka_outputs/Manually checked annotation summary/2024-08-02_Manual Check_Nucleotide alignment Annotations.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/prokka_outputs/Manually checked annotation summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2161" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98290323-CEEF-4426-AFC9-BA02A256D635}"/>
+  <xr:revisionPtr revIDLastSave="2688" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{748DE2DF-2DFD-4F3D-8623-959BDE6840A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
   </bookViews>
   <sheets>
     <sheet name="AF371960" sheetId="1" r:id="rId1"/>
     <sheet name="KF938901" sheetId="2" r:id="rId2"/>
-    <sheet name="OM037669" sheetId="3" r:id="rId3"/>
+    <sheet name="OM037668" sheetId="3" r:id="rId3"/>
+    <sheet name="MK689686" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AF371960'!$A$1:$L$250</definedName>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6636" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8389" uniqueCount="1140">
   <si>
     <t>Type</t>
   </si>
@@ -2796,6 +2797,780 @@
   </si>
   <si>
     <t xml:space="preserve">This gene (along with two others 00006 or 00125) are allocated to orthogroup 10. </t>
+  </si>
+  <si>
+    <t>locus_tag</t>
+  </si>
+  <si>
+    <t>MK689686.1_00001</t>
+  </si>
+  <si>
+    <t>transmembrane amino acid transporter protein CDS</t>
+  </si>
+  <si>
+    <t>DNA dependent RNA polymerase subunit H like protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00002</t>
+  </si>
+  <si>
+    <t>caspace recruitment domain-containing protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00003</t>
+  </si>
+  <si>
+    <t>ORF004 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00004</t>
+  </si>
+  <si>
+    <t>catalytic domain of ctd-like phosphatase CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00005</t>
+  </si>
+  <si>
+    <t>MK689686.1_00006</t>
+  </si>
+  <si>
+    <t>major capsid protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00007</t>
+  </si>
+  <si>
+    <t>myristylated membrane protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00008</t>
+  </si>
+  <si>
+    <t>ORF008 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00009</t>
+  </si>
+  <si>
+    <t>MK689686.1_00010</t>
+  </si>
+  <si>
+    <t>ORF009 CDS</t>
+  </si>
+  <si>
+    <t>ORF010 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00011</t>
+  </si>
+  <si>
+    <t>ORF011 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00012</t>
+  </si>
+  <si>
+    <t>RING-finger-containing E3 ubiquitin ligase CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00013</t>
+  </si>
+  <si>
+    <t>serine/threonine protein kinase CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00014</t>
+  </si>
+  <si>
+    <t>MK689686.1_00015</t>
+  </si>
+  <si>
+    <t>MK689686.1_00016</t>
+  </si>
+  <si>
+    <t>ORF014 CDS</t>
+  </si>
+  <si>
+    <t>ORF015 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00017</t>
+  </si>
+  <si>
+    <t>ORF016 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00018</t>
+  </si>
+  <si>
+    <t>ORF017 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00019</t>
+  </si>
+  <si>
+    <t>MK689686.1_00020</t>
+  </si>
+  <si>
+    <t>ORF018 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00021</t>
+  </si>
+  <si>
+    <t>ORF020 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00022</t>
+  </si>
+  <si>
+    <t>putative phosphatase CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00023</t>
+  </si>
+  <si>
+    <t>laminin-type epidermal growth factor-like protein CDS</t>
+  </si>
+  <si>
+    <t>CRISPR</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>MK689686.1_00024</t>
+  </si>
+  <si>
+    <t>ribonucleotide diphosphate reductase small subunit CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00025</t>
+  </si>
+  <si>
+    <t>MK689686.1_00026</t>
+  </si>
+  <si>
+    <t>histidine-rich protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00027</t>
+  </si>
+  <si>
+    <t>ORF025 CDS</t>
+  </si>
+  <si>
+    <t>DNA repair protein RAD2 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00028</t>
+  </si>
+  <si>
+    <t>DNA dependent RNA polymerase largest subunit CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00029</t>
+  </si>
+  <si>
+    <t>MK689686.1_00030</t>
+  </si>
+  <si>
+    <t>transcription factor S-II CDS</t>
+  </si>
+  <si>
+    <t>ORF029 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00031</t>
+  </si>
+  <si>
+    <t>MK689686.1_00032</t>
+  </si>
+  <si>
+    <t>ORF031 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00033</t>
+  </si>
+  <si>
+    <t>DNA dependent RNA polymerase second largest subunit CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00034</t>
+  </si>
+  <si>
+    <t>ORF033 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00035</t>
+  </si>
+  <si>
+    <t>ORF034 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00036</t>
+  </si>
+  <si>
+    <t>ORF035 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00037</t>
+  </si>
+  <si>
+    <t>ORF036 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00038</t>
+  </si>
+  <si>
+    <t>ORF037 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00039</t>
+  </si>
+  <si>
+    <t>ORF038 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00040</t>
+  </si>
+  <si>
+    <t>MK689686.1_00041</t>
+  </si>
+  <si>
+    <t>ORF039 CDS</t>
+  </si>
+  <si>
+    <t>ORF040 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00042</t>
+  </si>
+  <si>
+    <t>thiol oxidoreductase CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00043</t>
+  </si>
+  <si>
+    <t>ORF042 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00044</t>
+  </si>
+  <si>
+    <t>ORF043 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00045</t>
+  </si>
+  <si>
+    <t>cytosine DNA methyltransferase CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00046</t>
+  </si>
+  <si>
+    <t>MK689686.1_00047</t>
+  </si>
+  <si>
+    <t>ORF045 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00048</t>
+  </si>
+  <si>
+    <t>vascular endothelial growth factor-like protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00049</t>
+  </si>
+  <si>
+    <t>ORF047 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00050</t>
+  </si>
+  <si>
+    <t>ORF048 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00051</t>
+  </si>
+  <si>
+    <t>ORF049 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00052</t>
+  </si>
+  <si>
+    <t>ORF050 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00053</t>
+  </si>
+  <si>
+    <t>2-cysteine adaptor domain-containing protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00054</t>
+  </si>
+  <si>
+    <t>MK689686.1_00055</t>
+  </si>
+  <si>
+    <t>ORF053 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00056</t>
+  </si>
+  <si>
+    <t>ORF054 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00057</t>
+  </si>
+  <si>
+    <t>ORF055 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00058</t>
+  </si>
+  <si>
+    <t>replication factor CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00059</t>
+  </si>
+  <si>
+    <t>MK689686.1_00060</t>
+  </si>
+  <si>
+    <t>DNA-binding protein CDS</t>
+  </si>
+  <si>
+    <t>ORF058 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00061</t>
+  </si>
+  <si>
+    <t>SNF2 family helicase CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00062</t>
+  </si>
+  <si>
+    <t>mRNA capping enzyme CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00063</t>
+  </si>
+  <si>
+    <t>MK689686.1_00064</t>
+  </si>
+  <si>
+    <t>MK689686.1_00065</t>
+  </si>
+  <si>
+    <t>MK689686.1_00066</t>
+  </si>
+  <si>
+    <t>ORF063 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00067</t>
+  </si>
+  <si>
+    <t>ORF064 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00068</t>
+  </si>
+  <si>
+    <t>ORF065 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00069</t>
+  </si>
+  <si>
+    <t>ORF066 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00070</t>
+  </si>
+  <si>
+    <t>ORF067 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00071</t>
+  </si>
+  <si>
+    <t>ORF068 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00072</t>
+  </si>
+  <si>
+    <t>ORF069 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00073</t>
+  </si>
+  <si>
+    <t>ORF070 CDS</t>
+  </si>
+  <si>
+    <t>ORF071 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00074</t>
+  </si>
+  <si>
+    <t>ankyrin repeat containing protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00075</t>
+  </si>
+  <si>
+    <t>ORF073 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00076</t>
+  </si>
+  <si>
+    <t>MK689686.1_00077</t>
+  </si>
+  <si>
+    <t>ORF074 CDS</t>
+  </si>
+  <si>
+    <t>US22 protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00078</t>
+  </si>
+  <si>
+    <t>ORF076 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00079</t>
+  </si>
+  <si>
+    <t>ORF077 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00080</t>
+  </si>
+  <si>
+    <t>ORF078 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00081</t>
+  </si>
+  <si>
+    <t>ORF079 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00082</t>
+  </si>
+  <si>
+    <t>MK689686.1_00083</t>
+  </si>
+  <si>
+    <t>ORF080 CDS</t>
+  </si>
+  <si>
+    <t>ORF081 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00084</t>
+  </si>
+  <si>
+    <t>MK689686.1_00085</t>
+  </si>
+  <si>
+    <t>SAP domain-containing protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00086</t>
+  </si>
+  <si>
+    <t>ORF084 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00087</t>
+  </si>
+  <si>
+    <t>MK689686.1_00088</t>
+  </si>
+  <si>
+    <t>ORF085 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00089</t>
+  </si>
+  <si>
+    <t>putative RNA binding protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00090</t>
+  </si>
+  <si>
+    <t>ORF087 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00091</t>
+  </si>
+  <si>
+    <t>ORF088 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00092</t>
+  </si>
+  <si>
+    <t>ORF089 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00093</t>
+  </si>
+  <si>
+    <t>ORF090 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00094</t>
+  </si>
+  <si>
+    <t>MK689686.1_00095</t>
+  </si>
+  <si>
+    <t>ORF092 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00096</t>
+  </si>
+  <si>
+    <t>ORF093 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00097</t>
+  </si>
+  <si>
+    <t>MK689686.1_00098</t>
+  </si>
+  <si>
+    <t>suppressor of cytokine signaling 1 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00099</t>
+  </si>
+  <si>
+    <t>MK689686.1_00100</t>
+  </si>
+  <si>
+    <t>ORF096 CDS</t>
+  </si>
+  <si>
+    <t>ORF097 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00101</t>
+  </si>
+  <si>
+    <t>HIT-like protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00102</t>
+  </si>
+  <si>
+    <t>ORF099 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00103</t>
+  </si>
+  <si>
+    <t>ORF100 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00104</t>
+  </si>
+  <si>
+    <t>D5 family NTPase CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00105</t>
+  </si>
+  <si>
+    <t>ORF102 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00106</t>
+  </si>
+  <si>
+    <t>MK689686.1_00107</t>
+  </si>
+  <si>
+    <t>tumor necrosis factor receptor-associated factor CDS</t>
+  </si>
+  <si>
+    <t>proliferating cell nuclear antigen-like protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00108</t>
+  </si>
+  <si>
+    <t>ORF105 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00109</t>
+  </si>
+  <si>
+    <t>MK689686.1_00110</t>
+  </si>
+  <si>
+    <t>ORF107 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00111</t>
+  </si>
+  <si>
+    <t>FV3 immediate-eary protein ICP46-like protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00112</t>
+  </si>
+  <si>
+    <t>ORF109 CDS</t>
+  </si>
+  <si>
+    <t>ORF110 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00113</t>
+  </si>
+  <si>
+    <t>FV3 31KDa-like protein CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00114</t>
+  </si>
+  <si>
+    <t>MK689686.1_00115</t>
+  </si>
+  <si>
+    <t>MK689686.1_00116</t>
+  </si>
+  <si>
+    <t>MK689686.1_00117</t>
+  </si>
+  <si>
+    <t>ORF114 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00118</t>
+  </si>
+  <si>
+    <t>ORF115 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00119</t>
+  </si>
+  <si>
+    <t>MK689686.1_00120</t>
+  </si>
+  <si>
+    <t>ORF117 CDS</t>
+  </si>
+  <si>
+    <t>MK689686.1_00121</t>
+  </si>
+  <si>
+    <t>MK689686.1_00122</t>
+  </si>
+  <si>
+    <t>Transmembrane amino acid transporter protein CDS</t>
+  </si>
+  <si>
+    <t>Both Prokka and reference genome annotations returned 15 matches on GenBank. All matches equaled 378 amino acids long which matched the reference genome annotation, so I updated the prokka annotation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The same region was covered by Genbank annotation. I BLASTp's them both and both had ~4 hits with &gt;90% homology. The smaller gene in the Prokka annotation had more hits closer in size to it compared to the BLASTp hits for the reference genome annotation. </t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLASTp'd this gene and returned 4 matches in Genbank but none of the same size, they were all much larger. Query cover was 100%. I think the cover of the genes it was matching with would be &gt;50%. Decided to remove. </t>
+  </si>
+  <si>
+    <t>Six GenBank matches through BLASTp all around the same size of the sequence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six GenBank matches through BLASTp all around the same size of the sequence. Decided to add to Prokka annotation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 GenBank matches. Decided to add.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure why this CRISPER annotation is here. I assume it shouldn't be. </t>
+  </si>
+  <si>
+    <t>No matches in GenBank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All 7 matches in GenBank were the size of the GenBank referenc egenome annotation version of the gene. I updated it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 matches in GenBank for both the Prokkaand reference genome annotation for this gene. Equal NCBI BLASTp stats for the returns for both so kept Prokka version. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 matches for both Prokka and reference genome veraion. The macthes were equal to or closer in length to the reference genome version so I have updated the gene to match the ref genome version. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smaller version of another gene in the Genbank reference genome.However, all the matches matched the GenBank reference genome version. I updated to reference genome version. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No matches in GenBank BLASTp for Prokka annotation version. 6 Matches of a similar size for the reference genome version. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 matches on GenBank but all smaller than reference genome annotation present. Removed this one and replaces with GenBank referenc egenome version. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The same BLASTp metrics were returned for both the Prokka and the reference genome annotations. Kept Prokka version. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 matches in Genbank all of the same size and 6 matches &gt;90% identity. Decided to add annotation to Prokka- annotated genome. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLASTp'd this gene and ref genome annotation. Both returned 17 matches yet most matches were equal or closer in size to the length of the Prokka annotation. Kept Prokka annotation. </t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLASTp'd this gene and ref genome annotation. Both returned 22 matches yet most matches were equal or closer in size to the length of the Prokka annotation. Kept Prokka annotation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 BLASTp matches about &gt;80% identity. Decided to keep even though not in reference genome annotation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zero matches in GenBank. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 matches in GenBank. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLASTp returned 12 matches all the same length as the reference genome annotation. Decided to swap Prokka for reference genome annotation version. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The same number of matches for Prokka and reference genome annotation. Decied to eep Prokka annotation version. </t>
+  </si>
+  <si>
+    <t>3 matches with &gt;90% identyify in GenBank from BLASTp search.</t>
   </si>
 </sst>
 </file>
@@ -3352,7 +4127,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3440,6 +4215,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3485,7 +4265,77 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8824,7 +9674,7 @@
       </c>
       <c r="N139"/>
     </row>
-    <row r="140" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>347</v>
       </c>
@@ -8932,7 +9782,7 @@
       </c>
       <c r="N142"/>
     </row>
-    <row r="143" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>347</v>
       </c>
@@ -9022,7 +9872,7 @@
       </c>
       <c r="N145"/>
     </row>
-    <row r="146" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>347</v>
       </c>
@@ -9088,7 +9938,7 @@
       </c>
       <c r="N147"/>
     </row>
-    <row r="148" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>347</v>
       </c>
@@ -9154,7 +10004,7 @@
       </c>
       <c r="N149"/>
     </row>
-    <row r="150" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>347</v>
       </c>
@@ -9220,7 +10070,7 @@
       </c>
       <c r="N151"/>
     </row>
-    <row r="152" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>347</v>
       </c>
@@ -9286,7 +10136,7 @@
       </c>
       <c r="N153"/>
     </row>
-    <row r="154" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>347</v>
       </c>
@@ -9556,7 +10406,7 @@
       </c>
       <c r="N161"/>
     </row>
-    <row r="162" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>347</v>
       </c>
@@ -9717,7 +10567,7 @@
       </c>
       <c r="N166"/>
     </row>
-    <row r="167" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>347</v>
       </c>
@@ -9899,7 +10749,7 @@
       </c>
       <c r="N171"/>
     </row>
-    <row r="172" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>347</v>
       </c>
@@ -9965,7 +10815,7 @@
       </c>
       <c r="N173"/>
     </row>
-    <row r="174" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>347</v>
       </c>
@@ -10143,7 +10993,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>347</v>
       </c>
@@ -10211,7 +11061,7 @@
       </c>
       <c r="N180"/>
     </row>
-    <row r="181" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>347</v>
       </c>
@@ -10473,7 +11323,7 @@
       </c>
       <c r="N188"/>
     </row>
-    <row r="189" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>347</v>
       </c>
@@ -10885,7 +11735,7 @@
       </c>
       <c r="N200"/>
     </row>
-    <row r="201" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>347</v>
       </c>
@@ -10951,7 +11801,7 @@
       </c>
       <c r="N202"/>
     </row>
-    <row r="203" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>347</v>
       </c>
@@ -12585,12 +13435,12 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="00031">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="00031">
       <formula>NOT(ISERROR(SEARCH("00031",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P64">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="15" priority="2">
       <formula>LEN(TRIM(P2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23619,7 +24469,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N26">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="14" priority="1">
       <formula>LEN(TRIM(N2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23632,8 +24482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC646CE0-D0B7-4CE4-8BF2-92B25C9A7B1F}">
   <dimension ref="A1:P405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="76" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B392" sqref="B392"/>
+    <sheetView topLeftCell="E1" zoomScale="76" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38225,22 +39075,8238 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P1 A2:N64 P2:P64 A65:P405">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="00035">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="00035">
       <formula>NOT(ISERROR(SEARCH("00035",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="00035, 00056">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="00035, 00056">
       <formula>NOT(ISERROR(SEARCH("00035, 00056",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="00076">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="00076">
       <formula>NOT(ISERROR(SEARCH("00076",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="OM037668.1_00076, 00080, 00021, 00084, 00038, ">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="OM037668.1_00076, 00080, 00021, 00084, 00038, ">
       <formula>NOT(ISERROR(SEARCH("OM037668.1_00076, 00080, 00021, 00084, 00038, ",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7147B2-B91C-41F3-8C92-C1BD6B681777}">
+  <dimension ref="A1:Q242"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="G233" sqref="G233"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="7" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="7"/>
+    <col min="7" max="7" width="15.88671875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="7"/>
+    <col min="13" max="13" width="19.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="40.33203125" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>134</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1210</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1077</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I2" s="39">
+        <v>134</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1270</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1137</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>134</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1270</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1137</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1240</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1695</v>
+      </c>
+      <c r="F4" s="7">
+        <v>456</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1240</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1695</v>
+      </c>
+      <c r="F5" s="7">
+        <v>456</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1779</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2084</v>
+      </c>
+      <c r="F6" s="7">
+        <v>306</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1779</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2084</v>
+      </c>
+      <c r="F7" s="7">
+        <v>306</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>B6</f>
+        <v>caspace recruitment domain-containing protein CDS</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2110</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2613</v>
+      </c>
+      <c r="F8" s="7">
+        <v>504</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2110</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2613</v>
+      </c>
+      <c r="F9" s="7">
+        <v>504</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2883</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3452</v>
+      </c>
+      <c r="F10" s="7">
+        <v>570</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2883</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3452</v>
+      </c>
+      <c r="F11" s="7">
+        <v>570</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>B10</f>
+        <v>catalytic domain of ctd-like phosphatase CDS</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3484</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3789</v>
+      </c>
+      <c r="F12" s="7">
+        <v>306</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3793</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5154</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1362</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3793</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5154</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1362</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>B13</f>
+        <v>major capsid protein CDS</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5171</v>
+      </c>
+      <c r="E15" s="7">
+        <v>6628</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1458</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5171</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6628</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1458</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>B15</f>
+        <v>myristylated membrane protein CDS</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6699</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8246</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1548</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6699</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8246</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1548</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8200</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8418</v>
+      </c>
+      <c r="F19" s="7">
+        <v>219</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8200</v>
+      </c>
+      <c r="E20" s="7">
+        <v>8568</v>
+      </c>
+      <c r="F20" s="7">
+        <v>369</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>8662</v>
+      </c>
+      <c r="E21" s="7">
+        <v>9054</v>
+      </c>
+      <c r="F21" s="7">
+        <v>393</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8662</v>
+      </c>
+      <c r="E22" s="7">
+        <v>9054</v>
+      </c>
+      <c r="F22" s="7">
+        <v>393</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="P22" s="37" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7">
+        <v>9051</v>
+      </c>
+      <c r="E23" s="7">
+        <v>9311</v>
+      </c>
+      <c r="F23" s="7">
+        <v>261</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9051</v>
+      </c>
+      <c r="E24" s="7">
+        <v>9311</v>
+      </c>
+      <c r="F24" s="7">
+        <v>261</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9330</v>
+      </c>
+      <c r="E25" s="7">
+        <v>9662</v>
+      </c>
+      <c r="F25" s="7">
+        <v>333</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="38" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9330</v>
+      </c>
+      <c r="E26" s="7">
+        <v>9662</v>
+      </c>
+      <c r="F26" s="7">
+        <v>333</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f>B25</f>
+        <v>RING-finger-containing E3 ubiquitin ligase CDS</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7">
+        <v>9669</v>
+      </c>
+      <c r="E27" s="7">
+        <v>11066</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1398</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="38" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9669</v>
+      </c>
+      <c r="E28" s="7">
+        <v>11066</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1398</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f>B27</f>
+        <v>serine/threonine protein kinase CDS</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="P28" s="37" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11029</v>
+      </c>
+      <c r="E29" s="7">
+        <v>11283</v>
+      </c>
+      <c r="F29" s="7">
+        <v>255</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P29" s="38" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7">
+        <v>11321</v>
+      </c>
+      <c r="E30" s="7">
+        <v>12295</v>
+      </c>
+      <c r="F30" s="7">
+        <v>975</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="P30" s="37" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>11339</v>
+      </c>
+      <c r="E31" s="7">
+        <v>12295</v>
+      </c>
+      <c r="F31" s="7">
+        <v>957</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="38" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>12301</v>
+      </c>
+      <c r="E32" s="7">
+        <v>13092</v>
+      </c>
+      <c r="F32" s="7">
+        <v>792</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" s="37" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7">
+        <v>12301</v>
+      </c>
+      <c r="E33" s="7">
+        <v>13092</v>
+      </c>
+      <c r="F33" s="7">
+        <v>792</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="P33" s="38" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7">
+        <v>13150</v>
+      </c>
+      <c r="E34" s="7">
+        <v>13737</v>
+      </c>
+      <c r="F34" s="7">
+        <v>588</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="37" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7">
+        <v>13150</v>
+      </c>
+      <c r="E35" s="7">
+        <v>13737</v>
+      </c>
+      <c r="F35" s="7">
+        <v>588</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7">
+        <v>13752</v>
+      </c>
+      <c r="E36" s="7">
+        <v>14087</v>
+      </c>
+      <c r="F36" s="7">
+        <v>336</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="37" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7">
+        <v>13752</v>
+      </c>
+      <c r="E37" s="7">
+        <v>14087</v>
+      </c>
+      <c r="F37" s="7">
+        <v>336</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7">
+        <v>14114</v>
+      </c>
+      <c r="E38" s="7">
+        <v>14350</v>
+      </c>
+      <c r="F38" s="7">
+        <v>237</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="P38" s="37" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7">
+        <v>14347</v>
+      </c>
+      <c r="E39" s="7">
+        <v>14556</v>
+      </c>
+      <c r="F39" s="7">
+        <v>210</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P39" s="38" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7">
+        <v>14622</v>
+      </c>
+      <c r="E40" s="7">
+        <v>17468</v>
+      </c>
+      <c r="F40" s="7">
+        <v>2847</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P40" s="37" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="7">
+        <v>14622</v>
+      </c>
+      <c r="E41" s="7">
+        <v>17468</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2847</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f>B40</f>
+        <v>DNA polymerase CDS</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="P41" s="38" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="7">
+        <v>17545</v>
+      </c>
+      <c r="E42" s="7">
+        <v>18078</v>
+      </c>
+      <c r="F42" s="7">
+        <v>534</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P42" s="37" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7">
+        <v>17545</v>
+      </c>
+      <c r="E43" s="7">
+        <v>18078</v>
+      </c>
+      <c r="F43" s="7">
+        <v>534</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="P43" s="38" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7">
+        <v>18062</v>
+      </c>
+      <c r="E44" s="7">
+        <v>19714</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1653</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P44" s="37" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="7">
+        <v>18062</v>
+      </c>
+      <c r="E45" s="7">
+        <v>19714</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1653</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f>B44</f>
+        <v>putative phosphatase CDS</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7">
+        <v>19787</v>
+      </c>
+      <c r="E46" s="7">
+        <v>22921</v>
+      </c>
+      <c r="F46" s="7">
+        <v>3135</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="P46" s="37" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="D47" s="7">
+        <v>22485</v>
+      </c>
+      <c r="E47" s="7">
+        <v>22672</v>
+      </c>
+      <c r="F47" s="7">
+        <v>188</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="P47" s="38" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7">
+        <v>22894</v>
+      </c>
+      <c r="E48" s="7">
+        <v>23001</v>
+      </c>
+      <c r="F48" s="7">
+        <v>108</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="P48" s="37" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7">
+        <v>23206</v>
+      </c>
+      <c r="E49" s="7">
+        <v>24144</v>
+      </c>
+      <c r="F49" s="7">
+        <v>939</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49" s="38" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="7">
+        <v>23206</v>
+      </c>
+      <c r="E50" s="7">
+        <v>24144</v>
+      </c>
+      <c r="F50" s="7">
+        <v>939</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f>B49</f>
+        <v>ribonucleotide diphosphate reductase small subunit CDS</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="P50" s="37" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="7">
+        <v>24168</v>
+      </c>
+      <c r="E51" s="7">
+        <v>24776</v>
+      </c>
+      <c r="F51" s="7">
+        <v>609</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f>B52</f>
+        <v>histidine-rich protein CDS</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="P51" s="38" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="7">
+        <v>24171</v>
+      </c>
+      <c r="E52" s="7">
+        <v>24776</v>
+      </c>
+      <c r="F52" s="7">
+        <v>606</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P52" s="37" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="7">
+        <v>24773</v>
+      </c>
+      <c r="E53" s="7">
+        <v>25048</v>
+      </c>
+      <c r="F53" s="7">
+        <v>276</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I53" s="7">
+        <v>24773</v>
+      </c>
+      <c r="J53" s="7">
+        <v>25093</v>
+      </c>
+      <c r="K53" s="7">
+        <v>321</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P53" s="38" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7">
+        <v>24773</v>
+      </c>
+      <c r="E54" s="7">
+        <v>25093</v>
+      </c>
+      <c r="F54" s="7">
+        <v>321</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P54" s="37" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7">
+        <v>25115</v>
+      </c>
+      <c r="E55" s="7">
+        <v>26011</v>
+      </c>
+      <c r="F55" s="7">
+        <v>897</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P55" s="38" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7">
+        <v>25115</v>
+      </c>
+      <c r="E56" s="7">
+        <v>26011</v>
+      </c>
+      <c r="F56" s="7">
+        <v>897</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f>B55</f>
+        <v>DNA repair protein RAD2 CDS</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="P56" s="37" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="7">
+        <v>26028</v>
+      </c>
+      <c r="E57" s="7">
+        <v>29534</v>
+      </c>
+      <c r="F57" s="7">
+        <v>3507</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P57" s="38" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="7">
+        <v>26028</v>
+      </c>
+      <c r="E58" s="7">
+        <v>29534</v>
+      </c>
+      <c r="F58" s="7">
+        <v>3507</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="2" t="str">
+        <f>B57</f>
+        <v>DNA dependent RNA polymerase largest subunit CDS</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="P58" s="37" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7">
+        <v>29541</v>
+      </c>
+      <c r="E59" s="7">
+        <v>29744</v>
+      </c>
+      <c r="F59" s="7">
+        <v>204</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H59" s="2" t="str">
+        <f>B60</f>
+        <v>transcription factor S-II CDS</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="P59" s="38" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="7">
+        <v>29541</v>
+      </c>
+      <c r="E60" s="7">
+        <v>29762</v>
+      </c>
+      <c r="F60" s="7">
+        <v>222</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P60" s="37" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="7">
+        <v>29830</v>
+      </c>
+      <c r="E61" s="7">
+        <v>30414</v>
+      </c>
+      <c r="F61" s="7">
+        <v>585</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P61" s="38" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="7">
+        <v>29830</v>
+      </c>
+      <c r="E62" s="7">
+        <v>30414</v>
+      </c>
+      <c r="F62" s="7">
+        <v>585</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="P62" s="37" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7">
+        <v>30447</v>
+      </c>
+      <c r="E63" s="7">
+        <v>31022</v>
+      </c>
+      <c r="F63" s="7">
+        <v>576</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P63" s="38" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="7">
+        <v>30447</v>
+      </c>
+      <c r="E64" s="7">
+        <v>31022</v>
+      </c>
+      <c r="F64" s="7">
+        <v>576</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="2" t="str">
+        <f>B63</f>
+        <v>thymidine kinase CDS</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="P64" s="37" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="7">
+        <v>31113</v>
+      </c>
+      <c r="E65" s="7">
+        <v>32015</v>
+      </c>
+      <c r="F65" s="7">
+        <v>903</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="7">
+        <v>31113</v>
+      </c>
+      <c r="E66" s="7">
+        <v>32015</v>
+      </c>
+      <c r="F66" s="7">
+        <v>903</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="7">
+        <v>32098</v>
+      </c>
+      <c r="E67" s="7">
+        <v>35256</v>
+      </c>
+      <c r="F67" s="7">
+        <v>3159</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7">
+        <v>32098</v>
+      </c>
+      <c r="E68" s="7">
+        <v>35256</v>
+      </c>
+      <c r="F68" s="7">
+        <v>3159</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" s="2" t="str">
+        <f>B67</f>
+        <v>DNA dependent RNA polymerase second largest subunit CDS</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="7">
+        <v>35329</v>
+      </c>
+      <c r="E69" s="7">
+        <v>36462</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1134</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="7">
+        <v>35329</v>
+      </c>
+      <c r="E70" s="7">
+        <v>36462</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1134</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="7">
+        <v>36456</v>
+      </c>
+      <c r="E71" s="7">
+        <v>37511</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1056</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="7">
+        <v>36486</v>
+      </c>
+      <c r="E72" s="7">
+        <v>37511</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1026</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="7">
+        <v>37508</v>
+      </c>
+      <c r="E73" s="7">
+        <v>38857</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1350</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="7">
+        <v>37508</v>
+      </c>
+      <c r="E74" s="7">
+        <v>38857</v>
+      </c>
+      <c r="F74" s="7">
+        <v>1350</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="7">
+        <v>39086</v>
+      </c>
+      <c r="E75" s="7">
+        <v>40303</v>
+      </c>
+      <c r="F75" s="7">
+        <v>1218</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="7">
+        <v>39086</v>
+      </c>
+      <c r="E76" s="7">
+        <v>40303</v>
+      </c>
+      <c r="F76" s="7">
+        <v>1218</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="7">
+        <v>40368</v>
+      </c>
+      <c r="E77" s="7">
+        <v>41246</v>
+      </c>
+      <c r="F77" s="7">
+        <v>879</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="7">
+        <v>40368</v>
+      </c>
+      <c r="E78" s="7">
+        <v>41246</v>
+      </c>
+      <c r="F78" s="7">
+        <v>879</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="7">
+        <v>41239</v>
+      </c>
+      <c r="E79" s="7">
+        <v>42384</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1146</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="7">
+        <v>41239</v>
+      </c>
+      <c r="E80" s="7">
+        <v>42384</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1146</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="7">
+        <v>42386</v>
+      </c>
+      <c r="E81" s="7">
+        <v>43678</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1293</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I81" s="7">
+        <f>D82</f>
+        <v>42386</v>
+      </c>
+      <c r="J81" s="11">
+        <f>E82</f>
+        <v>43735</v>
+      </c>
+      <c r="K81" s="11">
+        <f>F82</f>
+        <v>1350</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="7">
+        <v>42386</v>
+      </c>
+      <c r="E82" s="7">
+        <v>43735</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1350</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="7">
+        <v>43750</v>
+      </c>
+      <c r="E83" s="7">
+        <v>44349</v>
+      </c>
+      <c r="F83" s="7">
+        <v>600</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="7">
+        <v>43750</v>
+      </c>
+      <c r="E84" s="7">
+        <v>44349</v>
+      </c>
+      <c r="F84" s="7">
+        <v>600</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="7">
+        <v>44433</v>
+      </c>
+      <c r="E85" s="7">
+        <v>44795</v>
+      </c>
+      <c r="F85" s="7">
+        <v>363</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="7">
+        <v>44433</v>
+      </c>
+      <c r="E86" s="7">
+        <v>44795</v>
+      </c>
+      <c r="F86" s="7">
+        <v>363</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H86" s="2" t="str">
+        <f>B85</f>
+        <v>thiol oxidoreductase CDS</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="7">
+        <v>44802</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45602</v>
+      </c>
+      <c r="F87" s="7">
+        <v>801</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="7">
+        <v>44802</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45602</v>
+      </c>
+      <c r="F88" s="7">
+        <v>801</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="7">
+        <v>45607</v>
+      </c>
+      <c r="E89" s="7">
+        <v>46521</v>
+      </c>
+      <c r="F89" s="7">
+        <v>915</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="7">
+        <v>45607</v>
+      </c>
+      <c r="E90" s="7">
+        <v>46521</v>
+      </c>
+      <c r="F90" s="7">
+        <v>915</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="7">
+        <v>46515</v>
+      </c>
+      <c r="E91" s="7">
+        <v>47198</v>
+      </c>
+      <c r="F91" s="7">
+        <v>684</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="7">
+        <v>46515</v>
+      </c>
+      <c r="E92" s="7">
+        <v>47198</v>
+      </c>
+      <c r="F92" s="7">
+        <v>684</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H92" s="2" t="str">
+        <f>B91</f>
+        <v>cytosine DNA methyltransferase CDS</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="7">
+        <v>47219</v>
+      </c>
+      <c r="E93" s="7">
+        <v>47461</v>
+      </c>
+      <c r="F93" s="7">
+        <v>243</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="7">
+        <v>47358</v>
+      </c>
+      <c r="E94" s="7">
+        <v>47621</v>
+      </c>
+      <c r="F94" s="7">
+        <v>264</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="7">
+        <v>47412</v>
+      </c>
+      <c r="E95" s="7">
+        <v>47621</v>
+      </c>
+      <c r="F95" s="7">
+        <v>210</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="7">
+        <v>47618</v>
+      </c>
+      <c r="E96" s="7">
+        <v>47971</v>
+      </c>
+      <c r="F96" s="7">
+        <v>354</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="7">
+        <v>47618</v>
+      </c>
+      <c r="E97" s="7">
+        <v>47971</v>
+      </c>
+      <c r="F97" s="7">
+        <v>354</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H97" s="2" t="str">
+        <f>B96</f>
+        <v>vascular endothelial growth factor-like protein CDS</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="7">
+        <v>47987</v>
+      </c>
+      <c r="E98" s="7">
+        <v>48157</v>
+      </c>
+      <c r="F98" s="7">
+        <v>171</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="7">
+        <v>47987</v>
+      </c>
+      <c r="E99" s="7">
+        <v>48157</v>
+      </c>
+      <c r="F99" s="7">
+        <v>171</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="7">
+        <v>48225</v>
+      </c>
+      <c r="E100" s="7">
+        <v>48653</v>
+      </c>
+      <c r="F100" s="7">
+        <v>429</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="7">
+        <v>48225</v>
+      </c>
+      <c r="E101" s="7">
+        <v>48653</v>
+      </c>
+      <c r="F101" s="7">
+        <v>429</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="7">
+        <v>48932</v>
+      </c>
+      <c r="E102" s="7">
+        <v>49384</v>
+      </c>
+      <c r="F102" s="7">
+        <v>453</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="7">
+        <v>48932</v>
+      </c>
+      <c r="E103" s="7">
+        <v>49384</v>
+      </c>
+      <c r="F103" s="7">
+        <v>453</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="7">
+        <v>49386</v>
+      </c>
+      <c r="E104" s="7">
+        <v>49580</v>
+      </c>
+      <c r="F104" s="7">
+        <v>195</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="7">
+        <v>49421</v>
+      </c>
+      <c r="E105" s="7">
+        <v>49591</v>
+      </c>
+      <c r="F105" s="7">
+        <v>171</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I105" s="11">
+        <v>49386</v>
+      </c>
+      <c r="J105" s="11">
+        <v>49580</v>
+      </c>
+      <c r="K105" s="11">
+        <v>195</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="7">
+        <v>49614</v>
+      </c>
+      <c r="E106" s="7">
+        <v>50558</v>
+      </c>
+      <c r="F106" s="7">
+        <v>945</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="7">
+        <v>49614</v>
+      </c>
+      <c r="E107" s="7">
+        <v>50558</v>
+      </c>
+      <c r="F107" s="7">
+        <v>945</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H107" s="2" t="str">
+        <f>B106</f>
+        <v>2-cysteine adaptor domain-containing protein CDS</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="7">
+        <v>50581</v>
+      </c>
+      <c r="E108" s="7">
+        <v>51522</v>
+      </c>
+      <c r="F108" s="7">
+        <v>942</v>
+      </c>
+      <c r="L108" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="7">
+        <v>50581</v>
+      </c>
+      <c r="E109" s="7">
+        <v>51522</v>
+      </c>
+      <c r="F109" s="7">
+        <v>942</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H109" s="2" t="str">
+        <f>B108</f>
+        <v>2-cysteine adaptor domain-containing protein CDS</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L109" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="7">
+        <v>51533</v>
+      </c>
+      <c r="E110" s="7">
+        <v>52180</v>
+      </c>
+      <c r="F110" s="7">
+        <v>648</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="7">
+        <v>51533</v>
+      </c>
+      <c r="E111" s="7">
+        <v>52180</v>
+      </c>
+      <c r="F111" s="7">
+        <v>648</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="7">
+        <v>52187</v>
+      </c>
+      <c r="E112" s="7">
+        <v>52447</v>
+      </c>
+      <c r="F112" s="7">
+        <v>261</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="7">
+        <v>52187</v>
+      </c>
+      <c r="E113" s="7">
+        <v>52447</v>
+      </c>
+      <c r="F113" s="7">
+        <v>261</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="7">
+        <v>52712</v>
+      </c>
+      <c r="E114" s="7">
+        <v>53224</v>
+      </c>
+      <c r="F114" s="7">
+        <v>513</v>
+      </c>
+      <c r="L114" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="7">
+        <v>52712</v>
+      </c>
+      <c r="E115" s="7">
+        <v>53224</v>
+      </c>
+      <c r="F115" s="7">
+        <v>513</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M115" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="7">
+        <v>53288</v>
+      </c>
+      <c r="E116" s="7">
+        <v>54094</v>
+      </c>
+      <c r="F116" s="7">
+        <v>807</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="7">
+        <v>53288</v>
+      </c>
+      <c r="E117" s="7">
+        <v>54094</v>
+      </c>
+      <c r="F117" s="7">
+        <v>807</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H117" s="2" t="str">
+        <f>B116</f>
+        <v>replication factor CDS</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L117" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="7">
+        <v>54091</v>
+      </c>
+      <c r="E118" s="7">
+        <v>57852</v>
+      </c>
+      <c r="F118" s="7">
+        <v>3762</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H118" s="2" t="str">
+        <f>B119</f>
+        <v>DNA-binding protein CDS</v>
+      </c>
+      <c r="I118" s="7">
+        <v>54091</v>
+      </c>
+      <c r="J118" s="11">
+        <v>57939</v>
+      </c>
+      <c r="K118" s="11">
+        <v>3849</v>
+      </c>
+      <c r="L118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M118" s="7" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="7">
+        <v>54091</v>
+      </c>
+      <c r="E119" s="7">
+        <v>57939</v>
+      </c>
+      <c r="F119" s="7">
+        <v>3849</v>
+      </c>
+      <c r="L119" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="7">
+        <v>57926</v>
+      </c>
+      <c r="E120" s="7">
+        <v>58294</v>
+      </c>
+      <c r="F120" s="7">
+        <v>369</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="7">
+        <v>57926</v>
+      </c>
+      <c r="E121" s="7">
+        <v>58294</v>
+      </c>
+      <c r="F121" s="7">
+        <v>369</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M121" s="7" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="7">
+        <v>58305</v>
+      </c>
+      <c r="E122" s="7">
+        <v>60953</v>
+      </c>
+      <c r="F122" s="7">
+        <v>2649</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="7">
+        <v>58305</v>
+      </c>
+      <c r="E123" s="7">
+        <v>60953</v>
+      </c>
+      <c r="F123" s="7">
+        <v>2649</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H123" s="2" t="str">
+        <f>B122</f>
+        <v>SNF2 family helicase CDS</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M123" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="7">
+        <v>61021</v>
+      </c>
+      <c r="E124" s="7">
+        <v>62493</v>
+      </c>
+      <c r="F124" s="7">
+        <v>1473</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="7">
+        <v>61021</v>
+      </c>
+      <c r="E125" s="7">
+        <v>62493</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1473</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H125" s="2" t="str">
+        <f>B124</f>
+        <v>mRNA capping enzyme CDS</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="7">
+        <v>62535</v>
+      </c>
+      <c r="E126" s="7">
+        <v>62822</v>
+      </c>
+      <c r="F126" s="7">
+        <v>288</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="7">
+        <v>62535</v>
+      </c>
+      <c r="E127" s="7">
+        <v>63005</v>
+      </c>
+      <c r="F127" s="7">
+        <v>471</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I127" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J127" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K127" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="7">
+        <v>62844</v>
+      </c>
+      <c r="E128" s="7">
+        <v>63059</v>
+      </c>
+      <c r="F128" s="7">
+        <v>216</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="7">
+        <v>63056</v>
+      </c>
+      <c r="E129" s="7">
+        <v>64099</v>
+      </c>
+      <c r="F129" s="7">
+        <v>1044</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H129" s="2" t="str">
+        <f>B130</f>
+        <v>RING-finger-containing E3 ubiquitin ligase CDS</v>
+      </c>
+      <c r="I129" s="7">
+        <v>63056</v>
+      </c>
+      <c r="J129" s="11">
+        <v>64138</v>
+      </c>
+      <c r="K129" s="11">
+        <v>1083</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="7">
+        <v>63056</v>
+      </c>
+      <c r="E130" s="7">
+        <v>64138</v>
+      </c>
+      <c r="F130" s="7">
+        <v>1083</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="7">
+        <v>64259</v>
+      </c>
+      <c r="E131" s="7">
+        <v>64840</v>
+      </c>
+      <c r="F131" s="7">
+        <v>582</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="7">
+        <v>64259</v>
+      </c>
+      <c r="E132" s="7">
+        <v>64840</v>
+      </c>
+      <c r="F132" s="7">
+        <v>582</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M132" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="7">
+        <v>64878</v>
+      </c>
+      <c r="E133" s="7">
+        <v>66311</v>
+      </c>
+      <c r="F133" s="7">
+        <v>1434</v>
+      </c>
+      <c r="L133" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="7">
+        <v>64878</v>
+      </c>
+      <c r="E134" s="7">
+        <v>66311</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1434</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L134" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M134" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="7">
+        <v>66323</v>
+      </c>
+      <c r="E135" s="7">
+        <v>67054</v>
+      </c>
+      <c r="F135" s="7">
+        <v>732</v>
+      </c>
+      <c r="L135" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="7">
+        <v>66323</v>
+      </c>
+      <c r="E136" s="7">
+        <v>67054</v>
+      </c>
+      <c r="F136" s="7">
+        <v>732</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L136" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M136" s="7" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="7">
+        <v>67076</v>
+      </c>
+      <c r="E137" s="7">
+        <v>67591</v>
+      </c>
+      <c r="F137" s="7">
+        <v>516</v>
+      </c>
+      <c r="L137" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="7">
+        <v>67076</v>
+      </c>
+      <c r="E138" s="7">
+        <v>67591</v>
+      </c>
+      <c r="F138" s="7">
+        <v>516</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M138" s="7" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="7">
+        <v>67494</v>
+      </c>
+      <c r="E139" s="7">
+        <v>69104</v>
+      </c>
+      <c r="F139" s="7">
+        <v>1611</v>
+      </c>
+      <c r="L139" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="7">
+        <v>67494</v>
+      </c>
+      <c r="E140" s="7">
+        <v>69104</v>
+      </c>
+      <c r="F140" s="7">
+        <v>1611</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L140" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M140" s="7" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="7">
+        <v>69087</v>
+      </c>
+      <c r="E141" s="7">
+        <v>69575</v>
+      </c>
+      <c r="F141" s="7">
+        <v>489</v>
+      </c>
+      <c r="L141" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="7">
+        <v>69156</v>
+      </c>
+      <c r="E142" s="7">
+        <v>69575</v>
+      </c>
+      <c r="F142" s="7">
+        <v>420</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L142" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M142" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="7">
+        <v>69624</v>
+      </c>
+      <c r="E143" s="7">
+        <v>70646</v>
+      </c>
+      <c r="F143" s="7">
+        <v>1023</v>
+      </c>
+      <c r="L143" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="7">
+        <v>69624</v>
+      </c>
+      <c r="E144" s="7">
+        <v>70646</v>
+      </c>
+      <c r="F144" s="7">
+        <v>1023</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L144" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M144" s="7" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="7">
+        <v>70747</v>
+      </c>
+      <c r="E145" s="7">
+        <v>71016</v>
+      </c>
+      <c r="F145" s="7">
+        <v>270</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H145" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I145" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J145" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K145" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L145" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="7">
+        <v>71018</v>
+      </c>
+      <c r="E146" s="7">
+        <v>73990</v>
+      </c>
+      <c r="F146" s="7">
+        <v>2973</v>
+      </c>
+      <c r="L146" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="7">
+        <v>71018</v>
+      </c>
+      <c r="E147" s="7">
+        <v>73990</v>
+      </c>
+      <c r="F147" s="7">
+        <v>2973</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L147" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M147" s="7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="7">
+        <v>74008</v>
+      </c>
+      <c r="E148" s="7">
+        <v>75342</v>
+      </c>
+      <c r="F148" s="7">
+        <v>1335</v>
+      </c>
+      <c r="L148" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="7">
+        <v>74008</v>
+      </c>
+      <c r="E149" s="7">
+        <v>75342</v>
+      </c>
+      <c r="F149" s="7">
+        <v>1335</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H149" s="2" t="str">
+        <f>B148</f>
+        <v>ankyrin repeat containing protein CDS</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J149" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L149" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M149" s="7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="7">
+        <v>75339</v>
+      </c>
+      <c r="E150" s="7">
+        <v>75803</v>
+      </c>
+      <c r="F150" s="7">
+        <v>465</v>
+      </c>
+      <c r="L150" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="7">
+        <v>75339</v>
+      </c>
+      <c r="E151" s="7">
+        <v>75803</v>
+      </c>
+      <c r="F151" s="7">
+        <v>465</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L151" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M151" s="7" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="7">
+        <v>75805</v>
+      </c>
+      <c r="E152" s="7">
+        <v>75993</v>
+      </c>
+      <c r="F152" s="7">
+        <v>189</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I152" s="7">
+        <v>75805</v>
+      </c>
+      <c r="J152" s="11">
+        <v>76029</v>
+      </c>
+      <c r="K152" s="11">
+        <v>225</v>
+      </c>
+      <c r="L152" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M152" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="7">
+        <v>75805</v>
+      </c>
+      <c r="E153" s="7">
+        <v>76029</v>
+      </c>
+      <c r="F153" s="7">
+        <v>225</v>
+      </c>
+      <c r="L153" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="7">
+        <v>76117</v>
+      </c>
+      <c r="E154" s="7">
+        <v>76590</v>
+      </c>
+      <c r="F154" s="7">
+        <v>474</v>
+      </c>
+      <c r="L154" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="7">
+        <v>76117</v>
+      </c>
+      <c r="E155" s="7">
+        <v>76590</v>
+      </c>
+      <c r="F155" s="7">
+        <v>474</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H155" s="2" t="str">
+        <f>B154</f>
+        <v>US22 protein CDS</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J155" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L155" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M155" s="7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="7">
+        <v>76603</v>
+      </c>
+      <c r="E156" s="7">
+        <v>77100</v>
+      </c>
+      <c r="F156" s="7">
+        <v>498</v>
+      </c>
+      <c r="L156" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="7">
+        <v>76603</v>
+      </c>
+      <c r="E157" s="7">
+        <v>77100</v>
+      </c>
+      <c r="F157" s="7">
+        <v>498</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J157" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L157" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M157" s="7" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="7">
+        <v>77149</v>
+      </c>
+      <c r="E158" s="7">
+        <v>78255</v>
+      </c>
+      <c r="F158" s="7">
+        <v>1107</v>
+      </c>
+      <c r="L158" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="7">
+        <v>77149</v>
+      </c>
+      <c r="E159" s="7">
+        <v>78255</v>
+      </c>
+      <c r="F159" s="7">
+        <v>1107</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L159" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M159" s="7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="7">
+        <v>78319</v>
+      </c>
+      <c r="E160" s="7">
+        <v>78678</v>
+      </c>
+      <c r="F160" s="7">
+        <v>360</v>
+      </c>
+      <c r="L160" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="7">
+        <v>78319</v>
+      </c>
+      <c r="E161" s="7">
+        <v>78678</v>
+      </c>
+      <c r="F161" s="7">
+        <v>360</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L161" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M161" s="7" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="7">
+        <v>78705</v>
+      </c>
+      <c r="E162" s="7">
+        <v>80009</v>
+      </c>
+      <c r="F162" s="7">
+        <v>1305</v>
+      </c>
+      <c r="L162" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="7">
+        <v>78705</v>
+      </c>
+      <c r="E163" s="7">
+        <v>80009</v>
+      </c>
+      <c r="F163" s="7">
+        <v>1305</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J163" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L163" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M163" s="7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="7">
+        <v>80096</v>
+      </c>
+      <c r="E164" s="7">
+        <v>80626</v>
+      </c>
+      <c r="F164" s="7">
+        <v>531</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J164" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L164" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M164" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="7">
+        <v>80123</v>
+      </c>
+      <c r="E165" s="7">
+        <v>80626</v>
+      </c>
+      <c r="F165" s="7">
+        <v>504</v>
+      </c>
+      <c r="L165" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="7">
+        <v>80623</v>
+      </c>
+      <c r="E166" s="7">
+        <v>81090</v>
+      </c>
+      <c r="F166" s="7">
+        <v>468</v>
+      </c>
+      <c r="L166" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="7">
+        <v>80623</v>
+      </c>
+      <c r="E167" s="7">
+        <v>81090</v>
+      </c>
+      <c r="F167" s="7">
+        <v>468</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L167" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M167" s="7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="7">
+        <v>81083</v>
+      </c>
+      <c r="E168" s="7">
+        <v>81853</v>
+      </c>
+      <c r="F168" s="7">
+        <v>771</v>
+      </c>
+      <c r="L168" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="7">
+        <v>81083</v>
+      </c>
+      <c r="E169" s="7">
+        <v>81853</v>
+      </c>
+      <c r="F169" s="7">
+        <v>771</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H169" s="2" t="str">
+        <f>B168</f>
+        <v>ribonuclease III CDS</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J169" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L169" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M169" s="7" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="7">
+        <v>81850</v>
+      </c>
+      <c r="E170" s="7">
+        <v>82263</v>
+      </c>
+      <c r="F170" s="7">
+        <v>414</v>
+      </c>
+      <c r="L170" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="7">
+        <v>81850</v>
+      </c>
+      <c r="E171" s="7">
+        <v>82263</v>
+      </c>
+      <c r="F171" s="7">
+        <v>414</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H171" s="2" t="str">
+        <f>B170</f>
+        <v>SAP domain-containing protein CDS</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J171" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L171" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M171" s="7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="7">
+        <v>82312</v>
+      </c>
+      <c r="E172" s="7">
+        <v>83883</v>
+      </c>
+      <c r="F172" s="7">
+        <v>1572</v>
+      </c>
+      <c r="L172" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="7">
+        <v>82312</v>
+      </c>
+      <c r="E173" s="7">
+        <v>83883</v>
+      </c>
+      <c r="F173" s="7">
+        <v>1572</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J173" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L173" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M173" s="7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="7">
+        <v>83864</v>
+      </c>
+      <c r="E174" s="7">
+        <v>84865</v>
+      </c>
+      <c r="F174" s="7">
+        <v>1002</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J174" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L174" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M174" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N174" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="7">
+        <v>83864</v>
+      </c>
+      <c r="E175" s="7">
+        <v>84949</v>
+      </c>
+      <c r="F175" s="7">
+        <v>1086</v>
+      </c>
+      <c r="L175" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="7">
+        <v>84888</v>
+      </c>
+      <c r="E176" s="7">
+        <v>85073</v>
+      </c>
+      <c r="F176" s="7">
+        <v>186</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J176" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L176" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M176" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N176" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="7">
+        <v>85070</v>
+      </c>
+      <c r="E177" s="7">
+        <v>85996</v>
+      </c>
+      <c r="F177" s="7">
+        <v>927</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H177" s="16" t="str">
+        <f>B177</f>
+        <v>putative RNA binding protein CDS</v>
+      </c>
+      <c r="I177" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J177" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K177" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L177" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N177" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="7">
+        <v>85257</v>
+      </c>
+      <c r="E178" s="7">
+        <v>85439</v>
+      </c>
+      <c r="F178" s="7">
+        <v>183</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H178" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I178" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J178" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K178" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L178" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M178" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N178" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="7">
+        <v>86006</v>
+      </c>
+      <c r="E179" s="7">
+        <v>86506</v>
+      </c>
+      <c r="F179" s="7">
+        <v>501</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="7">
+        <v>86006</v>
+      </c>
+      <c r="E180" s="7">
+        <v>86506</v>
+      </c>
+      <c r="F180" s="7">
+        <v>501</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J180" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L180" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M180" s="7" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="7">
+        <v>86531</v>
+      </c>
+      <c r="E181" s="7">
+        <v>87694</v>
+      </c>
+      <c r="F181" s="7">
+        <v>1164</v>
+      </c>
+      <c r="L181" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="7">
+        <v>86531</v>
+      </c>
+      <c r="E182" s="7">
+        <v>87694</v>
+      </c>
+      <c r="F182" s="7">
+        <v>1164</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J182" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L182" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M182" s="7" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="7">
+        <v>87702</v>
+      </c>
+      <c r="E183" s="7">
+        <v>88439</v>
+      </c>
+      <c r="F183" s="7">
+        <v>738</v>
+      </c>
+      <c r="L183" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="7">
+        <v>87702</v>
+      </c>
+      <c r="E184" s="7">
+        <v>88439</v>
+      </c>
+      <c r="F184" s="7">
+        <v>738</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I184" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J184" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L184" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M184" s="7" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="7">
+        <v>88444</v>
+      </c>
+      <c r="E185" s="7">
+        <v>88935</v>
+      </c>
+      <c r="F185" s="7">
+        <v>492</v>
+      </c>
+      <c r="L185" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="7">
+        <v>88444</v>
+      </c>
+      <c r="E186" s="7">
+        <v>88935</v>
+      </c>
+      <c r="F186" s="7">
+        <v>492</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I186" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J186" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L186" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M186" s="7" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="7">
+        <v>88984</v>
+      </c>
+      <c r="E187" s="7">
+        <v>89307</v>
+      </c>
+      <c r="F187" s="7">
+        <v>324</v>
+      </c>
+      <c r="L187" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="7">
+        <v>88984</v>
+      </c>
+      <c r="E188" s="7">
+        <v>89307</v>
+      </c>
+      <c r="F188" s="7">
+        <v>324</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H188" s="2" t="str">
+        <f>B187</f>
+        <v>RING-finger-containing E3 ubiquitin ligase CDS</v>
+      </c>
+      <c r="I188" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J188" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K188" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L188" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M188" s="7" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="7">
+        <v>89455</v>
+      </c>
+      <c r="E189" s="7">
+        <v>90024</v>
+      </c>
+      <c r="F189" s="7">
+        <v>570</v>
+      </c>
+      <c r="L189" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A190" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="7">
+        <v>89455</v>
+      </c>
+      <c r="E190" s="7">
+        <v>90024</v>
+      </c>
+      <c r="F190" s="7">
+        <v>570</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I190" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J190" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L190" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M190" s="7" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="7">
+        <v>90071</v>
+      </c>
+      <c r="E191" s="7">
+        <v>90586</v>
+      </c>
+      <c r="F191" s="7">
+        <v>516</v>
+      </c>
+      <c r="L191" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="7">
+        <v>90071</v>
+      </c>
+      <c r="E192" s="7">
+        <v>90586</v>
+      </c>
+      <c r="F192" s="7">
+        <v>516</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J192" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L192" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M192" s="7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="7">
+        <v>90655</v>
+      </c>
+      <c r="E193" s="7">
+        <v>92100</v>
+      </c>
+      <c r="F193" s="7">
+        <v>1446</v>
+      </c>
+      <c r="L193" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="7">
+        <v>90655</v>
+      </c>
+      <c r="E194" s="7">
+        <v>92100</v>
+      </c>
+      <c r="F194" s="7">
+        <v>1446</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H194" s="2" t="str">
+        <f>B193</f>
+        <v>ankyrin repeat containing protein CDS</v>
+      </c>
+      <c r="I194" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J194" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K194" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L194" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M194" s="7" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="7">
+        <v>92107</v>
+      </c>
+      <c r="E195" s="7">
+        <v>92520</v>
+      </c>
+      <c r="F195" s="7">
+        <v>414</v>
+      </c>
+      <c r="L195" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="7">
+        <v>92107</v>
+      </c>
+      <c r="E196" s="7">
+        <v>92520</v>
+      </c>
+      <c r="F196" s="7">
+        <v>414</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H196" s="2" t="str">
+        <f>B195</f>
+        <v>suppressor of cytokine signaling 1 CDS</v>
+      </c>
+      <c r="I196" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J196" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L196" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M196" s="7" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="7">
+        <v>92579</v>
+      </c>
+      <c r="E197" s="7">
+        <v>93358</v>
+      </c>
+      <c r="F197" s="7">
+        <v>780</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J197" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L197" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M197" s="7" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="7">
+        <v>92582</v>
+      </c>
+      <c r="E198" s="7">
+        <v>93358</v>
+      </c>
+      <c r="F198" s="7">
+        <v>777</v>
+      </c>
+      <c r="L198" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="7">
+        <v>93360</v>
+      </c>
+      <c r="E199" s="7">
+        <v>93731</v>
+      </c>
+      <c r="F199" s="7">
+        <v>372</v>
+      </c>
+      <c r="L199" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="7">
+        <v>93360</v>
+      </c>
+      <c r="E200" s="7">
+        <v>93731</v>
+      </c>
+      <c r="F200" s="7">
+        <v>372</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I200" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J200" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L200" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M200" s="7" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="7">
+        <v>93825</v>
+      </c>
+      <c r="E201" s="7">
+        <v>94712</v>
+      </c>
+      <c r="F201" s="7">
+        <v>888</v>
+      </c>
+      <c r="L201" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="7">
+        <v>93825</v>
+      </c>
+      <c r="E202" s="7">
+        <v>94712</v>
+      </c>
+      <c r="F202" s="7">
+        <v>888</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H202" s="2" t="str">
+        <f>B201</f>
+        <v>HIT-like protein CDS</v>
+      </c>
+      <c r="I202" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J202" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K202" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L202" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M202" s="7" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="7">
+        <v>94754</v>
+      </c>
+      <c r="E203" s="7">
+        <v>95626</v>
+      </c>
+      <c r="F203" s="7">
+        <v>873</v>
+      </c>
+      <c r="L203" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="7">
+        <v>94754</v>
+      </c>
+      <c r="E204" s="7">
+        <v>95626</v>
+      </c>
+      <c r="F204" s="7">
+        <v>873</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I204" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J204" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K204" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L204" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M204" s="7" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="7">
+        <v>95666</v>
+      </c>
+      <c r="E205" s="7">
+        <v>96295</v>
+      </c>
+      <c r="F205" s="7">
+        <v>630</v>
+      </c>
+      <c r="L205" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="7">
+        <v>95666</v>
+      </c>
+      <c r="E206" s="7">
+        <v>96295</v>
+      </c>
+      <c r="F206" s="7">
+        <v>630</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I206" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J206" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K206" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L206" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M206" s="7" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="7">
+        <v>96376</v>
+      </c>
+      <c r="E207" s="7">
+        <v>99138</v>
+      </c>
+      <c r="F207" s="7">
+        <v>2763</v>
+      </c>
+      <c r="L207" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="7">
+        <v>96376</v>
+      </c>
+      <c r="E208" s="7">
+        <v>99138</v>
+      </c>
+      <c r="F208" s="7">
+        <v>2763</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H208" s="2" t="str">
+        <f>B207</f>
+        <v>D5 family NTPase CDS</v>
+      </c>
+      <c r="I208" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J208" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K208" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L208" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M208" s="7" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A209" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="7">
+        <v>99191</v>
+      </c>
+      <c r="E209" s="7">
+        <v>99346</v>
+      </c>
+      <c r="F209" s="7">
+        <v>156</v>
+      </c>
+      <c r="L209" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A210" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="7">
+        <v>99191</v>
+      </c>
+      <c r="E210" s="7">
+        <v>99346</v>
+      </c>
+      <c r="F210" s="7">
+        <v>156</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I210" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J210" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K210" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L210" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M210" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A211" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="7">
+        <v>99343</v>
+      </c>
+      <c r="E211" s="7">
+        <v>100185</v>
+      </c>
+      <c r="F211" s="7">
+        <v>843</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H211" s="2" t="str">
+        <f>B212</f>
+        <v>tumor necrosis factor receptor-associated factor CDS</v>
+      </c>
+      <c r="I211" s="7">
+        <v>99343</v>
+      </c>
+      <c r="J211" s="11">
+        <v>100239</v>
+      </c>
+      <c r="K211" s="11">
+        <v>897</v>
+      </c>
+      <c r="L211" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M211" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N211" s="2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A212" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="7">
+        <v>99343</v>
+      </c>
+      <c r="E212" s="7">
+        <v>100239</v>
+      </c>
+      <c r="F212" s="7">
+        <v>897</v>
+      </c>
+      <c r="L212" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A213" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="7">
+        <v>100259</v>
+      </c>
+      <c r="E213" s="7">
+        <v>101002</v>
+      </c>
+      <c r="F213" s="7">
+        <v>744</v>
+      </c>
+      <c r="L213" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A214" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="7">
+        <v>100259</v>
+      </c>
+      <c r="E214" s="7">
+        <v>101002</v>
+      </c>
+      <c r="F214" s="7">
+        <v>744</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I214" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J214" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K214" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L214" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M214" s="7" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A215" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="7">
+        <v>100992</v>
+      </c>
+      <c r="E215" s="7">
+        <v>101495</v>
+      </c>
+      <c r="F215" s="7">
+        <v>504</v>
+      </c>
+      <c r="L215" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A216" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="7">
+        <v>100992</v>
+      </c>
+      <c r="E216" s="7">
+        <v>101495</v>
+      </c>
+      <c r="F216" s="7">
+        <v>504</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I216" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J216" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K216" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L216" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M216" s="7" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A217" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="7">
+        <v>101534</v>
+      </c>
+      <c r="E217" s="7">
+        <v>104116</v>
+      </c>
+      <c r="F217" s="7">
+        <v>2583</v>
+      </c>
+      <c r="L217" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A218" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="7">
+        <v>101534</v>
+      </c>
+      <c r="E218" s="7">
+        <v>104116</v>
+      </c>
+      <c r="F218" s="7">
+        <v>2583</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H218" s="2" t="str">
+        <f>B217</f>
+        <v>tyrosine kinase CDS</v>
+      </c>
+      <c r="I218" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J218" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K218" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L218" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M218" s="7" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A219" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="7">
+        <v>104140</v>
+      </c>
+      <c r="E219" s="7">
+        <v>104442</v>
+      </c>
+      <c r="F219" s="7">
+        <v>303</v>
+      </c>
+      <c r="L219" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="7">
+        <v>104222</v>
+      </c>
+      <c r="E220" s="7">
+        <v>104509</v>
+      </c>
+      <c r="F220" s="7">
+        <v>288</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I220" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J220" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K220" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L220" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M220" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N220" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A221" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="7">
+        <v>104551</v>
+      </c>
+      <c r="E221" s="7">
+        <v>105561</v>
+      </c>
+      <c r="F221" s="7">
+        <v>1011</v>
+      </c>
+      <c r="L221" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A222" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="7">
+        <v>104551</v>
+      </c>
+      <c r="E222" s="7">
+        <v>105561</v>
+      </c>
+      <c r="F222" s="7">
+        <v>1011</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H222" s="2" t="str">
+        <f>B221</f>
+        <v>FV3 immediate-eary protein ICP46-like protein CDS</v>
+      </c>
+      <c r="I222" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J222" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K222" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L222" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M222" s="7" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A223" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="7">
+        <v>105087</v>
+      </c>
+      <c r="E223" s="7">
+        <v>105353</v>
+      </c>
+      <c r="F223" s="7">
+        <v>267</v>
+      </c>
+      <c r="L223" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A224" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="7">
+        <v>105622</v>
+      </c>
+      <c r="E224" s="7">
+        <v>106998</v>
+      </c>
+      <c r="F224" s="7">
+        <v>1377</v>
+      </c>
+      <c r="L224" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A225" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="7">
+        <v>105622</v>
+      </c>
+      <c r="E225" s="7">
+        <v>106998</v>
+      </c>
+      <c r="F225" s="7">
+        <v>1377</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I225" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J225" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K225" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L225" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M225" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A226" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="7">
+        <v>107052</v>
+      </c>
+      <c r="E226" s="7">
+        <v>107726</v>
+      </c>
+      <c r="F226" s="7">
+        <v>675</v>
+      </c>
+      <c r="L226" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A227" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="7">
+        <v>107052</v>
+      </c>
+      <c r="E227" s="7">
+        <v>107726</v>
+      </c>
+      <c r="F227" s="7">
+        <v>675</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H227" s="2" t="str">
+        <f>B226</f>
+        <v>FV3 31KDa-like protein CDS</v>
+      </c>
+      <c r="I227" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J227" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K227" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L227" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M227" s="7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A228" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="7">
+        <v>107820</v>
+      </c>
+      <c r="E228" s="7">
+        <v>108089</v>
+      </c>
+      <c r="F228" s="7">
+        <v>270</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I228" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J228" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K228" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L228" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M228" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N228" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A229" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="7">
+        <v>108060</v>
+      </c>
+      <c r="E229" s="7">
+        <v>109373</v>
+      </c>
+      <c r="F229" s="7">
+        <v>1314</v>
+      </c>
+      <c r="L229" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A230" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="7">
+        <v>108060</v>
+      </c>
+      <c r="E230" s="7">
+        <v>109373</v>
+      </c>
+      <c r="F230" s="7">
+        <v>1314</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H230" s="2" t="str">
+        <f>B229</f>
+        <v>ankyrin repeat containing protein CDS</v>
+      </c>
+      <c r="I230" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J230" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K230" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L230" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M230" s="7" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A231" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="7">
+        <v>109443</v>
+      </c>
+      <c r="E231" s="7">
+        <v>109730</v>
+      </c>
+      <c r="F231" s="7">
+        <v>288</v>
+      </c>
+      <c r="L231" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A232" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" s="7">
+        <v>109443</v>
+      </c>
+      <c r="E232" s="7">
+        <v>109730</v>
+      </c>
+      <c r="F232" s="7">
+        <v>288</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H232" s="2" t="str">
+        <f>B231</f>
+        <v>RING-finger-containing E3 ubiquitin ligase CDS</v>
+      </c>
+      <c r="I232" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J232" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K232" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L232" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M232" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A233" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="7">
+        <v>109761</v>
+      </c>
+      <c r="E233" s="7">
+        <v>110267</v>
+      </c>
+      <c r="F233" s="7">
+        <v>507</v>
+      </c>
+      <c r="L233" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A234" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="7">
+        <v>109884</v>
+      </c>
+      <c r="E234" s="7">
+        <v>110267</v>
+      </c>
+      <c r="F234" s="7">
+        <v>384</v>
+      </c>
+      <c r="L234" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M234" s="7" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A235" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="7">
+        <v>110288</v>
+      </c>
+      <c r="E235" s="7">
+        <v>110923</v>
+      </c>
+      <c r="F235" s="7">
+        <v>636</v>
+      </c>
+      <c r="L235" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A236" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" s="7">
+        <v>110288</v>
+      </c>
+      <c r="E236" s="7">
+        <v>110923</v>
+      </c>
+      <c r="F236" s="7">
+        <v>636</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I236" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J236" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K236" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L236" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M236" s="7" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A237" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="7">
+        <v>110933</v>
+      </c>
+      <c r="E237" s="7">
+        <v>111652</v>
+      </c>
+      <c r="F237" s="7">
+        <v>720</v>
+      </c>
+      <c r="L237" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A238" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="7">
+        <v>110933</v>
+      </c>
+      <c r="E238" s="7">
+        <v>111652</v>
+      </c>
+      <c r="F238" s="7">
+        <v>720</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H238" s="2" t="str">
+        <f>B237</f>
+        <v>ATPase CDS</v>
+      </c>
+      <c r="I238" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J238" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K238" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L238" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M238" s="7" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A239" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" s="7">
+        <v>111624</v>
+      </c>
+      <c r="E239" s="7">
+        <v>112004</v>
+      </c>
+      <c r="F239" s="7">
+        <v>381</v>
+      </c>
+      <c r="L239" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A240" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="7">
+        <v>111624</v>
+      </c>
+      <c r="E240" s="7">
+        <v>112004</v>
+      </c>
+      <c r="F240" s="7">
+        <v>381</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I240" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J240" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K240" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L240" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M240" s="7" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" s="7">
+        <v>112013</v>
+      </c>
+      <c r="E241" s="7">
+        <v>112699</v>
+      </c>
+      <c r="F241" s="7">
+        <v>687</v>
+      </c>
+      <c r="L241" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" s="7">
+        <v>112013</v>
+      </c>
+      <c r="E242" s="7">
+        <v>112699</v>
+      </c>
+      <c r="F242" s="7">
+        <v>687</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H242" s="2" t="str">
+        <f>B241</f>
+        <v>ankyrin repeat-containing protein CDS</v>
+      </c>
+      <c r="I242" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J242" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K242" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L242" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M242" s="7" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:K1 N1">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="00035">
+      <formula>NOT(ISERROR(SEARCH("00035",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="00035, 00056">
+      <formula>NOT(ISERROR(SEARCH("00035, 00056",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="00076">
+      <formula>NOT(ISERROR(SEARCH("00076",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q1">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="00035">
+      <formula>NOT(ISERROR(SEARCH("00035",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="00035, 00056">
+      <formula>NOT(ISERROR(SEARCH("00035, 00056",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="00076">
+      <formula>NOT(ISERROR(SEARCH("00076",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P64">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(P2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>